--- a/MDK-ARM/Flow_oil_v5_analysis.xlsx
+++ b/MDK-ARM/Flow_oil_v5_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="167">
   <si>
     <t>Flow_oil_v5</t>
   </si>
@@ -29,12 +29,12 @@
     <t>oled.o</t>
   </si>
   <si>
+    <t>tasks.o</t>
+  </si>
+  <si>
     <t>e4gdtu.o</t>
   </si>
   <si>
-    <t>tasks.o</t>
-  </si>
-  <si>
     <t>eeprom_drive.o</t>
   </si>
   <si>
@@ -92,66 +92,69 @@
     <t>stm32f1xx_hal_uart.o</t>
   </si>
   <si>
+    <t>stm32f1xx_hal_rcc.o</t>
+  </si>
+  <si>
+    <t>queue.o</t>
+  </si>
+  <si>
+    <t>myrtc.o</t>
+  </si>
+  <si>
+    <t>_printf_fp_dec.o</t>
+  </si>
+  <si>
+    <t>_scanf.o</t>
+  </si>
+  <si>
+    <t>_printf_fp_hex.o</t>
+  </si>
+  <si>
+    <t>stm32f1xx_hal_tim.o</t>
+  </si>
+  <si>
+    <t>stm32f1xx_hal_gpio.o</t>
+  </si>
+  <si>
+    <t>i2c.o</t>
+  </si>
+  <si>
+    <t>faddsub_clz.o</t>
+  </si>
+  <si>
+    <t>mktime.o</t>
+  </si>
+  <si>
+    <t>stm32f1xx_hal_rcc_ex.o</t>
+  </si>
+  <si>
+    <t>__printf_flags_ss_wp.o</t>
+  </si>
+  <si>
+    <t>bigflt0.o</t>
+  </si>
+  <si>
+    <t>at24c64.o</t>
+  </si>
+  <si>
+    <t>dmul.o</t>
+  </si>
+  <si>
+    <t>_scanf_int.o</t>
+  </si>
+  <si>
+    <t>lc_ctype_c.o</t>
+  </si>
+  <si>
     <t>stm32f1xx_hal_rtc.o</t>
   </si>
   <si>
-    <t>stm32f1xx_hal_rcc.o</t>
-  </si>
-  <si>
-    <t>queue.o</t>
-  </si>
-  <si>
-    <t>_printf_fp_dec.o</t>
-  </si>
-  <si>
-    <t>_scanf.o</t>
-  </si>
-  <si>
-    <t>_printf_fp_hex.o</t>
-  </si>
-  <si>
-    <t>stm32f1xx_hal_tim.o</t>
-  </si>
-  <si>
-    <t>myrtc.o</t>
-  </si>
-  <si>
-    <t>stm32f1xx_hal_gpio.o</t>
-  </si>
-  <si>
-    <t>i2c.o</t>
-  </si>
-  <si>
-    <t>faddsub_clz.o</t>
-  </si>
-  <si>
-    <t>mktime.o</t>
-  </si>
-  <si>
-    <t>stm32f1xx_hal_rcc_ex.o</t>
-  </si>
-  <si>
-    <t>__printf_flags_ss_wp.o</t>
-  </si>
-  <si>
-    <t>bigflt0.o</t>
-  </si>
-  <si>
-    <t>at24c64.o</t>
-  </si>
-  <si>
-    <t>dmul.o</t>
-  </si>
-  <si>
-    <t>_scanf_int.o</t>
-  </si>
-  <si>
-    <t>lc_ctype_c.o</t>
-  </si>
-  <si>
     <t>gpio.o</t>
   </si>
   <si>
+    <t>lludivv7m.o</t>
+  </si>
+  <si>
     <t>_scanf_str.o</t>
   </si>
   <si>
@@ -203,15 +206,15 @@
     <t>_printf_oct_int_ll.o</t>
   </si>
   <si>
+    <t>stm32f1xx_hal_iwdg.o</t>
+  </si>
+  <si>
     <t>fleqf.o</t>
   </si>
   <si>
     <t>feqf.o</t>
   </si>
   <si>
-    <t>stm32f1xx_hal_iwdg.o</t>
-  </si>
-  <si>
     <t>rt_memcpy_w.o</t>
   </si>
   <si>
@@ -221,27 +224,30 @@
     <t>d2f.o</t>
   </si>
   <si>
+    <t>f2d.o</t>
+  </si>
+  <si>
+    <t>strncpy.o</t>
+  </si>
+  <si>
+    <t>_printf_str.o</t>
+  </si>
+  <si>
+    <t>rt_memclr_w.o</t>
+  </si>
+  <si>
+    <t>_printf_pad.o</t>
+  </si>
+  <si>
     <t>cmsis_os.o</t>
   </si>
   <si>
-    <t>f2d.o</t>
-  </si>
-  <si>
-    <t>strncpy.o</t>
-  </si>
-  <si>
-    <t>_printf_str.o</t>
-  </si>
-  <si>
-    <t>rt_memclr_w.o</t>
-  </si>
-  <si>
-    <t>_printf_pad.o</t>
-  </si>
-  <si>
     <t>sys_stackheap_outer.o</t>
   </si>
   <si>
+    <t>llsdiv.o</t>
+  </si>
+  <si>
     <t>lc_numeric_c.o</t>
   </si>
   <si>
@@ -311,16 +317,19 @@
     <t>_printf_char_file.o</t>
   </si>
   <si>
+    <t>stm32f1xx_hal_rtc_ex.o</t>
+  </si>
+  <si>
+    <t>libinit2.o</t>
+  </si>
+  <si>
+    <t>_chval.o</t>
+  </si>
+  <si>
+    <t>__scatter_zi.o</t>
+  </si>
+  <si>
     <t>led.o</t>
-  </si>
-  <si>
-    <t>libinit2.o</t>
-  </si>
-  <si>
-    <t>_chval.o</t>
-  </si>
-  <si>
-    <t>__scatter_zi.o</t>
   </si>
   <si>
     <t>__scatter_copy.o</t>
@@ -596,9 +605,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$156</c:f>
+              <c:f>ram_percent!$A$3:$A$159</c:f>
               <c:strCache>
-                <c:ptCount val="154"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
@@ -609,10 +618,10 @@
                   <c:v>oled.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>tasks.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>e4gdtu.o</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>tasks.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>eeprom_drive.o</c:v>
@@ -659,7 +668,7 @@
                 <c:pt idx="19">
                   <c:v>task.o</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="156">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -667,71 +676,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$156</c:f>
+              <c:f>ram_percent!$B$3:$B$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
-                  <c:v>75.27341461181641</c:v>
+                  <c:v>72.39411163330078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.384737968444824</c:v>
+                  <c:v>10.82528686523438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.256491661071777</c:v>
+                  <c:v>7.21685791015625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.382843494415283</c:v>
+                  <c:v>2.114313840866089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.832956552505493</c:v>
+                  <c:v>1.846500754356384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.588562369346619</c:v>
+                  <c:v>1.83240532875061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8798191547393799</c:v>
+                  <c:v>1.014870643615723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5865461230278015</c:v>
+                  <c:v>0.6765804290771484</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5865461230278015</c:v>
+                  <c:v>0.6765804290771484</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4399095773696899</c:v>
+                  <c:v>0.5074353218078613</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2443942129611969</c:v>
+                  <c:v>0.2537176609039307</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1221971064805985</c:v>
+                  <c:v>0.1409542560577393</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.09775768220424652</c:v>
+                  <c:v>0.1127634048461914</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.07331826537847519</c:v>
+                  <c:v>0.08457255363464356</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.07331826537847519</c:v>
+                  <c:v>0.08457255363464356</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.07331826537847519</c:v>
+                  <c:v>0.08457255363464356</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.04887884110212326</c:v>
+                  <c:v>0.0563817024230957</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02443942055106163</c:v>
+                  <c:v>0.02819085121154785</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.02443942055106163</c:v>
+                  <c:v>0.02819085121154785</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.006109855137765408</c:v>
-                </c:pt>
-                <c:pt idx="153">
+                  <c:v>0.02114313840866089</c:v>
+                </c:pt>
+                <c:pt idx="156">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -799,9 +808,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$156</c:f>
+              <c:f>flash_percent!$A$3:$A$159</c:f>
               <c:strCache>
-                <c:ptCount val="154"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
                   <c:v>c_w.l</c:v>
                 </c:pt>
@@ -809,16 +818,16 @@
                   <c:v>tasks.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>task.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>oled_data.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>e4gdtu.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>btod.o</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>task.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>fz_ws.l</c:v>
@@ -827,16 +836,16 @@
                   <c:v>stm32f1xx_hal_uart.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>stm32f1xx_hal_rtc.o</c:v>
+                  <c:v>stm32f1xx_hal_rcc.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>stm32f1xx_hal_rcc.o</c:v>
+                  <c:v>eeprom_drive.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>eeprom_drive.o</c:v>
+                  <c:v>queue.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>queue.o</c:v>
+                  <c:v>myrtc.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>oled.o</c:v>
@@ -857,52 +866,52 @@
                   <c:v>stm32f1xx_hal_tim.o</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>myrtc.o</c:v>
+                  <c:v>stm32f1xx_hal_gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>stm32f1xx_hal_gpio.o</c:v>
+                  <c:v>heap_4.o</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>heap_4.o</c:v>
+                  <c:v>i2c.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>freertos.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>i2c.o</c:v>
+                  <c:v>faddsub_clz.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>faddsub_clz.o</c:v>
+                  <c:v>mktime.o</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>mktime.o</c:v>
+                  <c:v>stm32f1xx_hal_rcc_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>stm32f1xx_hal_rcc_ex.o</c:v>
+                  <c:v>__printf_flags_ss_wp.o</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>__printf_flags_ss_wp.o</c:v>
+                  <c:v>key.o</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>key.o</c:v>
+                  <c:v>bigflt0.o</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>bigflt0.o</c:v>
+                  <c:v>at24c64.o</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>at24c64.o</c:v>
+                  <c:v>dmul.o</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>dmul.o</c:v>
+                  <c:v>_scanf_int.o</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>_scanf_int.o</c:v>
+                  <c:v>usart.o</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>usart.o</c:v>
+                  <c:v>lc_ctype_c.o</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>lc_ctype_c.o</c:v>
+                  <c:v>stm32f1xx_hal_rtc.o</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>startup_stm32f103xb.o</c:v>
@@ -911,73 +920,73 @@
                   <c:v>gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>lludivv7m.o</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>_scanf_str.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>stm32f1xx_hal_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>_printf_wctomb.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>_printf_hex_int_ll_ptr.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>_printf_intcommon.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>stm32f1xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>dnaninf.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>fnaninf.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>stm32f1xx_hal_timebase_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>rt_memcpy_v6.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>lludiv10.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>list.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>strcmpv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>_printf_fp_infnan.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>_printf_longlong_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>_printf_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>_printf_oct_int_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
+                  <c:v>stm32f1xx_hal_iwdg.o</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>fleqf.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>feqf.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>stm32f1xx_hal_iwdg.o</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>rt_memcpy_w.o</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>rtc.o</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>frleqf.o</c:v>
@@ -986,13 +995,13 @@
                   <c:v>d2f.o</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>cmsis_os.o</c:v>
+                  <c:v>f2d.o</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>f2d.o</c:v>
+                  <c:v>strncpy.o</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>strncpy.o</c:v>
+                  <c:v>rtc.o</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>_printf_str.o</c:v>
@@ -1010,258 +1019,267 @@
                   <c:v>stm32f1xx_hal.o</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>cmsis_os.o</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
+                  <c:v>llsdiv.o</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>lc_numeric_c.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>stm32f1xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>_wcrtomb.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>_sgetc.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>__0sscanf.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>stm32f1xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>delay.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>_printf_char_common.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>scanf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>_printf_wchar.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>_printf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>__2sprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>iwdg.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>m_ws.l</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>fpclassify.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>_printf_charcount.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>dflt_clz.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="92">
                   <c:v>vsprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="93">
                   <c:v>strstr.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="94">
                   <c:v>_printf_truncate.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="95">
                   <c:v>_printf_char_file.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
+                  <c:v>stm32f1xx_hal_rtc_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>libinit2.o</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>system_stm32f1xx.o</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>printf.o</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>_chval.o</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>__scatter_zi.o</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>led.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
-                  <c:v>libinit2.o</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>system_stm32f1xx.o</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>printf.o</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>_chval.o</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>__scatter_zi.o</c:v>
-                </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="103">
                   <c:v>__scatter_copy.o</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="104">
                   <c:v>fcmpi.o</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="105">
                   <c:v>__2printf.o</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="106">
                   <c:v>isspace.o</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="107">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="108">
                   <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="109">
                   <c:v>aeabi_memset.o</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="110">
                   <c:v>__printf_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="111">
                   <c:v>dretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="112">
                   <c:v>_monlen.o</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="113">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="114">
                   <c:v>stm32f1xx_hal_pwr.o</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="115">
                   <c:v>fretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="116">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="117">
                   <c:v>_sputc.o</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="118">
                   <c:v>_printf_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="119">
                   <c:v>_printf_l.o</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
                   <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="121">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="122">
                   <c:v>ferror.o</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="123">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="124">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="125">
                   <c:v>_printf_x.o</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="126">
                   <c:v>_printf_u.o</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="127">
                   <c:v>_printf_s.o</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="128">
                   <c:v>_printf_p.o</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="129">
                   <c:v>_printf_o.o</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="130">
                   <c:v>_printf_n.o</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="131">
                   <c:v>_printf_ls.o</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="132">
                   <c:v>_printf_llx.o</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="133">
                   <c:v>_printf_llu.o</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="134">
                   <c:v>_printf_llo.o</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="135">
                   <c:v>_printf_lli.o</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="136">
                   <c:v>_printf_lld.o</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="137">
                   <c:v>_printf_lc.o</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="138">
                   <c:v>_printf_i.o</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="139">
                   <c:v>_printf_g.o</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="140">
                   <c:v>_printf_f.o</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="141">
                   <c:v>_printf_e.o</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="142">
                   <c:v>_printf_d.o</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="143">
                   <c:v>_printf_c.o</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="144">
                   <c:v>_printf_a.o</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="145">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="146">
                   <c:v>printf2.o</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="147">
                   <c:v>printf1.o</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="148">
                   <c:v>_printf_percent_end.o</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="149">
                   <c:v>stm32f1xx_hal_tim_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="150">
                   <c:v>use_no_semi_2.o</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="151">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="152">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="153">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="154">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="155">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="156">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1269,470 +1287,479 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$156</c:f>
+              <c:f>flash_percent!$B$3:$B$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
-                  <c:v>21.22913360595703</c:v>
+                  <c:v>21.49246978759766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.952970027923584</c:v>
+                  <c:v>4.988765716552734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.946614742279053</c:v>
+                  <c:v>4.899309158325195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.414880275726318</c:v>
+                  <c:v>4.857701778411865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.10134744644165</c:v>
+                  <c:v>4.327203273773193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.662825107574463</c:v>
+                  <c:v>4.027627468109131</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.49122953414917</c:v>
+                  <c:v>3.428476333618164</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.287857055664063</c:v>
+                  <c:v>3.232919931411743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.970087289810181</c:v>
+                  <c:v>2.750270366668701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.809083938598633</c:v>
+                  <c:v>2.533910274505615</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.635369777679443</c:v>
+                  <c:v>2.467337846755981</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.516735792160034</c:v>
+                  <c:v>2.425730228424072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.33878493309021</c:v>
+                  <c:v>2.321710824966431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.232861518859863</c:v>
+                  <c:v>2.192727088928223</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.872722625732422</c:v>
+                  <c:v>1.839061379432678</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.699008584022522</c:v>
+                  <c:v>1.668469667434692</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.427845120429993</c:v>
+                  <c:v>1.402180194854736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.296500325202942</c:v>
+                  <c:v>1.273196339607239</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.07617998123169</c:v>
+                  <c:v>1.123408555984497</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.067706108093262</c:v>
+                  <c:v>1.048514604568481</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.067706108093262</c:v>
+                  <c:v>0.99442458152771</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.067706108093262</c:v>
+                  <c:v>0.9819422364234924</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.012626051902771</c:v>
+                  <c:v>0.8945660591125488</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9109397530555725</c:v>
+                  <c:v>0.8904052376747131</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9067028164863586</c:v>
+                  <c:v>0.8696013689041138</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8770443201065064</c:v>
+                  <c:v>0.8508779406547546</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8664519786834717</c:v>
+                  <c:v>0.8238329291343689</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8134903907775879</c:v>
+                  <c:v>0.7822251915931702</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7965426445007324</c:v>
+                  <c:v>0.7447782158851624</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7584102749824524</c:v>
+                  <c:v>0.7073312997817993</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7202779650688171</c:v>
+                  <c:v>0.6906881928443909</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7033302187919617</c:v>
+                  <c:v>0.6657235622406006</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6779086589813232</c:v>
+                  <c:v>0.6574020385742188</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6694347858428955</c:v>
+                  <c:v>0.6490804553031921</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6355393528938294</c:v>
+                  <c:v>0.6241158246994019</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6101177930831909</c:v>
+                  <c:v>0.5825080871582031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4745360612869263</c:v>
+                  <c:v>0.4951319098472595</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4702991247177124</c:v>
+                  <c:v>0.4660064876079559</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4152190387248993</c:v>
+                  <c:v>0.461845725774765</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.406745195388794</c:v>
+                  <c:v>0.4077556729316711</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3982713222503662</c:v>
+                  <c:v>0.3994341492652893</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3770866990089417</c:v>
+                  <c:v>0.3911125957965851</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3347173929214478</c:v>
+                  <c:v>0.3703087270259857</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3304804563522339</c:v>
+                  <c:v>0.3287010192871094</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2965850234031677</c:v>
+                  <c:v>0.3245402276515961</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2965850234031677</c:v>
+                  <c:v>0.2912540435791016</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2923481166362763</c:v>
+                  <c:v>0.2912540435791016</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2923481166362763</c:v>
+                  <c:v>0.2870932817459106</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2923481166362763</c:v>
+                  <c:v>0.2870932817459106</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2711634635925293</c:v>
+                  <c:v>0.2870932817459106</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2711634635925293</c:v>
+                  <c:v>0.2662894129753113</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2626895904541016</c:v>
+                  <c:v>0.2662894129753113</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2542157471179962</c:v>
+                  <c:v>0.2579678893089294</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2372680306434631</c:v>
+                  <c:v>0.2496463358402252</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2203203141689301</c:v>
+                  <c:v>0.233003243803978</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2203203141689301</c:v>
+                  <c:v>0.2205209285020828</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2203203141689301</c:v>
+                  <c:v>0.2163601517677307</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2118464559316635</c:v>
+                  <c:v>0.2163601517677307</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2118464559316635</c:v>
+                  <c:v>0.2080386132001877</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2076095193624497</c:v>
+                  <c:v>0.2038778364658356</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.2076095193624497</c:v>
+                  <c:v>0.2038778364658356</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1906618028879166</c:v>
+                  <c:v>0.1789132058620453</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.18218794465065</c:v>
+                  <c:v>0.1789132058620453</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.18218794465065</c:v>
+                  <c:v>0.1747524291276932</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1737140864133835</c:v>
+                  <c:v>0.1705916672945023</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1694771647453308</c:v>
+                  <c:v>0.1664308905601502</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1652402281761169</c:v>
+                  <c:v>0.162270113825798</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1652402281761169</c:v>
+                  <c:v>0.162270113825798</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1610033065080643</c:v>
+                  <c:v>0.1581093519926071</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1567663699388504</c:v>
+                  <c:v>0.1581093519926071</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1525294482707977</c:v>
+                  <c:v>0.153948575258255</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1525294482707977</c:v>
+                  <c:v>0.1497877985239029</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1440555900335312</c:v>
+                  <c:v>0.1497877985239029</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1355817317962647</c:v>
+                  <c:v>0.1497877985239029</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1355817317962647</c:v>
+                  <c:v>0.1414662599563599</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1313447952270508</c:v>
+                  <c:v>0.1331447064876556</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1271078735589981</c:v>
+                  <c:v>0.1331447064876556</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1186340153217316</c:v>
+                  <c:v>0.1289839446544647</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1186340153217316</c:v>
+                  <c:v>0.1248231679201126</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.110160157084465</c:v>
+                  <c:v>0.116501621901989</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1016862988471985</c:v>
+                  <c:v>0.116501621901989</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.09321244060993195</c:v>
+                  <c:v>0.1081800758838654</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.09321244060993195</c:v>
+                  <c:v>0.09985853731632233</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.09321244060993195</c:v>
+                  <c:v>0.0915369912981987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.09321244060993195</c:v>
+                  <c:v>0.0915369912981987</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.09321244060993195</c:v>
+                  <c:v>0.0915369912981987</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.08473858237266541</c:v>
+                  <c:v>0.0915369912981987</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.08473858237266541</c:v>
+                  <c:v>0.0915369912981987</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.08473858237266541</c:v>
+                  <c:v>0.08321544528007507</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.08050165325403214</c:v>
+                  <c:v>0.08321544528007507</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.07626472413539887</c:v>
+                  <c:v>0.08321544528007507</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.07626472413539887</c:v>
+                  <c:v>0.07905467599630356</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.07626472413539887</c:v>
+                  <c:v>0.07489389926195145</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.07626472413539887</c:v>
+                  <c:v>0.07489389926195145</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.06779086589813232</c:v>
+                  <c:v>0.07489389926195145</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.06355393677949905</c:v>
+                  <c:v>0.07489389926195145</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.06355393677949905</c:v>
+                  <c:v>0.06657235324382782</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.06355393677949905</c:v>
+                  <c:v>0.06241158396005631</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.05931700766086578</c:v>
+                  <c:v>0.06241158396005631</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.05931700766086578</c:v>
+                  <c:v>0.06241158396005631</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.05508007854223251</c:v>
+                  <c:v>0.05825081095099449</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.05084314942359924</c:v>
+                  <c:v>0.05825081095099449</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.05084314942359924</c:v>
+                  <c:v>0.05825081095099449</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.03813236206769943</c:v>
+                  <c:v>0.05409003794193268</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.03813236206769943</c:v>
+                  <c:v>0.04992926865816116</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.03389543294906616</c:v>
+                  <c:v>0.04992926865816116</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.03389543294906616</c:v>
+                  <c:v>0.03744694963097572</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.02965850383043289</c:v>
+                  <c:v>0.03744694963097572</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.02542157471179962</c:v>
+                  <c:v>0.03328617662191391</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.02542157471179962</c:v>
+                  <c:v>0.03328617662191391</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.02542157471179962</c:v>
+                  <c:v>0.02912540547549725</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.02542157471179962</c:v>
+                  <c:v>0.02496463432908058</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.02118464559316635</c:v>
+                  <c:v>0.02496463432908058</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.02118464559316635</c:v>
+                  <c:v>0.02496463432908058</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.02118464559316635</c:v>
+                  <c:v>0.02496463432908058</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.02118464559316635</c:v>
+                  <c:v>0.02080386132001877</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.02118464559316635</c:v>
+                  <c:v>0.02080386132001877</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.01694771647453308</c:v>
+                  <c:v>0.02080386132001877</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.01694771647453308</c:v>
+                  <c:v>0.02080386132001877</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.01694771647453308</c:v>
+                  <c:v>0.02080386132001877</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.01694771647453308</c:v>
+                  <c:v>0.01664308831095696</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01664308831095696</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01664308831095696</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01664308831095696</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.01271078735589981</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.008473858237266541</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.008473858237266541</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.008473858237266541</c:v>
+                  <c:v>0.01248231716454029</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.008473858237266541</c:v>
+                  <c:v>0.008321544155478478</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.00423692911863327</c:v>
+                  <c:v>0.008321544155478478</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.00423692911863327</c:v>
+                  <c:v>0.008321544155478478</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.00423692911863327</c:v>
+                  <c:v>0.008321544155478478</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.00423692911863327</c:v>
+                  <c:v>0.004160772077739239</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.00423692911863327</c:v>
+                  <c:v>0.004160772077739239</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.00423692911863327</c:v>
+                  <c:v>0.004160772077739239</c:v>
                 </c:pt>
                 <c:pt idx="153">
+                  <c:v>0.004160772077739239</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.004160772077739239</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.004160772077739239</c:v>
+                </c:pt>
+                <c:pt idx="156">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1837,8 +1864,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H156" totalsRowCount="1">
-  <autoFilter ref="A2:H155"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H159" totalsRowCount="1">
+  <autoFilter ref="A2:H158"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1854,8 +1881,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H156" totalsRowCount="1">
-  <autoFilter ref="A2:H155"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H159" totalsRowCount="1">
+  <autoFilter ref="A2:H158"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -2155,7 +2182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2171,28 +2198,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2200,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>75.27341461181641</v>
+        <v>72.39411163330078</v>
       </c>
       <c r="C3" s="1">
-        <v>12320</v>
+        <v>10272</v>
       </c>
       <c r="D3" s="1">
         <v>504</v>
@@ -2218,7 +2245,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="1">
-        <v>12288</v>
+        <v>10240</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2226,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>9.384737968444824</v>
+        <v>10.82528686523438</v>
       </c>
       <c r="C4" s="1">
         <v>1536</v>
@@ -2252,16 +2279,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>6.256491661071777</v>
+        <v>7.21685791015625</v>
       </c>
       <c r="C5" s="1">
         <v>1024</v>
       </c>
       <c r="D5" s="1">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="E5" s="1">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2278,25 +2305,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>2.382843494415283</v>
+        <v>2.114313840866089</v>
       </c>
       <c r="C6" s="1">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="D6" s="1">
-        <v>2084</v>
+        <v>2398</v>
       </c>
       <c r="E6" s="1">
-        <v>2078</v>
+        <v>2338</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1">
-        <v>384</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2304,25 +2331,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.832956552505493</v>
+        <v>1.846500754356384</v>
       </c>
       <c r="C7" s="1">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="D7" s="1">
-        <v>2338</v>
+        <v>2080</v>
       </c>
       <c r="E7" s="1">
-        <v>2278</v>
+        <v>2074</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2330,16 +2357,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.588562369346619</v>
+        <v>1.83240532875061</v>
       </c>
       <c r="C8" s="1">
         <v>260</v>
       </c>
       <c r="D8" s="1">
-        <v>1244</v>
+        <v>1218</v>
       </c>
       <c r="E8" s="1">
-        <v>1236</v>
+        <v>1210</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2356,7 +2383,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.8798191547393799</v>
+        <v>1.014870643615723</v>
       </c>
       <c r="C9" s="1">
         <v>144</v>
@@ -2382,16 +2409,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.5865461230278015</v>
+        <v>0.6765804290771484</v>
       </c>
       <c r="C10" s="1">
         <v>96</v>
       </c>
       <c r="D10" s="1">
-        <v>10021</v>
+        <v>10331</v>
       </c>
       <c r="E10" s="1">
-        <v>9458</v>
+        <v>9768</v>
       </c>
       <c r="F10" s="1">
         <v>563</v>
@@ -2408,7 +2435,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.5865461230278015</v>
+        <v>0.6765804290771484</v>
       </c>
       <c r="C11" s="1">
         <v>96</v>
@@ -2434,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.4399095773696899</v>
+        <v>0.5074353218078613</v>
       </c>
       <c r="C12" s="1">
         <v>72</v>
@@ -2460,22 +2487,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.2443942129611969</v>
+        <v>0.2537176609039307</v>
       </c>
       <c r="C13" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="E13" s="1">
         <v>232</v>
       </c>
       <c r="F13" s="1">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="G13" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -2486,16 +2513,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1221971064805985</v>
+        <v>0.1409542560577393</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2512,7 +2539,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.09775768220424652</v>
+        <v>0.1127634048461914</v>
       </c>
       <c r="C15" s="1">
         <v>16</v>
@@ -2538,7 +2565,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.07331826537847519</v>
+        <v>0.08457255363464356</v>
       </c>
       <c r="C16" s="1">
         <v>12</v>
@@ -2564,7 +2591,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.07331826537847519</v>
+        <v>0.08457255363464356</v>
       </c>
       <c r="C17" s="1">
         <v>12</v>
@@ -2590,7 +2617,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.07331826537847519</v>
+        <v>0.08457255363464356</v>
       </c>
       <c r="C18" s="1">
         <v>12</v>
@@ -2616,16 +2643,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.04887884110212326</v>
+        <v>0.0563817024230957</v>
       </c>
       <c r="C19" s="1">
         <v>8</v>
       </c>
       <c r="D19" s="1">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="E19" s="1">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2642,7 +2669,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.02443942055106163</v>
+        <v>0.02819085121154785</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -2668,7 +2695,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.02443942055106163</v>
+        <v>0.02819085121154785</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -2694,56 +2721,56 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.006109855137765408</v>
+        <v>0.02114313840866089</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>1729</v>
+        <v>2355</v>
       </c>
       <c r="E22" s="1">
-        <v>1728</v>
+        <v>2352</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156">
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C156">
+      <c r="C159">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D156">
+      <c r="D159">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E156">
+      <c r="E159">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F156">
+      <c r="F159">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G156">
+      <c r="G159">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H156">
+      <c r="H159">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2759,7 +2786,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2775,28 +2802,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" t="s">
-        <v>160</v>
-      </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2804,16 +2831,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>21.22913360595703</v>
+        <v>21.49246978759766</v>
       </c>
       <c r="C3" s="1">
-        <v>10021</v>
+        <v>10331</v>
       </c>
       <c r="D3" s="1">
         <v>96</v>
       </c>
       <c r="E3" s="1">
-        <v>9458</v>
+        <v>9768</v>
       </c>
       <c r="F3" s="1">
         <v>563</v>
@@ -2827,19 +2854,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>4.952970027923584</v>
+        <v>4.988765716552734</v>
       </c>
       <c r="C4" s="1">
-        <v>2338</v>
+        <v>2398</v>
       </c>
       <c r="D4" s="1">
         <v>300</v>
       </c>
       <c r="E4" s="1">
-        <v>2278</v>
+        <v>2338</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2853,25 +2880,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>4.946614742279053</v>
+        <v>4.899309158325195</v>
       </c>
       <c r="C5" s="1">
-        <v>2335</v>
+        <v>2355</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="F5" s="1">
-        <v>2335</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -2879,77 +2906,77 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
-        <v>4.414880275726318</v>
+        <v>4.857701778411865</v>
       </c>
       <c r="C6" s="1">
-        <v>2084</v>
+        <v>2335</v>
       </c>
       <c r="D6" s="1">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>2078</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>2335</v>
       </c>
       <c r="G6" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>4.10134744644165</v>
+        <v>4.327203273773193</v>
       </c>
       <c r="C7" s="1">
-        <v>1936</v>
+        <v>2080</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="E7" s="1">
-        <v>1936</v>
+        <v>2074</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>3.662825107574463</v>
+        <v>4.027627468109131</v>
       </c>
       <c r="C8" s="1">
-        <v>1729</v>
+        <v>1936</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1728</v>
+        <v>1936</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -2960,7 +2987,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>3.49122953414917</v>
+        <v>3.428476333618164</v>
       </c>
       <c r="C9" s="1">
         <v>1648</v>
@@ -2986,16 +3013,16 @@
         <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>3.287857055664063</v>
+        <v>3.232919931411743</v>
       </c>
       <c r="C10" s="1">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3012,19 +3039,19 @@
         <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>2.970087289810181</v>
+        <v>2.750270366668701</v>
       </c>
       <c r="C11" s="1">
-        <v>1402</v>
+        <v>1322</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1402</v>
+        <v>1304</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -3035,54 +3062,54 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>2.809083938598633</v>
+        <v>2.533910274505615</v>
       </c>
       <c r="C12" s="1">
-        <v>1326</v>
+        <v>1218</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="E12" s="1">
-        <v>1308</v>
+        <v>1210</v>
       </c>
       <c r="F12" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
-        <v>2.635369777679443</v>
+        <v>2.467337846755981</v>
       </c>
       <c r="C13" s="1">
-        <v>1244</v>
+        <v>1186</v>
       </c>
       <c r="D13" s="1">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1236</v>
+        <v>1186</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3090,19 +3117,19 @@
         <v>27</v>
       </c>
       <c r="B14" s="2">
-        <v>2.516735792160034</v>
+        <v>2.425730228424072</v>
       </c>
       <c r="C14" s="1">
-        <v>1188</v>
+        <v>1166</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1188</v>
+        <v>978</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -3116,16 +3143,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>2.33878493309021</v>
+        <v>2.321710824966431</v>
       </c>
       <c r="C15" s="1">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="D15" s="1">
         <v>1024</v>
       </c>
       <c r="E15" s="1">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3142,7 +3169,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>2.232861518859863</v>
+        <v>2.192727088928223</v>
       </c>
       <c r="C16" s="1">
         <v>1054</v>
@@ -3168,7 +3195,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>1.872722625732422</v>
+        <v>1.839061379432678</v>
       </c>
       <c r="C17" s="1">
         <v>884</v>
@@ -3194,7 +3221,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>1.699008584022522</v>
+        <v>1.668469667434692</v>
       </c>
       <c r="C18" s="1">
         <v>802</v>
@@ -3220,7 +3247,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1.427845120429993</v>
+        <v>1.402180194854736</v>
       </c>
       <c r="C19" s="1">
         <v>674</v>
@@ -3246,7 +3273,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>1.296500325202942</v>
+        <v>1.273196339607239</v>
       </c>
       <c r="C20" s="1">
         <v>612</v>
@@ -3272,19 +3299,19 @@
         <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>1.07617998123169</v>
+        <v>1.123408555984497</v>
       </c>
       <c r="C21" s="1">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>412</v>
+        <v>540</v>
       </c>
       <c r="F21" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -3295,54 +3322,54 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>1.067706108093262</v>
+        <v>1.048514604568481</v>
       </c>
       <c r="C22" s="1">
         <v>504</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>10272</v>
       </c>
       <c r="E22" s="1">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>10240</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>1.067706108093262</v>
+        <v>0.99442458152771</v>
       </c>
       <c r="C23" s="1">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="D23" s="1">
-        <v>12320</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>12288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3350,22 +3377,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="2">
-        <v>1.067706108093262</v>
+        <v>0.9819422364234924</v>
       </c>
       <c r="C24" s="1">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="D24" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1">
         <v>232</v>
       </c>
       <c r="F24" s="1">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="G24" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -3376,16 +3403,16 @@
         <v>34</v>
       </c>
       <c r="B25" s="2">
-        <v>1.012626051902771</v>
+        <v>0.8945660591125488</v>
       </c>
       <c r="C25" s="1">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -3402,16 +3429,16 @@
         <v>35</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9109397530555725</v>
+        <v>0.8904052376747131</v>
       </c>
       <c r="C26" s="1">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3428,19 +3455,19 @@
         <v>36</v>
       </c>
       <c r="B27" s="2">
-        <v>0.9067028164863586</v>
+        <v>0.8696013689041138</v>
       </c>
       <c r="C27" s="1">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -3454,19 +3481,19 @@
         <v>37</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8770443201065064</v>
+        <v>0.8508779406547546</v>
       </c>
       <c r="C28" s="1">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F28" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -3477,25 +3504,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8664519786834717</v>
+        <v>0.8238329291343689</v>
       </c>
       <c r="C29" s="1">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F29" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -3503,25 +3530,25 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8134903907775879</v>
+        <v>0.7822251915931702</v>
       </c>
       <c r="C30" s="1">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D30" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>376</v>
+        <v>228</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G30" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -3532,19 +3559,19 @@
         <v>39</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7965426445007324</v>
+        <v>0.7447782158851624</v>
       </c>
       <c r="C31" s="1">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>228</v>
+        <v>358</v>
       </c>
       <c r="F31" s="1">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -3558,16 +3585,16 @@
         <v>40</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7584102749824524</v>
+        <v>0.7073312997817993</v>
       </c>
       <c r="C32" s="1">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -3584,16 +3611,16 @@
         <v>41</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7202779650688171</v>
+        <v>0.6906881928443909</v>
       </c>
       <c r="C33" s="1">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -3607,19 +3634,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7033302187919617</v>
+        <v>0.6657235622406006</v>
       </c>
       <c r="C34" s="1">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="E34" s="1">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3628,33 +3655,33 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6779086589813232</v>
+        <v>0.6574020385742188</v>
       </c>
       <c r="C35" s="1">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D35" s="1">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3662,19 +3689,19 @@
         <v>43</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6694347858428955</v>
+        <v>0.6490804553031921</v>
       </c>
       <c r="C36" s="1">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="F36" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -3688,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6355393528938294</v>
+        <v>0.6241158246994019</v>
       </c>
       <c r="C37" s="1">
         <v>300</v>
@@ -3714,16 +3741,16 @@
         <v>44</v>
       </c>
       <c r="B38" s="2">
-        <v>0.6101177930831909</v>
+        <v>0.5825080871582031</v>
       </c>
       <c r="C38" s="1">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -3740,16 +3767,16 @@
         <v>45</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4745360612869263</v>
+        <v>0.4951319098472595</v>
       </c>
       <c r="C39" s="1">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3766,16 +3793,16 @@
         <v>46</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4702991247177124</v>
+        <v>0.4660064876079559</v>
       </c>
       <c r="C40" s="1">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3792,19 +3819,19 @@
         <v>47</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4152190387248993</v>
+        <v>0.461845725774765</v>
       </c>
       <c r="C41" s="1">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="F41" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -3818,19 +3845,19 @@
         <v>48</v>
       </c>
       <c r="B42" s="2">
-        <v>0.406745195388794</v>
+        <v>0.4077556729316711</v>
       </c>
       <c r="C42" s="1">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -3844,19 +3871,19 @@
         <v>49</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3982713222503662</v>
+        <v>0.3994341492652893</v>
       </c>
       <c r="C43" s="1">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="F43" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -3870,19 +3897,19 @@
         <v>50</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3770866990089417</v>
+        <v>0.3911125957965851</v>
       </c>
       <c r="C44" s="1">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -3896,16 +3923,16 @@
         <v>51</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3347173929214478</v>
+        <v>0.3703087270259857</v>
       </c>
       <c r="C45" s="1">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3922,16 +3949,16 @@
         <v>52</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3304804563522339</v>
+        <v>0.3287010192871094</v>
       </c>
       <c r="C46" s="1">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3948,16 +3975,16 @@
         <v>53</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2965850234031677</v>
+        <v>0.3245402276515961</v>
       </c>
       <c r="C47" s="1">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3971,16 +3998,16 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2965850234031677</v>
+        <v>0.2912540435791016</v>
       </c>
       <c r="C48" s="1">
         <v>140</v>
       </c>
       <c r="D48" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>140</v>
@@ -3992,24 +4019,24 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2923481166362763</v>
+        <v>0.2912540435791016</v>
       </c>
       <c r="C49" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E49" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -4018,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4026,7 +4053,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2923481166362763</v>
+        <v>0.2870932817459106</v>
       </c>
       <c r="C50" s="1">
         <v>138</v>
@@ -4052,7 +4079,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2923481166362763</v>
+        <v>0.2870932817459106</v>
       </c>
       <c r="C51" s="1">
         <v>138</v>
@@ -4078,16 +4105,16 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2711634635925293</v>
+        <v>0.2870932817459106</v>
       </c>
       <c r="C52" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -4104,7 +4131,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2711634635925293</v>
+        <v>0.2662894129753113</v>
       </c>
       <c r="C53" s="1">
         <v>128</v>
@@ -4130,16 +4157,16 @@
         <v>59</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2626895904541016</v>
+        <v>0.2662894129753113</v>
       </c>
       <c r="C54" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -4156,16 +4183,16 @@
         <v>60</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2542157471179962</v>
+        <v>0.2579678893089294</v>
       </c>
       <c r="C55" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -4182,16 +4209,16 @@
         <v>61</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2372680306434631</v>
+        <v>0.2496463358402252</v>
       </c>
       <c r="C56" s="1">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -4208,16 +4235,16 @@
         <v>62</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2203203141689301</v>
+        <v>0.233003243803978</v>
       </c>
       <c r="C57" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -4234,16 +4261,16 @@
         <v>63</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2203203141689301</v>
+        <v>0.2205209285020828</v>
       </c>
       <c r="C58" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -4260,7 +4287,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2203203141689301</v>
+        <v>0.2163601517677307</v>
       </c>
       <c r="C59" s="1">
         <v>104</v>
@@ -4286,16 +4313,16 @@
         <v>65</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2118464559316635</v>
+        <v>0.2163601517677307</v>
       </c>
       <c r="C60" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -4309,16 +4336,16 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2">
-        <v>0.2118464559316635</v>
+        <v>0.2080386132001877</v>
       </c>
       <c r="C61" s="1">
         <v>100</v>
       </c>
       <c r="D61" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
@@ -4330,15 +4357,15 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2">
-        <v>0.2076095193624497</v>
+        <v>0.2038778364658356</v>
       </c>
       <c r="C62" s="1">
         <v>98</v>
@@ -4361,10 +4388,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2">
-        <v>0.2076095193624497</v>
+        <v>0.2038778364658356</v>
       </c>
       <c r="C63" s="1">
         <v>98</v>
@@ -4387,19 +4414,19 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1906618028879166</v>
+        <v>0.1789132058620453</v>
       </c>
       <c r="C64" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4413,10 +4440,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2">
-        <v>0.18218794465065</v>
+        <v>0.1789132058620453</v>
       </c>
       <c r="C65" s="1">
         <v>86</v>
@@ -4439,19 +4466,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B66" s="2">
-        <v>0.18218794465065</v>
+        <v>0.1747524291276932</v>
       </c>
       <c r="C66" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E66" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4460,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4468,7 +4495,7 @@
         <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1737140864133835</v>
+        <v>0.1705916672945023</v>
       </c>
       <c r="C67" s="1">
         <v>82</v>
@@ -4494,7 +4521,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1694771647453308</v>
+        <v>0.1664308905601502</v>
       </c>
       <c r="C68" s="1">
         <v>80</v>
@@ -4520,7 +4547,7 @@
         <v>72</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1652402281761169</v>
+        <v>0.162270113825798</v>
       </c>
       <c r="C69" s="1">
         <v>78</v>
@@ -4546,7 +4573,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1652402281761169</v>
+        <v>0.162270113825798</v>
       </c>
       <c r="C70" s="1">
         <v>78</v>
@@ -4572,7 +4599,7 @@
         <v>14</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1610033065080643</v>
+        <v>0.1581093519926071</v>
       </c>
       <c r="C71" s="1">
         <v>76</v>
@@ -4598,16 +4625,16 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1567663699388504</v>
+        <v>0.1581093519926071</v>
       </c>
       <c r="C72" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4624,19 +4651,19 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1525294482707977</v>
+        <v>0.153948575258255</v>
       </c>
       <c r="C73" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F73" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -4650,7 +4677,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1525294482707977</v>
+        <v>0.1497877985239029</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
@@ -4676,19 +4703,19 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1440555900335312</v>
+        <v>0.1497877985239029</v>
       </c>
       <c r="C75" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F75" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -4702,16 +4729,16 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1355817317962647</v>
+        <v>0.1497877985239029</v>
       </c>
       <c r="C76" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4728,16 +4755,16 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1355817317962647</v>
+        <v>0.1414662599563599</v>
       </c>
       <c r="C77" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4754,16 +4781,16 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1313447952270508</v>
+        <v>0.1331447064876556</v>
       </c>
       <c r="C78" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4780,16 +4807,16 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1271078735589981</v>
+        <v>0.1331447064876556</v>
       </c>
       <c r="C79" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4806,16 +4833,16 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>0.1186340153217316</v>
+        <v>0.1289839446544647</v>
       </c>
       <c r="C80" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4832,16 +4859,16 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>0.1186340153217316</v>
+        <v>0.1248231679201126</v>
       </c>
       <c r="C81" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4858,16 +4885,16 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>0.110160157084465</v>
+        <v>0.116501621901989</v>
       </c>
       <c r="C82" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4884,16 +4911,16 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>0.1016862988471985</v>
+        <v>0.116501621901989</v>
       </c>
       <c r="C83" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4910,16 +4937,16 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>0.09321244060993195</v>
+        <v>0.1081800758838654</v>
       </c>
       <c r="C84" s="1">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4936,16 +4963,16 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>0.09321244060993195</v>
+        <v>0.09985853731632233</v>
       </c>
       <c r="C85" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4962,7 +4989,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>0.09321244060993195</v>
+        <v>0.0915369912981987</v>
       </c>
       <c r="C86" s="1">
         <v>44</v>
@@ -4988,7 +5015,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>0.09321244060993195</v>
+        <v>0.0915369912981987</v>
       </c>
       <c r="C87" s="1">
         <v>44</v>
@@ -5011,16 +5038,16 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>0.09321244060993195</v>
+        <v>0.0915369912981987</v>
       </c>
       <c r="C88" s="1">
         <v>44</v>
       </c>
       <c r="D88" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E88" s="1">
         <v>44</v>
@@ -5032,24 +5059,24 @@
         <v>0</v>
       </c>
       <c r="H88" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>0.08473858237266541</v>
+        <v>0.0915369912981987</v>
       </c>
       <c r="C89" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -5063,19 +5090,19 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B90" s="2">
-        <v>0.08473858237266541</v>
+        <v>0.0915369912981987</v>
       </c>
       <c r="C90" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D90" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E90" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -5084,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5092,7 +5119,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>0.08473858237266541</v>
+        <v>0.08321544528007507</v>
       </c>
       <c r="C91" s="1">
         <v>40</v>
@@ -5118,16 +5145,16 @@
         <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>0.08050165325403214</v>
+        <v>0.08321544528007507</v>
       </c>
       <c r="C92" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -5144,16 +5171,16 @@
         <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>0.07626472413539887</v>
+        <v>0.08321544528007507</v>
       </c>
       <c r="C93" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -5170,16 +5197,16 @@
         <v>95</v>
       </c>
       <c r="B94" s="2">
-        <v>0.07626472413539887</v>
+        <v>0.07905467599630356</v>
       </c>
       <c r="C94" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -5196,7 +5223,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="2">
-        <v>0.07626472413539887</v>
+        <v>0.07489389926195145</v>
       </c>
       <c r="C95" s="1">
         <v>36</v>
@@ -5222,7 +5249,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="2">
-        <v>0.07626472413539887</v>
+        <v>0.07489389926195145</v>
       </c>
       <c r="C96" s="1">
         <v>36</v>
@@ -5248,16 +5275,16 @@
         <v>98</v>
       </c>
       <c r="B97" s="2">
-        <v>0.06779086589813232</v>
+        <v>0.07489389926195145</v>
       </c>
       <c r="C97" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -5274,16 +5301,16 @@
         <v>99</v>
       </c>
       <c r="B98" s="2">
-        <v>0.06355393677949905</v>
+        <v>0.07489389926195145</v>
       </c>
       <c r="C98" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -5297,25 +5324,25 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2">
-        <v>0.06355393677949905</v>
+        <v>0.06657235324382782</v>
       </c>
       <c r="C99" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D99" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F99" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G99" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
@@ -5323,25 +5350,25 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2">
-        <v>0.06355393677949905</v>
+        <v>0.06241158396005631</v>
       </c>
       <c r="C100" s="1">
         <v>30</v>
       </c>
       <c r="D100" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
@@ -5349,25 +5376,25 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B101" s="2">
-        <v>0.05931700766086578</v>
+        <v>0.06241158396005631</v>
       </c>
       <c r="C101" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E101" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F101" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G101" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H101" s="1">
         <v>0</v>
@@ -5375,25 +5402,25 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B102" s="2">
-        <v>0.05931700766086578</v>
+        <v>0.06241158396005631</v>
       </c>
       <c r="C102" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E102" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
@@ -5404,16 +5431,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.05508007854223251</v>
+        <v>0.05825081095099449</v>
       </c>
       <c r="C103" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -5430,16 +5457,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.05084314942359924</v>
+        <v>0.05825081095099449</v>
       </c>
       <c r="C104" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -5456,16 +5483,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.05084314942359924</v>
+        <v>0.05825081095099449</v>
       </c>
       <c r="C105" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -5482,16 +5509,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.03813236206769943</v>
+        <v>0.05409003794193268</v>
       </c>
       <c r="C106" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -5508,16 +5535,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.03813236206769943</v>
+        <v>0.04992926865816116</v>
       </c>
       <c r="C107" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -5534,16 +5561,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.03389543294906616</v>
+        <v>0.04992926865816116</v>
       </c>
       <c r="C108" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
       </c>
       <c r="E108" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -5560,16 +5587,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.03389543294906616</v>
+        <v>0.03744694963097572</v>
       </c>
       <c r="C109" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
       </c>
       <c r="E109" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -5586,16 +5613,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.02965850383043289</v>
+        <v>0.03744694963097572</v>
       </c>
       <c r="C110" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
       <c r="E110" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -5612,16 +5639,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.02542157471179962</v>
+        <v>0.03328617662191391</v>
       </c>
       <c r="C111" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
       </c>
       <c r="E111" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -5638,19 +5665,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.02542157471179962</v>
+        <v>0.03328617662191391</v>
       </c>
       <c r="C112" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
       </c>
       <c r="E112" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F112" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G112" s="1">
         <v>0</v>
@@ -5664,16 +5691,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0.02542157471179962</v>
+        <v>0.02912540547549725</v>
       </c>
       <c r="C113" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
       </c>
       <c r="E113" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -5690,7 +5717,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>0.02542157471179962</v>
+        <v>0.02496463432908058</v>
       </c>
       <c r="C114" s="1">
         <v>12</v>
@@ -5716,19 +5743,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>0.02118464559316635</v>
+        <v>0.02496463432908058</v>
       </c>
       <c r="C115" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
       </c>
       <c r="E115" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F115" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G115" s="1">
         <v>0</v>
@@ -5742,16 +5769,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>0.02118464559316635</v>
+        <v>0.02496463432908058</v>
       </c>
       <c r="C116" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
       </c>
       <c r="E116" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -5768,16 +5795,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>0.02118464559316635</v>
+        <v>0.02496463432908058</v>
       </c>
       <c r="C117" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
       </c>
       <c r="E117" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
@@ -5794,7 +5821,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0.02118464559316635</v>
+        <v>0.02080386132001877</v>
       </c>
       <c r="C118" s="1">
         <v>10</v>
@@ -5820,7 +5847,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.02118464559316635</v>
+        <v>0.02080386132001877</v>
       </c>
       <c r="C119" s="1">
         <v>10</v>
@@ -5846,16 +5873,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.01694771647453308</v>
+        <v>0.02080386132001877</v>
       </c>
       <c r="C120" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
       </c>
       <c r="E120" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -5869,19 +5896,19 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.01694771647453308</v>
+        <v>0.02080386132001877</v>
       </c>
       <c r="C121" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E121" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
@@ -5890,24 +5917,24 @@
         <v>0</v>
       </c>
       <c r="H121" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.01694771647453308</v>
+        <v>0.02080386132001877</v>
       </c>
       <c r="C122" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
       </c>
       <c r="E122" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -5921,10 +5948,10 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.01694771647453308</v>
+        <v>0.01664308831095696</v>
       </c>
       <c r="C123" s="1">
         <v>8</v>
@@ -5947,19 +5974,19 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="B124" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01664308831095696</v>
       </c>
       <c r="C124" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D124" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E124" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -5968,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5976,16 +6003,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01664308831095696</v>
       </c>
       <c r="C125" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
       </c>
       <c r="E125" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -6002,16 +6029,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01664308831095696</v>
       </c>
       <c r="C126" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
       </c>
       <c r="E126" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -6028,7 +6055,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C127" s="1">
         <v>6</v>
@@ -6054,7 +6081,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C128" s="1">
         <v>6</v>
@@ -6080,7 +6107,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C129" s="1">
         <v>6</v>
@@ -6106,7 +6133,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C130" s="1">
         <v>6</v>
@@ -6132,7 +6159,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C131" s="1">
         <v>6</v>
@@ -6158,7 +6185,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C132" s="1">
         <v>6</v>
@@ -6184,7 +6211,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C133" s="1">
         <v>6</v>
@@ -6210,7 +6237,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C134" s="1">
         <v>6</v>
@@ -6236,7 +6263,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C135" s="1">
         <v>6</v>
@@ -6262,7 +6289,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C136" s="1">
         <v>6</v>
@@ -6288,7 +6315,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C137" s="1">
         <v>6</v>
@@ -6314,7 +6341,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C138" s="1">
         <v>6</v>
@@ -6340,7 +6367,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C139" s="1">
         <v>6</v>
@@ -6366,7 +6393,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C140" s="1">
         <v>6</v>
@@ -6392,7 +6419,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C141" s="1">
         <v>6</v>
@@ -6418,7 +6445,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C142" s="1">
         <v>6</v>
@@ -6444,7 +6471,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C143" s="1">
         <v>6</v>
@@ -6470,7 +6497,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C144" s="1">
         <v>6</v>
@@ -6496,7 +6523,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.01271078735589981</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C145" s="1">
         <v>6</v>
@@ -6522,16 +6549,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.008473858237266541</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C146" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D146" s="1">
         <v>0</v>
       </c>
       <c r="E146" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F146" s="1">
         <v>0</v>
@@ -6548,16 +6575,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>0.008473858237266541</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C147" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D147" s="1">
         <v>0</v>
       </c>
       <c r="E147" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F147" s="1">
         <v>0</v>
@@ -6574,16 +6601,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>0.008473858237266541</v>
+        <v>0.01248231716454029</v>
       </c>
       <c r="C148" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D148" s="1">
         <v>0</v>
       </c>
       <c r="E148" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F148" s="1">
         <v>0</v>
@@ -6600,7 +6627,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>0.008473858237266541</v>
+        <v>0.008321544155478478</v>
       </c>
       <c r="C149" s="1">
         <v>4</v>
@@ -6626,16 +6653,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>0.00423692911863327</v>
+        <v>0.008321544155478478</v>
       </c>
       <c r="C150" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D150" s="1">
         <v>0</v>
       </c>
       <c r="E150" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F150" s="1">
         <v>0</v>
@@ -6652,16 +6679,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>0.00423692911863327</v>
+        <v>0.008321544155478478</v>
       </c>
       <c r="C151" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D151" s="1">
         <v>0</v>
       </c>
       <c r="E151" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F151" s="1">
         <v>0</v>
@@ -6678,16 +6705,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>0.00423692911863327</v>
+        <v>0.008321544155478478</v>
       </c>
       <c r="C152" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D152" s="1">
         <v>0</v>
       </c>
       <c r="E152" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F152" s="1">
         <v>0</v>
@@ -6704,7 +6731,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>0.00423692911863327</v>
+        <v>0.004160772077739239</v>
       </c>
       <c r="C153" s="1">
         <v>2</v>
@@ -6730,7 +6757,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>0.00423692911863327</v>
+        <v>0.004160772077739239</v>
       </c>
       <c r="C154" s="1">
         <v>2</v>
@@ -6756,7 +6783,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>0.00423692911863327</v>
+        <v>0.004160772077739239</v>
       </c>
       <c r="C155" s="1">
         <v>2</v>
@@ -6778,34 +6805,112 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.004160772077739239</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>2</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B156">
+      <c r="B157" s="2">
+        <v>0.004160772077739239</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>2</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.004160772077739239</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>2</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C156">
+      <c r="C159">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D156">
+      <c r="D159">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E156">
+      <c r="E159">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F156">
+      <c r="F159">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G156">
+      <c r="G159">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H156">
+      <c r="H159">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/MDK-ARM/Flow_oil_v5_analysis.xlsx
+++ b/MDK-ARM/Flow_oil_v5_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="181">
   <si>
     <t>Flow_oil_v5</t>
   </si>
@@ -29,6 +29,12 @@
     <t>oled.o</t>
   </si>
   <si>
+    <t>app_menu.o</t>
+  </si>
+  <si>
+    <t>c_w.l</t>
+  </si>
+  <si>
     <t>tasks.o</t>
   </si>
   <si>
@@ -38,24 +44,33 @@
     <t>eeprom_drive.o</t>
   </si>
   <si>
+    <t>rand.o</t>
+  </si>
+  <si>
     <t>usart.o</t>
   </si>
   <si>
-    <t>c_w.l</t>
-  </si>
-  <si>
     <t>libspace.o</t>
   </si>
   <si>
     <t>stm32f1xx_hal_timebase_tim.o</t>
   </si>
   <si>
+    <t>queue.o</t>
+  </si>
+  <si>
     <t>freertos.o</t>
   </si>
   <si>
+    <t>free_menu.o</t>
+  </si>
+  <si>
     <t>rtc.o</t>
   </si>
   <si>
+    <t>outlog.o</t>
+  </si>
+  <si>
     <t>capture_traffic.o</t>
   </si>
   <si>
@@ -80,24 +95,21 @@
     <t>task.o</t>
   </si>
   <si>
+    <t>fz_ws.l</t>
+  </si>
+  <si>
     <t>oled_data.o</t>
   </si>
   <si>
     <t>btod.o</t>
   </si>
   <si>
-    <t>fz_ws.l</t>
-  </si>
-  <si>
     <t>stm32f1xx_hal_uart.o</t>
   </si>
   <si>
     <t>stm32f1xx_hal_rcc.o</t>
   </si>
   <si>
-    <t>queue.o</t>
-  </si>
-  <si>
     <t>myrtc.o</t>
   </si>
   <si>
@@ -131,6 +143,9 @@
     <t>__printf_flags_ss_wp.o</t>
   </si>
   <si>
+    <t>fdiv.o</t>
+  </si>
+  <si>
     <t>bigflt0.o</t>
   </si>
   <si>
@@ -152,6 +167,9 @@
     <t>gpio.o</t>
   </si>
   <si>
+    <t>fmul.o</t>
+  </si>
+  <si>
     <t>lludivv7m.o</t>
   </si>
   <si>
@@ -164,6 +182,9 @@
     <t>_printf_wctomb.o</t>
   </si>
   <si>
+    <t>stm32f1xx_hal_cortex.o</t>
+  </si>
+  <si>
     <t>main.o</t>
   </si>
   <si>
@@ -173,9 +194,6 @@
     <t>_printf_intcommon.o</t>
   </si>
   <si>
-    <t>stm32f1xx_hal_cortex.o</t>
-  </si>
-  <si>
     <t>dnaninf.o</t>
   </si>
   <si>
@@ -215,6 +233,9 @@
     <t>feqf.o</t>
   </si>
   <si>
+    <t>retnan.o</t>
+  </si>
+  <si>
     <t>rt_memcpy_w.o</t>
   </si>
   <si>
@@ -224,6 +245,15 @@
     <t>d2f.o</t>
   </si>
   <si>
+    <t>__dczerorl2.o</t>
+  </si>
+  <si>
+    <t>memcmp.o</t>
+  </si>
+  <si>
+    <t>fflt_clz.o</t>
+  </si>
+  <si>
     <t>f2d.o</t>
   </si>
   <si>
@@ -239,6 +269,9 @@
     <t>_printf_pad.o</t>
   </si>
   <si>
+    <t>scalbnf.o</t>
+  </si>
+  <si>
     <t>cmsis_os.o</t>
   </si>
   <si>
@@ -275,9 +308,18 @@
     <t>delay.o</t>
   </si>
   <si>
+    <t>ffix.o</t>
+  </si>
+  <si>
+    <t>vsnprintf.o</t>
+  </si>
+  <si>
     <t>__scatter.o</t>
   </si>
   <si>
+    <t>trapv.o</t>
+  </si>
+  <si>
     <t>_printf_char_common.o</t>
   </si>
   <si>
@@ -293,6 +335,9 @@
     <t>__2sprintf.o</t>
   </si>
   <si>
+    <t>led.o</t>
+  </si>
+  <si>
     <t>m_ws.l</t>
   </si>
   <si>
@@ -305,9 +350,6 @@
     <t>dflt_clz.o</t>
   </si>
   <si>
-    <t>vsprintf.o</t>
-  </si>
-  <si>
     <t>strstr.o</t>
   </si>
   <si>
@@ -317,24 +359,18 @@
     <t>_printf_char_file.o</t>
   </si>
   <si>
+    <t>libinit2.o</t>
+  </si>
+  <si>
     <t>stm32f1xx_hal_rtc_ex.o</t>
   </si>
   <si>
-    <t>libinit2.o</t>
-  </si>
-  <si>
     <t>_chval.o</t>
   </si>
   <si>
     <t>__scatter_zi.o</t>
   </si>
   <si>
-    <t>led.o</t>
-  </si>
-  <si>
-    <t>__scatter_copy.o</t>
-  </si>
-  <si>
     <t>fcmpi.o</t>
   </si>
   <si>
@@ -353,7 +389,13 @@
     <t>aeabi_memset.o</t>
   </si>
   <si>
+    <t>_snputc.o</t>
+  </si>
+  <si>
     <t>__printf_wp.o</t>
+  </si>
+  <si>
+    <t>fcheck1.o</t>
   </si>
   <si>
     <t>dretinf.o</t>
@@ -605,9 +647,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$159</c:f>
+              <c:f>ram_percent!$A$3:$A$173</c:f>
               <c:strCache>
-                <c:ptCount val="157"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
@@ -618,57 +660,72 @@
                   <c:v>oled.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>app_menu.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>c_w.l</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>tasks.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>e4gdtu.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>eeprom_drive.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>rand.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>usart.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>c_w.l</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>stm32f1xx_hal_timebase_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>queue.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>freertos.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
+                  <c:v>free_menu.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>rtc.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>outlog.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>capture_traffic.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>stm32f1xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>port.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>iwdg.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>key.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>system_stm32f1xx.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>printf.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>task.o</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="170">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -676,71 +733,86 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$159</c:f>
+              <c:f>ram_percent!$B$3:$B$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="157"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
-                  <c:v>72.39411163330078</c:v>
+                  <c:v>51.63307571411133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.82528686523438</c:v>
+                  <c:v>28.58578491210938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.21685791015625</c:v>
+                  <c:v>5.717156887054443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.114313840866089</c:v>
+                  <c:v>3.349896669387817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.846500754356384</c:v>
+                  <c:v>1.808944225311279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.83240532875061</c:v>
+                  <c:v>1.674948334693909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.014870643615723</c:v>
+                  <c:v>1.462788224220276</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6765804290771484</c:v>
+                  <c:v>1.451621890068054</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6765804290771484</c:v>
+                  <c:v>1.272960782051086</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5074353218078613</c:v>
+                  <c:v>0.8039752244949341</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2537176609039307</c:v>
+                  <c:v>0.5359835028648377</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1409542560577393</c:v>
+                  <c:v>0.401987612247467</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1127634048461914</c:v>
+                  <c:v>0.3573223054409027</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.08457255363464356</c:v>
+                  <c:v>0.2009938061237335</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.08457255363464356</c:v>
+                  <c:v>0.1563285142183304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.08457255363464356</c:v>
+                  <c:v>0.1116632223129273</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0563817024230957</c:v>
+                  <c:v>0.08933057636022568</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02819085121154785</c:v>
+                  <c:v>0.08933057636022568</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.02819085121154785</c:v>
+                  <c:v>0.06699793785810471</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.02114313840866089</c:v>
-                </c:pt>
-                <c:pt idx="156">
+                  <c:v>0.06699793785810471</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.06699793785810471</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.04466528818011284</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.02233264409005642</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.02233264409005642</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.005583161022514105</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -808,478 +880,520 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$159</c:f>
+              <c:f>flash_percent!$A$3:$A$173</c:f>
               <c:strCache>
-                <c:ptCount val="157"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>c_w.l</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>app_menu.o</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>eeprom_drive.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>tasks.o</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>fz_ws.l</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>oled_data.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>e4gdtu.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>task.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>oled_data.o</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>e4gdtu.o</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>btod.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>fz_ws.l</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>stm32f1xx_hal_uart.o</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>stm32f1xx_hal_rcc.o</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>eeprom_drive.o</c:v>
+                  <c:v>oled.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>queue.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>stm32f1xx_hal_uart.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>stm32f1xx_hal_rcc.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>myrtc.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>oled.o</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>free_menu.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>_printf_fp_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>_scanf.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>_printf_fp_hex.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
+                  <c:v>outlog.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>port.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>stm32f1xx_hal_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>stm32f1xx_hal_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
+                  <c:v>usart.o</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>freertos.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>faddsub_clz.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>mktime.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>stm32f1xx_hal_rcc_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>__printf_flags_ss_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>key.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
+                  <c:v>fdiv.o</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>bigflt0.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>at24c64.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>dmul.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>_scanf_int.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>usart.o</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>lc_ctype_c.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>stm32f1xx_hal_rtc.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="38">
                   <c:v>startup_stm32f103xb.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
+                  <c:v>fmul.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>lludivv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>_scanf_str.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>stm32f1xx_hal_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>_printf_wctomb.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
+                  <c:v>stm32f1xx_hal_cortex.o</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>_printf_hex_int_ll_ptr.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>_printf_intcommon.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>stm32f1xx_hal_cortex.o</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>dnaninf.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>fnaninf.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>stm32f1xx_hal_timebase_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>rt_memcpy_v6.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>lludiv10.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>list.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>strcmpv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>_printf_fp_infnan.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>_printf_longlong_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>_printf_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
+                  <c:v>rand.o</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>_printf_oct_int_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>stm32f1xx_hal_iwdg.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>fleqf.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="63">
                   <c:v>feqf.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
+                  <c:v>retnan.o</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>rt_memcpy_w.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="66">
                   <c:v>frleqf.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="67">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="68">
+                  <c:v>__dczerorl2.o</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>memcmp.o</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>fflt_clz.o</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>f2d.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="72">
                   <c:v>strncpy.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="73">
                   <c:v>rtc.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>_printf_str.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="75">
                   <c:v>capture_traffic.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="76">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="77">
                   <c:v>_printf_pad.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="78">
+                  <c:v>scalbnf.o</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>stm32f1xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="80">
                   <c:v>cmsis_os.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="81">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="82">
                   <c:v>llsdiv.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="83">
                   <c:v>lc_numeric_c.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="84">
                   <c:v>stm32f1xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="85">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="86">
                   <c:v>_wcrtomb.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="87">
                   <c:v>_sgetc.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="88">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="89">
                   <c:v>__0sscanf.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="90">
                   <c:v>stm32f1xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="91">
                   <c:v>delay.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="92">
+                  <c:v>ffix.o</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>vsnprintf.o</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="95">
+                  <c:v>trapv.o</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>_printf_char_common.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="97">
                   <c:v>scanf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="98">
                   <c:v>_printf_wchar.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="99">
                   <c:v>_printf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="100">
                   <c:v>__2sprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="101">
+                  <c:v>led.o</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>iwdg.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="103">
                   <c:v>m_ws.l</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="104">
                   <c:v>fpclassify.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="105">
                   <c:v>_printf_charcount.o</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="106">
                   <c:v>dflt_clz.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
-                  <c:v>vsprintf.o</c:v>
-                </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="107">
                   <c:v>strstr.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="108">
                   <c:v>_printf_truncate.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="109">
                   <c:v>_printf_char_file.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="110">
+                  <c:v>libinit2.o</c:v>
+                </c:pt>
+                <c:pt idx="111">
                   <c:v>stm32f1xx_hal_rtc_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="97">
-                  <c:v>libinit2.o</c:v>
-                </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="112">
                   <c:v>system_stm32f1xx.o</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="113">
                   <c:v>printf.o</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="114">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="115">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="102">
-                  <c:v>led.o</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>__scatter_copy.o</c:v>
-                </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="116">
                   <c:v>fcmpi.o</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="117">
                   <c:v>__2printf.o</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="118">
                   <c:v>isspace.o</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="119">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="120">
                   <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="121">
                   <c:v>aeabi_memset.o</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="122">
+                  <c:v>_snputc.o</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>__printf_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="124">
+                  <c:v>fcheck1.o</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>dretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="126">
                   <c:v>_monlen.o</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="127">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="128">
                   <c:v>stm32f1xx_hal_pwr.o</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="129">
                   <c:v>fretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="130">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="131">
                   <c:v>_sputc.o</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="132">
                   <c:v>_printf_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="133">
                   <c:v>_printf_l.o</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="134">
                   <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="135">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="136">
                   <c:v>ferror.o</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="137">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="138">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="139">
                   <c:v>_printf_x.o</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="140">
                   <c:v>_printf_u.o</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="141">
                   <c:v>_printf_s.o</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="142">
                   <c:v>_printf_p.o</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="143">
                   <c:v>_printf_o.o</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="144">
                   <c:v>_printf_n.o</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="145">
                   <c:v>_printf_ls.o</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="146">
                   <c:v>_printf_llx.o</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="147">
                   <c:v>_printf_llu.o</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="148">
                   <c:v>_printf_llo.o</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="149">
                   <c:v>_printf_lli.o</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="150">
                   <c:v>_printf_lld.o</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="151">
                   <c:v>_printf_lc.o</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="152">
                   <c:v>_printf_i.o</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="153">
                   <c:v>_printf_g.o</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="154">
                   <c:v>_printf_f.o</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="155">
                   <c:v>_printf_e.o</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="156">
                   <c:v>_printf_d.o</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="157">
                   <c:v>_printf_c.o</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="158">
                   <c:v>_printf_a.o</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="159">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="160">
                   <c:v>printf2.o</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="161">
                   <c:v>printf1.o</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="162">
                   <c:v>_printf_percent_end.o</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="163">
                   <c:v>stm32f1xx_hal_tim_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="164">
                   <c:v>use_no_semi_2.o</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="165">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="166">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="167">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="168">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="169">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="170">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1287,479 +1401,521 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$159</c:f>
+              <c:f>flash_percent!$B$3:$B$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="157"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
-                  <c:v>21.49246978759766</c:v>
+                  <c:v>17.24020576477051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.988765716552734</c:v>
+                  <c:v>8.158731460571289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.899309158325195</c:v>
+                  <c:v>5.687273025512695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.857701778411865</c:v>
+                  <c:v>4.84885835647583</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.327203273773193</c:v>
+                  <c:v>4.329916954040527</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.027627468109131</c:v>
+                  <c:v>3.78665018081665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.428476333618164</c:v>
+                  <c:v>3.72502589225769</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.232919931411743</c:v>
+                  <c:v>3.382848978042603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.750270366668701</c:v>
+                  <c:v>3.13959527015686</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.533910274505615</c:v>
+                  <c:v>2.818500280380249</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.467337846755981</c:v>
+                  <c:v>2.714711904525757</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.425730228424072</c:v>
+                  <c:v>2.520108938217163</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.321710824966431</c:v>
+                  <c:v>2.143876552581787</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.192727088928223</c:v>
+                  <c:v>1.890892624855042</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.839061379432678</c:v>
+                  <c:v>1.712506532669067</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.668469667434692</c:v>
+                  <c:v>1.70926308631897</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.402180194854736</c:v>
+                  <c:v>1.433575510978699</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.273196339607239</c:v>
+                  <c:v>1.300596833229065</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.123408555984497</c:v>
+                  <c:v>1.240594148635864</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.048514604568481</c:v>
+                  <c:v>1.09302020072937</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99442458152771</c:v>
+                  <c:v>0.9924753308296204</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9819422364234924</c:v>
+                  <c:v>0.8757135272026062</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8945660591125488</c:v>
+                  <c:v>0.8367929458618164</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8904052376747131</c:v>
+                  <c:v>0.7751686573028565</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8696013689041138</c:v>
+                  <c:v>0.7216528058052063</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8508779406547546</c:v>
+                  <c:v>0.7200311422348023</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8238329291343689</c:v>
+                  <c:v>0.6973274350166321</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7822251915931702</c:v>
+                  <c:v>0.6940840482711792</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7447782158851624</c:v>
+                  <c:v>0.6778671741485596</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7073312997817993</c:v>
+                  <c:v>0.6632719039916992</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6906881928443909</c:v>
+                  <c:v>0.6421899199485779</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6657235622406006</c:v>
+                  <c:v>0.6292163729667664</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6574020385742188</c:v>
+                  <c:v>0.6097561120986939</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6490804553031921</c:v>
+                  <c:v>0.5805656313896179</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6241158246994019</c:v>
+                  <c:v>0.5513752102851868</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5825080871582031</c:v>
+                  <c:v>0.5384016633033752</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4951319098472595</c:v>
+                  <c:v>0.5124545693397522</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4660064876079559</c:v>
+                  <c:v>0.5059677958488464</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.461845725774765</c:v>
+                  <c:v>0.4865075349807739</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4077556729316711</c:v>
+                  <c:v>0.4540736973285675</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3994341492652893</c:v>
+                  <c:v>0.4183964729309082</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3911125957965851</c:v>
+                  <c:v>0.3859626352787018</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3703087270259857</c:v>
+                  <c:v>0.363258957862854</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3287010192871094</c:v>
+                  <c:v>0.3600155711174011</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3245402276515961</c:v>
+                  <c:v>0.3178515732288361</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2912540435791016</c:v>
+                  <c:v>0.3146081864833832</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2912540435791016</c:v>
+                  <c:v>0.3113648295402527</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2870932817459106</c:v>
+                  <c:v>0.3048780560493469</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2870932817459106</c:v>
+                  <c:v>0.2886611223220825</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2870932817459106</c:v>
+                  <c:v>0.2529838979244232</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2662894129753113</c:v>
+                  <c:v>0.2270368486642838</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2662894129753113</c:v>
+                  <c:v>0.2270368486642838</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2579678893089294</c:v>
+                  <c:v>0.2237934619188309</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2496463358402252</c:v>
+                  <c:v>0.2237934619188309</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.233003243803978</c:v>
+                  <c:v>0.2237934619188309</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2205209285020828</c:v>
+                  <c:v>0.2075765430927277</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2163601517677307</c:v>
+                  <c:v>0.2075765430927277</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2163601517677307</c:v>
+                  <c:v>0.2010897696018219</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2080386132001877</c:v>
+                  <c:v>0.1946030110120773</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2038778364658356</c:v>
+                  <c:v>0.181629478931427</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.2038778364658356</c:v>
+                  <c:v>0.181629478931427</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1789132058620453</c:v>
+                  <c:v>0.1718993186950684</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1789132058620453</c:v>
+                  <c:v>0.1686559468507767</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1747524291276932</c:v>
+                  <c:v>0.1686559468507767</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1705916672945023</c:v>
+                  <c:v>0.1621691733598709</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1664308905601502</c:v>
+                  <c:v>0.1621691733598709</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.162270113825798</c:v>
+                  <c:v>0.158925786614418</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.162270113825798</c:v>
+                  <c:v>0.158925786614418</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1581093519926071</c:v>
+                  <c:v>0.1459522545337677</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1581093519926071</c:v>
+                  <c:v>0.1427088677883148</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.153948575258255</c:v>
+                  <c:v>0.1394654959440231</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1497877985239029</c:v>
+                  <c:v>0.1394654959440231</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1497877985239029</c:v>
+                  <c:v>0.1394654959440231</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1497877985239029</c:v>
+                  <c:v>0.1362221091985703</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1414662599563599</c:v>
+                  <c:v>0.1329787224531174</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1331447064876556</c:v>
+                  <c:v>0.1297353357076645</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1331447064876556</c:v>
+                  <c:v>0.1264919489622116</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1289839446544647</c:v>
+                  <c:v>0.1264919489622116</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1248231679201126</c:v>
+                  <c:v>0.1232485696673393</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.116501621901989</c:v>
+                  <c:v>0.1232485696673393</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.116501621901989</c:v>
+                  <c:v>0.1232485696673393</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1081800758838654</c:v>
+                  <c:v>0.120005190372467</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.09985853731632233</c:v>
+                  <c:v>0.1167618036270142</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0915369912981987</c:v>
+                  <c:v>0.1167618036270142</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0915369912981987</c:v>
+                  <c:v>0.1167618036270142</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0915369912981987</c:v>
+                  <c:v>0.110275037586689</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0915369912981987</c:v>
+                  <c:v>0.1037882715463638</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0915369912981987</c:v>
+                  <c:v>0.1037882715463638</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.08321544528007507</c:v>
+                  <c:v>0.100544884800911</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.08321544528007507</c:v>
+                  <c:v>0.09730150550603867</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.08321544528007507</c:v>
+                  <c:v>0.0908147394657135</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.07905467599630356</c:v>
+                  <c:v>0.0908147394657135</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.07489389926195145</c:v>
+                  <c:v>0.08757135272026062</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.07489389926195145</c:v>
+                  <c:v>0.08432797342538834</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.07489389926195145</c:v>
+                  <c:v>0.08432797342538834</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.07489389926195145</c:v>
+                  <c:v>0.07784120738506317</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.06657235324382782</c:v>
+                  <c:v>0.07784120738506317</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.06241158396005631</c:v>
+                  <c:v>0.07135443389415741</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.06241158396005631</c:v>
+                  <c:v>0.07135443389415741</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.06241158396005631</c:v>
+                  <c:v>0.07135443389415741</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.05825081095099449</c:v>
+                  <c:v>0.07135443389415741</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.05825081095099449</c:v>
+                  <c:v>0.07135443389415741</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.05825081095099449</c:v>
+                  <c:v>0.07135443389415741</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.05409003794193268</c:v>
+                  <c:v>0.06486766785383225</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.04992926865816116</c:v>
+                  <c:v>0.06486766785383225</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.04992926865816116</c:v>
+                  <c:v>0.06486766785383225</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.03744694963097572</c:v>
+                  <c:v>0.06162428483366966</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.03744694963097572</c:v>
+                  <c:v>0.05838090181350708</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.03328617662191391</c:v>
+                  <c:v>0.05838090181350708</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.03328617662191391</c:v>
+                  <c:v>0.05838090181350708</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.02912540547549725</c:v>
+                  <c:v>0.0551375187933445</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.02496463432908058</c:v>
+                  <c:v>0.05189413577318192</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.02496463432908058</c:v>
+                  <c:v>0.04865075275301933</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.02496463432908058</c:v>
+                  <c:v>0.04865075275301933</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.02496463432908058</c:v>
+                  <c:v>0.04540736973285675</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.02080386132001877</c:v>
+                  <c:v>0.04540736973285675</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.02080386132001877</c:v>
+                  <c:v>0.03892060369253159</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.02080386132001877</c:v>
+                  <c:v>0.03892060369253159</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.02080386132001877</c:v>
+                  <c:v>0.02919045090675354</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.02080386132001877</c:v>
+                  <c:v>0.02919045090675354</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.01664308831095696</c:v>
+                  <c:v>0.02594706788659096</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.01664308831095696</c:v>
+                  <c:v>0.02594706788659096</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.01664308831095696</c:v>
+                  <c:v>0.02594706788659096</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01664308831095696</c:v>
+                  <c:v>0.02270368486642838</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01946030184626579</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01946030184626579</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01946030184626579</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01946030184626579</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01946030184626579</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01621691696345806</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01621691696345806</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01621691696345806</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01621691696345806</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01621691696345806</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01297353394329548</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01297353394329548</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01297353394329548</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.01297353394329548</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.01248231716454029</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.008321544155478478</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.008321544155478478</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.008321544155478478</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.008321544155478478</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.004160772077739239</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.004160772077739239</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.004160772077739239</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.004160772077739239</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.004160772077739239</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.004160772077739239</c:v>
+                  <c:v>0.009730150923132896</c:v>
                 </c:pt>
                 <c:pt idx="156">
+                  <c:v>0.009730150923132896</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.009730150923132896</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.009730150923132896</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.009730150923132896</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.006486766971647739</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.006486766971647739</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.006486766971647739</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.006486766971647739</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.00324338348582387</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.00324338348582387</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.00324338348582387</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.00324338348582387</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.00324338348582387</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.00324338348582387</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1864,8 +2020,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H159" totalsRowCount="1">
-  <autoFilter ref="A2:H158"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H173" totalsRowCount="1">
+  <autoFilter ref="A2:H172"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1881,8 +2037,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H159" totalsRowCount="1">
-  <autoFilter ref="A2:H158"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H173" totalsRowCount="1">
+  <autoFilter ref="A2:H172"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -2182,7 +2338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2198,28 +2354,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2227,16 +2383,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>72.39411163330078</v>
+        <v>51.63307571411133</v>
       </c>
       <c r="C3" s="1">
-        <v>10272</v>
+        <v>9248</v>
       </c>
       <c r="D3" s="1">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="E3" s="1">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2245,7 +2401,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="1">
-        <v>10240</v>
+        <v>9216</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2253,10 +2409,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>10.82528686523438</v>
+        <v>28.58578491210938</v>
       </c>
       <c r="C4" s="1">
-        <v>1536</v>
+        <v>5120</v>
       </c>
       <c r="D4" s="1">
         <v>300</v>
@@ -2271,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1536</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2279,16 +2435,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>7.21685791015625</v>
+        <v>5.717156887054443</v>
       </c>
       <c r="C5" s="1">
         <v>1024</v>
       </c>
       <c r="D5" s="1">
-        <v>1116</v>
+        <v>1738</v>
       </c>
       <c r="E5" s="1">
-        <v>1116</v>
+        <v>1738</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2305,25 +2461,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>2.114313840866089</v>
+        <v>3.349896669387817</v>
       </c>
       <c r="C6" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D6" s="1">
-        <v>2398</v>
+        <v>5031</v>
       </c>
       <c r="E6" s="1">
-        <v>2338</v>
+        <v>4736</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="H6" s="1">
-        <v>240</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2331,25 +2487,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.846500754356384</v>
+        <v>1.808944225311279</v>
       </c>
       <c r="C7" s="1">
-        <v>262</v>
+        <v>324</v>
       </c>
       <c r="D7" s="1">
-        <v>2080</v>
+        <v>10631</v>
       </c>
       <c r="E7" s="1">
-        <v>2074</v>
+        <v>10068</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="G7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>256</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2357,25 +2513,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.83240532875061</v>
+        <v>1.674948334693909</v>
       </c>
       <c r="C8" s="1">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="D8" s="1">
-        <v>1218</v>
+        <v>2990</v>
       </c>
       <c r="E8" s="1">
-        <v>1210</v>
+        <v>2930</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2383,25 +2539,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.014870643615723</v>
+        <v>1.462788224220276</v>
       </c>
       <c r="C9" s="1">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="D9" s="1">
-        <v>320</v>
+        <v>2297</v>
       </c>
       <c r="E9" s="1">
-        <v>320</v>
+        <v>2254</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1">
-        <v>144</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2409,25 +2565,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.6765804290771484</v>
+        <v>1.451621890068054</v>
       </c>
       <c r="C10" s="1">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="D10" s="1">
-        <v>10331</v>
+        <v>3507</v>
       </c>
       <c r="E10" s="1">
-        <v>9768</v>
+        <v>3002</v>
       </c>
       <c r="F10" s="1">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1">
-        <v>96</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2435,16 +2591,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.6765804290771484</v>
+        <v>1.272960782051086</v>
       </c>
       <c r="C11" s="1">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="D11" s="1">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2453,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>96</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2461,25 +2617,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.5074353218078613</v>
+        <v>0.8039752244949341</v>
       </c>
       <c r="C12" s="1">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="D12" s="1">
-        <v>140</v>
+        <v>445</v>
       </c>
       <c r="E12" s="1">
-        <v>140</v>
+        <v>428</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2487,25 +2643,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.2537176609039307</v>
+        <v>0.5359835028648377</v>
       </c>
       <c r="C13" s="1">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1">
-        <v>472</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2513,16 +2669,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1409542560577393</v>
+        <v>0.401987612247467</v>
       </c>
       <c r="C14" s="1">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="E14" s="1">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2531,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2539,25 +2695,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.1127634048461914</v>
+        <v>0.3573223054409027</v>
       </c>
       <c r="C15" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1">
-        <v>80</v>
+        <v>1674</v>
       </c>
       <c r="E15" s="1">
+        <v>1674</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
         <v>64</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2565,22 +2721,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.08457255363464356</v>
+        <v>0.2009938061237335</v>
       </c>
       <c r="C16" s="1">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="E16" s="1">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="G16" s="1">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -2591,22 +2747,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.08457255363464356</v>
+        <v>0.1563285142183304</v>
       </c>
       <c r="C17" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
-        <v>674</v>
+        <v>1056</v>
       </c>
       <c r="E17" s="1">
-        <v>662</v>
+        <v>1028</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -2617,16 +2773,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.08457255363464356</v>
+        <v>0.1116632223129273</v>
       </c>
       <c r="C18" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2635,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2643,22 +2799,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.0563817024230957</v>
+        <v>0.08933057636022568</v>
       </c>
       <c r="C19" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>396</v>
+        <v>765</v>
       </c>
       <c r="E19" s="1">
-        <v>388</v>
+        <v>656</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2669,22 +2825,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.02819085121154785</v>
+        <v>0.08933057636022568</v>
       </c>
       <c r="C20" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2695,22 +2851,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.02819085121154785</v>
+        <v>0.06699793785810471</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -2721,56 +2877,186 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.02114313840866089</v>
+        <v>0.06699793785810471</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1">
-        <v>2355</v>
+        <v>674</v>
       </c>
       <c r="E22" s="1">
-        <v>2352</v>
+        <v>662</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
-      <c r="A159" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.06699793785810471</v>
+      </c>
+      <c r="C23" s="1">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.04466528818011284</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>396</v>
+      </c>
+      <c r="E24" s="1">
+        <v>388</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.02233264409005642</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.02233264409005642</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.005583161022514105</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2086</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2036</v>
+      </c>
+      <c r="F27" s="1">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C159">
+      <c r="C173">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D159">
+      <c r="D173">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E159">
+      <c r="E173">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F159">
+      <c r="F173">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G159">
+      <c r="G173">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H159">
+      <c r="H173">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2786,7 +3072,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2802,45 +3088,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>21.49246978759766</v>
+        <v>17.24020576477051</v>
       </c>
       <c r="C3" s="1">
-        <v>10331</v>
+        <v>10631</v>
       </c>
       <c r="D3" s="1">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="E3" s="1">
-        <v>9768</v>
+        <v>10068</v>
       </c>
       <c r="F3" s="1">
         <v>563</v>
@@ -2849,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>96</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2857,123 +3143,123 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>4.988765716552734</v>
+        <v>8.158731460571289</v>
       </c>
       <c r="C4" s="1">
-        <v>2398</v>
+        <v>5031</v>
       </c>
       <c r="D4" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E4" s="1">
-        <v>2338</v>
+        <v>4736</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="H4" s="1">
-        <v>240</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4.899309158325195</v>
+        <v>5.687273025512695</v>
       </c>
       <c r="C5" s="1">
-        <v>2355</v>
+        <v>3507</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="E5" s="1">
-        <v>2352</v>
+        <v>3002</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>4.857701778411865</v>
+        <v>4.84885835647583</v>
       </c>
       <c r="C6" s="1">
-        <v>2335</v>
+        <v>2990</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>2930</v>
       </c>
       <c r="F6" s="1">
-        <v>2335</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>4.327203273773193</v>
+        <v>4.329916954040527</v>
       </c>
       <c r="C7" s="1">
-        <v>2080</v>
+        <v>2670</v>
       </c>
       <c r="D7" s="1">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>2074</v>
+        <v>2670</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
-        <v>4.027627468109131</v>
+        <v>3.78665018081665</v>
       </c>
       <c r="C8" s="1">
-        <v>1936</v>
+        <v>2335</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1936</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>2335</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -2984,51 +3270,51 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>3.428476333618164</v>
+        <v>3.72502589225769</v>
       </c>
       <c r="C9" s="1">
-        <v>1648</v>
+        <v>2297</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="E9" s="1">
-        <v>1648</v>
+        <v>2254</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>3.232919931411743</v>
+        <v>3.382848978042603</v>
       </c>
       <c r="C10" s="1">
-        <v>1554</v>
+        <v>2086</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1554</v>
+        <v>2036</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -3036,22 +3322,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
-        <v>2.750270366668701</v>
+        <v>3.13959527015686</v>
       </c>
       <c r="C11" s="1">
-        <v>1322</v>
+        <v>1936</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1304</v>
+        <v>1936</v>
       </c>
       <c r="F11" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -3062,45 +3348,45 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2.533910274505615</v>
+        <v>2.818500280380249</v>
       </c>
       <c r="C12" s="1">
-        <v>1218</v>
+        <v>1738</v>
       </c>
       <c r="D12" s="1">
-        <v>260</v>
+        <v>1024</v>
       </c>
       <c r="E12" s="1">
-        <v>1210</v>
+        <v>1738</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>252</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>2.467337846755981</v>
+        <v>2.714711904525757</v>
       </c>
       <c r="C13" s="1">
-        <v>1186</v>
+        <v>1674</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1">
-        <v>1186</v>
+        <v>1674</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3109,27 +3395,27 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
-        <v>2.425730228424072</v>
+        <v>2.520108938217163</v>
       </c>
       <c r="C14" s="1">
-        <v>1166</v>
+        <v>1554</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>978</v>
+        <v>1554</v>
       </c>
       <c r="F14" s="1">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -3140,48 +3426,48 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>2.321710824966431</v>
+        <v>2.143876552581787</v>
       </c>
       <c r="C15" s="1">
-        <v>1116</v>
+        <v>1322</v>
       </c>
       <c r="D15" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1116</v>
+        <v>1304</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
-        <v>2.192727088928223</v>
+        <v>1.890892624855042</v>
       </c>
       <c r="C16" s="1">
-        <v>1054</v>
+        <v>1166</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -3192,25 +3478,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1.839061379432678</v>
+        <v>1.712506532669067</v>
       </c>
       <c r="C17" s="1">
-        <v>884</v>
+        <v>1056</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1">
-        <v>884</v>
+        <v>1028</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -3218,22 +3504,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
-        <v>1.668469667434692</v>
+        <v>1.70926308631897</v>
       </c>
       <c r="C18" s="1">
-        <v>802</v>
+        <v>1054</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>764</v>
+        <v>1054</v>
       </c>
       <c r="F18" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -3244,25 +3530,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
-        <v>1.402180194854736</v>
+        <v>1.433575510978699</v>
       </c>
       <c r="C19" s="1">
-        <v>674</v>
+        <v>884</v>
       </c>
       <c r="D19" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>662</v>
+        <v>884</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -3270,22 +3556,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
-        <v>1.273196339607239</v>
+        <v>1.300596833229065</v>
       </c>
       <c r="C20" s="1">
-        <v>612</v>
+        <v>802</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>612</v>
+        <v>764</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -3296,25 +3582,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1.123408555984497</v>
+        <v>1.240594148635864</v>
       </c>
       <c r="C21" s="1">
-        <v>540</v>
+        <v>765</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1">
-        <v>540</v>
+        <v>656</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -3322,45 +3608,45 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>1.048514604568481</v>
+        <v>1.09302020072937</v>
       </c>
       <c r="C22" s="1">
-        <v>504</v>
+        <v>674</v>
       </c>
       <c r="D22" s="1">
-        <v>10272</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1">
-        <v>472</v>
+        <v>662</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1">
-        <v>10240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>0.99442458152771</v>
+        <v>0.9924753308296204</v>
       </c>
       <c r="C23" s="1">
-        <v>478</v>
+        <v>612</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>478</v>
+        <v>612</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3374,25 +3660,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9819422364234924</v>
+        <v>0.8757135272026062</v>
       </c>
       <c r="C24" s="1">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="D24" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>232</v>
+        <v>540</v>
       </c>
       <c r="F24" s="1">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -3400,45 +3686,45 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8945660591125488</v>
+        <v>0.8367929458618164</v>
       </c>
       <c r="C25" s="1">
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>9248</v>
       </c>
       <c r="E25" s="1">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>9216</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8904052376747131</v>
+        <v>0.7751686573028565</v>
       </c>
       <c r="C26" s="1">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3452,51 +3738,51 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8696013689041138</v>
+        <v>0.7216528058052063</v>
       </c>
       <c r="C27" s="1">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="E27" s="1">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="F27" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8508779406547546</v>
+        <v>0.7200311422348023</v>
       </c>
       <c r="C28" s="1">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E28" s="1">
-        <v>392</v>
+        <v>204</v>
       </c>
       <c r="F28" s="1">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -3504,25 +3790,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8238329291343689</v>
+        <v>0.6973274350166321</v>
       </c>
       <c r="C29" s="1">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="D29" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -3530,22 +3816,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7822251915931702</v>
+        <v>0.6940840482711792</v>
       </c>
       <c r="C30" s="1">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>228</v>
+        <v>428</v>
       </c>
       <c r="F30" s="1">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -3556,22 +3842,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7447782158851624</v>
+        <v>0.6778671741485596</v>
       </c>
       <c r="C31" s="1">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -3582,22 +3868,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7073312997817993</v>
+        <v>0.6632719039916992</v>
       </c>
       <c r="C32" s="1">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -3608,25 +3894,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6906881928443909</v>
+        <v>0.6421899199485779</v>
       </c>
       <c r="C33" s="1">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -3634,19 +3920,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6657235622406006</v>
+        <v>0.6292163729667664</v>
       </c>
       <c r="C34" s="1">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="D34" s="1">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3655,27 +3941,27 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6574020385742188</v>
+        <v>0.6097561120986939</v>
       </c>
       <c r="C35" s="1">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="F35" s="1">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -3686,19 +3972,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6490804553031921</v>
+        <v>0.5805656313896179</v>
       </c>
       <c r="C36" s="1">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3712,45 +3998,45 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6241158246994019</v>
+        <v>0.5513752102851868</v>
       </c>
       <c r="C37" s="1">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="D37" s="1">
-        <v>1536</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>64</v>
+        <v>340</v>
       </c>
       <c r="F37" s="1">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>1536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5825080871582031</v>
+        <v>0.5384016633033752</v>
       </c>
       <c r="C38" s="1">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -3764,22 +4050,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4951319098472595</v>
+        <v>0.5124545693397522</v>
       </c>
       <c r="C39" s="1">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -3790,19 +4076,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4660064876079559</v>
+        <v>0.5059677958488464</v>
       </c>
       <c r="C40" s="1">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3816,48 +4102,48 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B41" s="2">
-        <v>0.461845725774765</v>
+        <v>0.4865075349807739</v>
       </c>
       <c r="C41" s="1">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>5120</v>
       </c>
       <c r="E41" s="1">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4077556729316711</v>
+        <v>0.4540736973285675</v>
       </c>
       <c r="C42" s="1">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="F42" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -3868,19 +4154,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3994341492652893</v>
+        <v>0.4183964729309082</v>
       </c>
       <c r="C43" s="1">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3894,22 +4180,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3911125957965851</v>
+        <v>0.3859626352787018</v>
       </c>
       <c r="C44" s="1">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="F44" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -3920,19 +4206,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3703087270259857</v>
+        <v>0.363258957862854</v>
       </c>
       <c r="C45" s="1">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3946,19 +4232,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3287010192871094</v>
+        <v>0.3600155711174011</v>
       </c>
       <c r="C46" s="1">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3972,22 +4258,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3245402276515961</v>
+        <v>0.3178515732288361</v>
       </c>
       <c r="C47" s="1">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -3998,19 +4284,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2912540435791016</v>
+        <v>0.3146081864833832</v>
       </c>
       <c r="C48" s="1">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -4024,19 +4310,19 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2912540435791016</v>
+        <v>0.3113648295402527</v>
       </c>
       <c r="C49" s="1">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="D49" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -4045,27 +4331,27 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2870932817459106</v>
+        <v>0.3048780560493469</v>
       </c>
       <c r="C50" s="1">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -4076,19 +4362,19 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2870932817459106</v>
+        <v>0.2886611223220825</v>
       </c>
       <c r="C51" s="1">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -4102,19 +4388,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2870932817459106</v>
+        <v>0.2529838979244232</v>
       </c>
       <c r="C52" s="1">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -4128,19 +4414,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2662894129753113</v>
+        <v>0.2270368486642838</v>
       </c>
       <c r="C53" s="1">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -4154,19 +4440,19 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2662894129753113</v>
+        <v>0.2270368486642838</v>
       </c>
       <c r="C54" s="1">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E54" s="1">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -4175,24 +4461,24 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2579678893089294</v>
+        <v>0.2237934619188309</v>
       </c>
       <c r="C55" s="1">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -4206,19 +4492,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2496463358402252</v>
+        <v>0.2237934619188309</v>
       </c>
       <c r="C56" s="1">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -4232,19 +4518,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" s="2">
-        <v>0.233003243803978</v>
+        <v>0.2237934619188309</v>
       </c>
       <c r="C57" s="1">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -4258,19 +4544,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2205209285020828</v>
+        <v>0.2075765430927277</v>
       </c>
       <c r="C58" s="1">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -4284,19 +4570,19 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2163601517677307</v>
+        <v>0.2075765430927277</v>
       </c>
       <c r="C59" s="1">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -4310,19 +4596,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2163601517677307</v>
+        <v>0.2010897696018219</v>
       </c>
       <c r="C60" s="1">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -4336,19 +4622,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2">
-        <v>0.2080386132001877</v>
+        <v>0.1946030110120773</v>
       </c>
       <c r="C61" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4362,19 +4648,19 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B62" s="2">
-        <v>0.2038778364658356</v>
+        <v>0.181629478931427</v>
       </c>
       <c r="C62" s="1">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="E62" s="1">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4383,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4391,16 +4677,16 @@
         <v>68</v>
       </c>
       <c r="B63" s="2">
-        <v>0.2038778364658356</v>
+        <v>0.181629478931427</v>
       </c>
       <c r="C63" s="1">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4417,16 +4703,16 @@
         <v>69</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1789132058620453</v>
+        <v>0.1718993186950684</v>
       </c>
       <c r="C64" s="1">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4443,16 +4729,16 @@
         <v>70</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1789132058620453</v>
+        <v>0.1686559468507767</v>
       </c>
       <c r="C65" s="1">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4466,19 +4752,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1747524291276932</v>
+        <v>0.1686559468507767</v>
       </c>
       <c r="C66" s="1">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D66" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4487,24 +4773,24 @@
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1705916672945023</v>
+        <v>0.1621691733598709</v>
       </c>
       <c r="C67" s="1">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4518,25 +4804,25 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1664308905601502</v>
+        <v>0.1621691733598709</v>
       </c>
       <c r="C68" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D68" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -4544,19 +4830,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2">
-        <v>0.162270113825798</v>
+        <v>0.158925786614418</v>
       </c>
       <c r="C69" s="1">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4570,19 +4856,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2">
-        <v>0.162270113825798</v>
+        <v>0.158925786614418</v>
       </c>
       <c r="C70" s="1">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4596,25 +4882,25 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1581093519926071</v>
+        <v>0.1459522545337677</v>
       </c>
       <c r="C71" s="1">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D71" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
@@ -4622,19 +4908,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1581093519926071</v>
+        <v>0.1427088677883148</v>
       </c>
       <c r="C72" s="1">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4648,19 +4934,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2">
-        <v>0.153948575258255</v>
+        <v>0.1394654959440231</v>
       </c>
       <c r="C73" s="1">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4674,19 +4960,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1497877985239029</v>
+        <v>0.1394654959440231</v>
       </c>
       <c r="C74" s="1">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4700,22 +4986,22 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1497877985239029</v>
+        <v>0.1394654959440231</v>
       </c>
       <c r="C75" s="1">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F75" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -4726,19 +5012,19 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1497877985239029</v>
+        <v>0.1362221091985703</v>
       </c>
       <c r="C76" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E76" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4747,24 +5033,24 @@
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1414662599563599</v>
+        <v>0.1329787224531174</v>
       </c>
       <c r="C77" s="1">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4778,16 +5064,16 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.1297353357076645</v>
+      </c>
+      <c r="C78" s="1">
         <v>80</v>
       </c>
-      <c r="B78" s="2">
-        <v>0.1331447064876556</v>
-      </c>
-      <c r="C78" s="1">
-        <v>64</v>
-      </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E78" s="1">
         <v>64</v>
@@ -4796,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H78" s="1">
         <v>0</v>
@@ -4804,19 +5090,19 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1331447064876556</v>
+        <v>0.1264919489622116</v>
       </c>
       <c r="C79" s="1">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4830,19 +5116,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" s="2">
-        <v>0.1289839446544647</v>
+        <v>0.1264919489622116</v>
       </c>
       <c r="C80" s="1">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4856,19 +5142,19 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2">
-        <v>0.1248231679201126</v>
+        <v>0.1232485696673393</v>
       </c>
       <c r="C81" s="1">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4882,25 +5168,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B82" s="2">
-        <v>0.116501621901989</v>
+        <v>0.1232485696673393</v>
       </c>
       <c r="C82" s="1">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E82" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H82" s="1">
         <v>0</v>
@@ -4911,16 +5197,16 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>0.116501621901989</v>
+        <v>0.1232485696673393</v>
       </c>
       <c r="C83" s="1">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4937,16 +5223,16 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>0.1081800758838654</v>
+        <v>0.120005190372467</v>
       </c>
       <c r="C84" s="1">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4963,16 +5249,16 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>0.09985853731632233</v>
+        <v>0.1167618036270142</v>
       </c>
       <c r="C85" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4989,10 +5275,10 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>0.0915369912981987</v>
+        <v>0.1167618036270142</v>
       </c>
       <c r="C86" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -5001,7 +5287,7 @@
         <v>44</v>
       </c>
       <c r="F86" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
@@ -5015,16 +5301,16 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>0.0915369912981987</v>
+        <v>0.1167618036270142</v>
       </c>
       <c r="C87" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -5041,16 +5327,16 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>0.0915369912981987</v>
+        <v>0.110275037586689</v>
       </c>
       <c r="C88" s="1">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -5067,16 +5353,16 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>0.0915369912981987</v>
+        <v>0.1037882715463638</v>
       </c>
       <c r="C89" s="1">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -5090,19 +5376,19 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>0.0915369912981987</v>
+        <v>0.1037882715463638</v>
       </c>
       <c r="C90" s="1">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D90" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -5111,24 +5397,24 @@
         <v>0</v>
       </c>
       <c r="H90" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>0.08321544528007507</v>
+        <v>0.100544884800911</v>
       </c>
       <c r="C91" s="1">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -5142,19 +5428,19 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>0.08321544528007507</v>
+        <v>0.09730150550603867</v>
       </c>
       <c r="C92" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -5168,19 +5454,19 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>0.08321544528007507</v>
+        <v>0.0908147394657135</v>
       </c>
       <c r="C93" s="1">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -5194,19 +5480,19 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>0.07905467599630356</v>
+        <v>0.0908147394657135</v>
       </c>
       <c r="C94" s="1">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -5220,19 +5506,19 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>0.07489389926195145</v>
+        <v>0.08757135272026062</v>
       </c>
       <c r="C95" s="1">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -5246,19 +5532,19 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>0.07489389926195145</v>
+        <v>0.08432797342538834</v>
       </c>
       <c r="C96" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -5272,19 +5558,19 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>0.07489389926195145</v>
+        <v>0.08432797342538834</v>
       </c>
       <c r="C97" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -5298,19 +5584,19 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>0.07489389926195145</v>
+        <v>0.07784120738506317</v>
       </c>
       <c r="C98" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -5324,19 +5610,19 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>0.06657235324382782</v>
+        <v>0.07784120738506317</v>
       </c>
       <c r="C99" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -5350,19 +5636,19 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>0.06241158396005631</v>
+        <v>0.07135443389415741</v>
       </c>
       <c r="C100" s="1">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -5376,25 +5662,25 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>0.06241158396005631</v>
+        <v>0.07135443389415741</v>
       </c>
       <c r="C101" s="1">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D101" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F101" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G101" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1">
         <v>0</v>
@@ -5402,25 +5688,25 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>0.06241158396005631</v>
+        <v>0.07135443389415741</v>
       </c>
       <c r="C102" s="1">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D102" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
@@ -5428,19 +5714,19 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>0.05825081095099449</v>
+        <v>0.07135443389415741</v>
       </c>
       <c r="C103" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -5454,19 +5740,19 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>0.05825081095099449</v>
+        <v>0.07135443389415741</v>
       </c>
       <c r="C104" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -5480,19 +5766,19 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="B105" s="2">
-        <v>0.05825081095099449</v>
+        <v>0.07135443389415741</v>
       </c>
       <c r="C105" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D105" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E105" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -5501,24 +5787,24 @@
         <v>0</v>
       </c>
       <c r="H105" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2">
-        <v>0.05409003794193268</v>
+        <v>0.06486766785383225</v>
       </c>
       <c r="C106" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -5532,19 +5818,19 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2">
-        <v>0.04992926865816116</v>
+        <v>0.06486766785383225</v>
       </c>
       <c r="C107" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -5558,19 +5844,19 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2">
-        <v>0.04992926865816116</v>
+        <v>0.06486766785383225</v>
       </c>
       <c r="C108" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
       </c>
       <c r="E108" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -5584,19 +5870,19 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2">
-        <v>0.03744694963097572</v>
+        <v>0.06162428483366966</v>
       </c>
       <c r="C109" s="1">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
       </c>
       <c r="E109" s="1">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -5610,19 +5896,19 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2">
-        <v>0.03744694963097572</v>
+        <v>0.05838090181350708</v>
       </c>
       <c r="C110" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
       <c r="E110" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -5636,19 +5922,19 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2">
-        <v>0.03328617662191391</v>
+        <v>0.05838090181350708</v>
       </c>
       <c r="C111" s="1">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
       </c>
       <c r="E111" s="1">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -5662,19 +5948,19 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>0.03328617662191391</v>
+        <v>0.05838090181350708</v>
       </c>
       <c r="C112" s="1">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
       </c>
       <c r="E112" s="1">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -5688,19 +5974,19 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>0.02912540547549725</v>
+        <v>0.0551375187933445</v>
       </c>
       <c r="C113" s="1">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
       </c>
       <c r="E113" s="1">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -5714,19 +6000,19 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2">
-        <v>0.02496463432908058</v>
+        <v>0.05189413577318192</v>
       </c>
       <c r="C114" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -5740,25 +6026,25 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="B115" s="2">
-        <v>0.02496463432908058</v>
+        <v>0.04865075275301933</v>
       </c>
       <c r="C115" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D115" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E115" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F115" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G115" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H115" s="1">
         <v>0</v>
@@ -5766,25 +6052,25 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B116" s="2">
-        <v>0.02496463432908058</v>
+        <v>0.04865075275301933</v>
       </c>
       <c r="C116" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D116" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E116" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
       </c>
       <c r="G116" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H116" s="1">
         <v>0</v>
@@ -5795,16 +6081,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>0.02496463432908058</v>
+        <v>0.04540736973285675</v>
       </c>
       <c r="C117" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
       </c>
       <c r="E117" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
@@ -5821,16 +6107,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0.02080386132001877</v>
+        <v>0.04540736973285675</v>
       </c>
       <c r="C118" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
       </c>
       <c r="E118" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
@@ -5847,16 +6133,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.02080386132001877</v>
+        <v>0.03892060369253159</v>
       </c>
       <c r="C119" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
       </c>
       <c r="E119" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -5873,16 +6159,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.02080386132001877</v>
+        <v>0.03892060369253159</v>
       </c>
       <c r="C120" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
       </c>
       <c r="E120" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -5899,16 +6185,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.02080386132001877</v>
+        <v>0.02919045090675354</v>
       </c>
       <c r="C121" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
       </c>
       <c r="E121" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
@@ -5925,16 +6211,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.02080386132001877</v>
+        <v>0.02919045090675354</v>
       </c>
       <c r="C122" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
       </c>
       <c r="E122" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -5951,16 +6237,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.01664308831095696</v>
+        <v>0.02594706788659096</v>
       </c>
       <c r="C123" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
       </c>
       <c r="E123" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
@@ -5974,19 +6260,19 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.01664308831095696</v>
+        <v>0.02594706788659096</v>
       </c>
       <c r="C124" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D124" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -5995,24 +6281,24 @@
         <v>0</v>
       </c>
       <c r="H124" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>0.01664308831095696</v>
+        <v>0.02594706788659096</v>
       </c>
       <c r="C125" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
       </c>
       <c r="E125" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -6026,19 +6312,19 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01664308831095696</v>
+        <v>0.02270368486642838</v>
       </c>
       <c r="C126" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
       </c>
       <c r="E126" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -6052,19 +6338,19 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01946030184626579</v>
       </c>
       <c r="C127" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
       </c>
       <c r="E127" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
@@ -6078,19 +6364,19 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01946030184626579</v>
       </c>
       <c r="C128" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
       </c>
       <c r="E128" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -6104,22 +6390,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01946030184626579</v>
       </c>
       <c r="C129" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
       </c>
       <c r="E129" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F129" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G129" s="1">
         <v>0</v>
@@ -6130,19 +6416,19 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01946030184626579</v>
       </c>
       <c r="C130" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
       </c>
       <c r="E130" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
@@ -6156,19 +6442,19 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01946030184626579</v>
       </c>
       <c r="C131" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
       </c>
       <c r="E131" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F131" s="1">
         <v>0</v>
@@ -6182,19 +6468,19 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01621691696345806</v>
       </c>
       <c r="C132" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
       </c>
       <c r="E132" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -6208,19 +6494,19 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01621691696345806</v>
       </c>
       <c r="C133" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
       </c>
       <c r="E133" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -6234,19 +6520,19 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01621691696345806</v>
       </c>
       <c r="C134" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
       </c>
       <c r="E134" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
@@ -6260,19 +6546,19 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01621691696345806</v>
       </c>
       <c r="C135" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
       </c>
       <c r="E135" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F135" s="1">
         <v>0</v>
@@ -6286,19 +6572,19 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01621691696345806</v>
       </c>
       <c r="C136" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1">
         <v>0</v>
       </c>
       <c r="E136" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F136" s="1">
         <v>0</v>
@@ -6312,19 +6598,19 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01297353394329548</v>
       </c>
       <c r="C137" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D137" s="1">
         <v>0</v>
       </c>
       <c r="E137" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -6338,19 +6624,19 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="B138" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01297353394329548</v>
       </c>
       <c r="C138" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D138" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E138" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
@@ -6359,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6367,16 +6653,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01297353394329548</v>
       </c>
       <c r="C139" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D139" s="1">
         <v>0</v>
       </c>
       <c r="E139" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
@@ -6393,16 +6679,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.01297353394329548</v>
       </c>
       <c r="C140" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D140" s="1">
         <v>0</v>
       </c>
       <c r="E140" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
@@ -6419,7 +6705,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C141" s="1">
         <v>6</v>
@@ -6445,7 +6731,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C142" s="1">
         <v>6</v>
@@ -6471,7 +6757,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C143" s="1">
         <v>6</v>
@@ -6497,7 +6783,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C144" s="1">
         <v>6</v>
@@ -6523,7 +6809,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C145" s="1">
         <v>6</v>
@@ -6549,7 +6835,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C146" s="1">
         <v>6</v>
@@ -6575,7 +6861,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C147" s="1">
         <v>6</v>
@@ -6601,7 +6887,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>0.01248231716454029</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C148" s="1">
         <v>6</v>
@@ -6627,16 +6913,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>0.008321544155478478</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C149" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D149" s="1">
         <v>0</v>
       </c>
       <c r="E149" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F149" s="1">
         <v>0</v>
@@ -6653,16 +6939,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>0.008321544155478478</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C150" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D150" s="1">
         <v>0</v>
       </c>
       <c r="E150" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F150" s="1">
         <v>0</v>
@@ -6679,16 +6965,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>0.008321544155478478</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C151" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D151" s="1">
         <v>0</v>
       </c>
       <c r="E151" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F151" s="1">
         <v>0</v>
@@ -6705,16 +6991,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>0.008321544155478478</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C152" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D152" s="1">
         <v>0</v>
       </c>
       <c r="E152" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F152" s="1">
         <v>0</v>
@@ -6731,16 +7017,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>0.004160772077739239</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C153" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
       </c>
       <c r="E153" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F153" s="1">
         <v>0</v>
@@ -6757,16 +7043,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>0.004160772077739239</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C154" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
       </c>
       <c r="E154" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F154" s="1">
         <v>0</v>
@@ -6783,16 +7069,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>0.004160772077739239</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C155" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
       </c>
       <c r="E155" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F155" s="1">
         <v>0</v>
@@ -6809,16 +7095,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>0.004160772077739239</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C156" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D156" s="1">
         <v>0</v>
       </c>
       <c r="E156" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F156" s="1">
         <v>0</v>
@@ -6835,16 +7121,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>0.004160772077739239</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C157" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D157" s="1">
         <v>0</v>
       </c>
       <c r="E157" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F157" s="1">
         <v>0</v>
@@ -6861,56 +7147,420 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>0.004160772077739239</v>
+        <v>0.009730150923132896</v>
       </c>
       <c r="C158" s="1">
+        <v>6</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>6</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.009730150923132896</v>
+      </c>
+      <c r="C159" s="1">
+        <v>6</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>6</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.009730150923132896</v>
+      </c>
+      <c r="C160" s="1">
+        <v>6</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1">
+        <v>6</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.009730150923132896</v>
+      </c>
+      <c r="C161" s="1">
+        <v>6</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1">
+        <v>6</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.009730150923132896</v>
+      </c>
+      <c r="C162" s="1">
+        <v>6</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>6</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.006486766971647739</v>
+      </c>
+      <c r="C163" s="1">
+        <v>4</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1">
+        <v>4</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.006486766971647739</v>
+      </c>
+      <c r="C164" s="1">
+        <v>4</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1">
+        <v>4</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.006486766971647739</v>
+      </c>
+      <c r="C165" s="1">
+        <v>4</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1">
+        <v>4</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.006486766971647739</v>
+      </c>
+      <c r="C166" s="1">
+        <v>4</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1">
+        <v>4</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.00324338348582387</v>
+      </c>
+      <c r="C167" s="1">
         <v>2</v>
       </c>
-      <c r="D158" s="1">
-        <v>0</v>
-      </c>
-      <c r="E158" s="1">
+      <c r="D167" s="1">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1">
         <v>2</v>
       </c>
-      <c r="F158" s="1">
-        <v>0</v>
-      </c>
-      <c r="G158" s="1">
-        <v>0</v>
-      </c>
-      <c r="H158" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159">
+      <c r="F167" s="1">
+        <v>0</v>
+      </c>
+      <c r="G167" s="1">
+        <v>0</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.00324338348582387</v>
+      </c>
+      <c r="C168" s="1">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1">
+        <v>2</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>0.00324338348582387</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1">
+        <v>2</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1">
+        <v>0</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.00324338348582387</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1">
+        <v>2</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0</v>
+      </c>
+      <c r="G170" s="1">
+        <v>0</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.00324338348582387</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0</v>
+      </c>
+      <c r="E171" s="1">
+        <v>2</v>
+      </c>
+      <c r="F171" s="1">
+        <v>0</v>
+      </c>
+      <c r="G171" s="1">
+        <v>0</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.00324338348582387</v>
+      </c>
+      <c r="C172" s="1">
+        <v>2</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1">
+        <v>2</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
+      <c r="G172" s="1">
+        <v>0</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C159">
+      <c r="C173">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D159">
+      <c r="D173">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E159">
+      <c r="E173">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F159">
+      <c r="F173">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G159">
+      <c r="G173">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H159">
+      <c r="H173">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/MDK-ARM/Flow_oil_v5_analysis.xlsx
+++ b/MDK-ARM/Flow_oil_v5_analysis.xlsx
@@ -1406,514 +1406,514 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="171"/>
                 <c:pt idx="0">
-                  <c:v>17.24020576477051</c:v>
+                  <c:v>17.23014640808106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.158731460571289</c:v>
+                  <c:v>8.153970718383789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.687273025512695</c:v>
+                  <c:v>5.68395471572876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.84885835647583</c:v>
+                  <c:v>4.846029281616211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.329916954040527</c:v>
+                  <c:v>4.327390670776367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.78665018081665</c:v>
+                  <c:v>3.784440755844116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.72502589225769</c:v>
+                  <c:v>3.722852468490601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.382848978042603</c:v>
+                  <c:v>3.439222097396851</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.13959527015686</c:v>
+                  <c:v>3.137763261795044</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.818500280380249</c:v>
+                  <c:v>2.816855669021606</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.714711904525757</c:v>
+                  <c:v>2.713128089904785</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.520108938217163</c:v>
+                  <c:v>2.518638610839844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.143876552581787</c:v>
+                  <c:v>2.142625570297241</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.890892624855042</c:v>
+                  <c:v>1.889789342880249</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.712506532669067</c:v>
+                  <c:v>1.711507320404053</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.70926308631897</c:v>
+                  <c:v>1.708265781402588</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.433575510978699</c:v>
+                  <c:v>1.432739019393921</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.300596833229065</c:v>
+                  <c:v>1.299837946891785</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.240594148635864</c:v>
+                  <c:v>1.239870309829712</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.09302020072937</c:v>
+                  <c:v>1.092382550239563</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9924753308296204</c:v>
+                  <c:v>0.9918962717056274</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.8757135272026062</c:v>
+                  <c:v>0.8752025961875916</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8367929458618164</c:v>
+                  <c:v>0.8363047242164612</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7751686573028565</c:v>
+                  <c:v>0.7747163772583008</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7216528058052063</c:v>
+                  <c:v>0.7212317585945129</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7200311422348023</c:v>
+                  <c:v>0.7196110486984253</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.6973274350166321</c:v>
+                  <c:v>0.6969205737113953</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6940840482711792</c:v>
+                  <c:v>0.6936790943145752</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6778671741485596</c:v>
+                  <c:v>0.6774716377258301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6632719039916992</c:v>
+                  <c:v>0.6628849506378174</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6421899199485779</c:v>
+                  <c:v>0.6418152451515198</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6292163729667664</c:v>
+                  <c:v>0.6288492679595947</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6097561120986939</c:v>
+                  <c:v>0.6094003319740295</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5805656313896179</c:v>
+                  <c:v>0.5802268981933594</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5513752102851868</c:v>
+                  <c:v>0.5510534644126892</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5384016633033752</c:v>
+                  <c:v>0.5380875468254089</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5124545693397522</c:v>
+                  <c:v>0.5121555924415588</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5059677958488464</c:v>
+                  <c:v>0.5056726336479187</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4865075349807739</c:v>
+                  <c:v>0.4862236678600311</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4540736973285675</c:v>
+                  <c:v>0.4538087546825409</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4183964729309082</c:v>
+                  <c:v>0.4181523621082306</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3859626352787018</c:v>
+                  <c:v>0.3857374489307404</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.363258957862854</c:v>
+                  <c:v>0.3630470037460327</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3600155711174011</c:v>
+                  <c:v>0.3598055243492127</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3178515732288361</c:v>
+                  <c:v>0.3176661133766174</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3146081864833832</c:v>
+                  <c:v>0.3144246339797974</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3113648295402527</c:v>
+                  <c:v>0.3111831545829773</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3048780560493469</c:v>
+                  <c:v>0.3047001659870148</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2886611223220825</c:v>
+                  <c:v>0.2884927093982697</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2529838979244232</c:v>
+                  <c:v>0.2528363168239594</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2270368486642838</c:v>
+                  <c:v>0.2269043773412705</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2270368486642838</c:v>
+                  <c:v>0.2269043773412705</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2237934619188309</c:v>
+                  <c:v>0.2236628830432892</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2237934619188309</c:v>
+                  <c:v>0.2236628830432892</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2237934619188309</c:v>
+                  <c:v>0.2236628830432892</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2075765430927277</c:v>
+                  <c:v>0.2074554264545441</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2075765430927277</c:v>
+                  <c:v>0.2074554264545441</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2010897696018219</c:v>
+                  <c:v>0.2009724527597427</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1946030110120773</c:v>
+                  <c:v>0.1944894641637802</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.181629478931427</c:v>
+                  <c:v>0.1815235018730164</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.181629478931427</c:v>
+                  <c:v>0.1815235018730164</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1718993186950684</c:v>
+                  <c:v>0.1717990338802338</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1686559468507767</c:v>
+                  <c:v>0.1685575395822525</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1686559468507767</c:v>
+                  <c:v>0.1685575395822525</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1621691733598709</c:v>
+                  <c:v>0.16207455098629</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1621691733598709</c:v>
+                  <c:v>0.16207455098629</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.158925786614418</c:v>
+                  <c:v>0.1588330566883087</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.158925786614418</c:v>
+                  <c:v>0.1588330566883087</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1459522545337677</c:v>
+                  <c:v>0.1458670943975449</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1427088677883148</c:v>
+                  <c:v>0.1426256150007248</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1394654959440231</c:v>
+                  <c:v>0.1393841207027435</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1394654959440231</c:v>
+                  <c:v>0.1393841207027435</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1394654959440231</c:v>
+                  <c:v>0.1393841207027435</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1362221091985703</c:v>
+                  <c:v>0.1361426264047623</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1329787224531174</c:v>
+                  <c:v>0.132901132106781</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1297353357076645</c:v>
+                  <c:v>0.1296596378087997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1264919489622116</c:v>
+                  <c:v>0.1264181584119797</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1264919489622116</c:v>
+                  <c:v>0.1264181584119797</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1232485696673393</c:v>
+                  <c:v>0.1231766641139984</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1232485696673393</c:v>
+                  <c:v>0.1231766641139984</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1232485696673393</c:v>
+                  <c:v>0.1231766641139984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.120005190372467</c:v>
+                  <c:v>0.1199351698160172</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1167618036270142</c:v>
+                  <c:v>0.1166936755180359</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1167618036270142</c:v>
+                  <c:v>0.1166936755180359</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1167618036270142</c:v>
+                  <c:v>0.1166936755180359</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.110275037586689</c:v>
+                  <c:v>0.110210694372654</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.1037882715463638</c:v>
+                  <c:v>0.103727713227272</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.1037882715463638</c:v>
+                  <c:v>0.103727713227272</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.100544884800911</c:v>
+                  <c:v>0.1004862263798714</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.09730150550603867</c:v>
+                  <c:v>0.09724473208189011</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0908147394657135</c:v>
+                  <c:v>0.09076175093650818</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0908147394657135</c:v>
+                  <c:v>0.09076175093650818</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.08757135272026062</c:v>
+                  <c:v>0.08752025663852692</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.08432797342538834</c:v>
+                  <c:v>0.08427876979112625</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.08432797342538834</c:v>
+                  <c:v>0.08427876979112625</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.07784120738506317</c:v>
+                  <c:v>0.07779578864574432</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.07784120738506317</c:v>
+                  <c:v>0.07779578864574432</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.07135443389415741</c:v>
+                  <c:v>0.0713128075003624</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.07135443389415741</c:v>
+                  <c:v>0.0713128075003624</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.07135443389415741</c:v>
+                  <c:v>0.0713128075003624</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.07135443389415741</c:v>
+                  <c:v>0.0713128075003624</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.07135443389415741</c:v>
+                  <c:v>0.0713128075003624</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.07135443389415741</c:v>
+                  <c:v>0.0713128075003624</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.06486766785383225</c:v>
+                  <c:v>0.06482981890439987</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.06486766785383225</c:v>
+                  <c:v>0.06482981890439987</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.06486766785383225</c:v>
+                  <c:v>0.06482981890439987</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.06162428483366966</c:v>
+                  <c:v>0.06158833205699921</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.05838090181350708</c:v>
+                  <c:v>0.05834683775901794</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.05838090181350708</c:v>
+                  <c:v>0.05834683775901794</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.05838090181350708</c:v>
+                  <c:v>0.05834683775901794</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.0551375187933445</c:v>
+                  <c:v>0.05510534718632698</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.05189413577318192</c:v>
+                  <c:v>0.05186385661363602</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.04865075275301933</c:v>
+                  <c:v>0.04862236604094505</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.04865075275301933</c:v>
+                  <c:v>0.04862236604094505</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.04540736973285675</c:v>
+                  <c:v>0.04538087546825409</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.04540736973285675</c:v>
+                  <c:v>0.04538087546825409</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.03892060369253159</c:v>
+                  <c:v>0.03889789432287216</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.03892060369253159</c:v>
+                  <c:v>0.03889789432287216</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.02919045090675354</c:v>
+                  <c:v>0.02917341887950897</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.02919045090675354</c:v>
+                  <c:v>0.02917341887950897</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.02594706788659096</c:v>
+                  <c:v>0.02593192830681801</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.02594706788659096</c:v>
+                  <c:v>0.02593192830681801</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.02594706788659096</c:v>
+                  <c:v>0.02593192830681801</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.02270368486642838</c:v>
+                  <c:v>0.02269043773412705</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01946030184626579</c:v>
+                  <c:v>0.01944894716143608</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01946030184626579</c:v>
+                  <c:v>0.01944894716143608</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01946030184626579</c:v>
+                  <c:v>0.01944894716143608</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01946030184626579</c:v>
+                  <c:v>0.01944894716143608</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01946030184626579</c:v>
+                  <c:v>0.01944894716143608</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01621691696345806</c:v>
+                  <c:v>0.01620745472609997</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01621691696345806</c:v>
+                  <c:v>0.01620745472609997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01621691696345806</c:v>
+                  <c:v>0.01620745472609997</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01621691696345806</c:v>
+                  <c:v>0.01620745472609997</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01621691696345806</c:v>
+                  <c:v>0.01620745472609997</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.01297353394329548</c:v>
+                  <c:v>0.012965964153409</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.01297353394329548</c:v>
+                  <c:v>0.012965964153409</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.01297353394329548</c:v>
+                  <c:v>0.012965964153409</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.01297353394329548</c:v>
+                  <c:v>0.012965964153409</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.009730150923132896</c:v>
+                  <c:v>0.009724473580718041</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.006486766971647739</c:v>
+                  <c:v>0.006482982076704502</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.006486766971647739</c:v>
+                  <c:v>0.006482982076704502</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.006486766971647739</c:v>
+                  <c:v>0.006482982076704502</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.006486766971647739</c:v>
+                  <c:v>0.006482982076704502</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.00324338348582387</c:v>
+                  <c:v>0.003241491038352251</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.00324338348582387</c:v>
+                  <c:v>0.003241491038352251</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.00324338348582387</c:v>
+                  <c:v>0.003241491038352251</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.00324338348582387</c:v>
+                  <c:v>0.003241491038352251</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.00324338348582387</c:v>
+                  <c:v>0.003241491038352251</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.00324338348582387</c:v>
+                  <c:v>0.003241491038352251</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>0</c:v>
@@ -3013,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>2086</v>
+        <v>2122</v>
       </c>
       <c r="E27" s="1">
-        <v>2036</v>
+        <v>2072</v>
       </c>
       <c r="F27" s="1">
         <v>49</v>
@@ -3117,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>17.24020576477051</v>
+        <v>17.23014640808106</v>
       </c>
       <c r="C3" s="1">
         <v>10631</v>
@@ -3143,7 +3143,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>8.158731460571289</v>
+        <v>8.153970718383789</v>
       </c>
       <c r="C4" s="1">
         <v>5031</v>
@@ -3169,7 +3169,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>5.687273025512695</v>
+        <v>5.68395471572876</v>
       </c>
       <c r="C5" s="1">
         <v>3507</v>
@@ -3195,7 +3195,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>4.84885835647583</v>
+        <v>4.846029281616211</v>
       </c>
       <c r="C6" s="1">
         <v>2990</v>
@@ -3221,7 +3221,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>4.329916954040527</v>
+        <v>4.327390670776367</v>
       </c>
       <c r="C7" s="1">
         <v>2670</v>
@@ -3247,7 +3247,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="2">
-        <v>3.78665018081665</v>
+        <v>3.784440755844116</v>
       </c>
       <c r="C8" s="1">
         <v>2335</v>
@@ -3273,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>3.72502589225769</v>
+        <v>3.722852468490601</v>
       </c>
       <c r="C9" s="1">
         <v>2297</v>
@@ -3299,16 +3299,16 @@
         <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>3.382848978042603</v>
+        <v>3.439222097396851</v>
       </c>
       <c r="C10" s="1">
-        <v>2086</v>
+        <v>2122</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>2036</v>
+        <v>2072</v>
       </c>
       <c r="F10" s="1">
         <v>49</v>
@@ -3325,7 +3325,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="2">
-        <v>3.13959527015686</v>
+        <v>3.137763261795044</v>
       </c>
       <c r="C11" s="1">
         <v>1936</v>
@@ -3351,7 +3351,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2.818500280380249</v>
+        <v>2.816855669021606</v>
       </c>
       <c r="C12" s="1">
         <v>1738</v>
@@ -3377,7 +3377,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>2.714711904525757</v>
+        <v>2.713128089904785</v>
       </c>
       <c r="C13" s="1">
         <v>1674</v>
@@ -3403,7 +3403,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="2">
-        <v>2.520108938217163</v>
+        <v>2.518638610839844</v>
       </c>
       <c r="C14" s="1">
         <v>1554</v>
@@ -3429,7 +3429,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>2.143876552581787</v>
+        <v>2.142625570297241</v>
       </c>
       <c r="C15" s="1">
         <v>1322</v>
@@ -3455,7 +3455,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="2">
-        <v>1.890892624855042</v>
+        <v>1.889789342880249</v>
       </c>
       <c r="C16" s="1">
         <v>1166</v>
@@ -3481,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1.712506532669067</v>
+        <v>1.711507320404053</v>
       </c>
       <c r="C17" s="1">
         <v>1056</v>
@@ -3507,7 +3507,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="2">
-        <v>1.70926308631897</v>
+        <v>1.708265781402588</v>
       </c>
       <c r="C18" s="1">
         <v>1054</v>
@@ -3533,7 +3533,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="2">
-        <v>1.433575510978699</v>
+        <v>1.432739019393921</v>
       </c>
       <c r="C19" s="1">
         <v>884</v>
@@ -3559,7 +3559,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="2">
-        <v>1.300596833229065</v>
+        <v>1.299837946891785</v>
       </c>
       <c r="C20" s="1">
         <v>802</v>
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1.240594148635864</v>
+        <v>1.239870309829712</v>
       </c>
       <c r="C21" s="1">
         <v>765</v>
@@ -3611,7 +3611,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>1.09302020072937</v>
+        <v>1.092382550239563</v>
       </c>
       <c r="C22" s="1">
         <v>674</v>
@@ -3637,7 +3637,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>0.9924753308296204</v>
+        <v>0.9918962717056274</v>
       </c>
       <c r="C23" s="1">
         <v>612</v>
@@ -3663,7 +3663,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>0.8757135272026062</v>
+        <v>0.8752025961875916</v>
       </c>
       <c r="C24" s="1">
         <v>540</v>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8367929458618164</v>
+        <v>0.8363047242164612</v>
       </c>
       <c r="C25" s="1">
         <v>516</v>
@@ -3715,7 +3715,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>0.7751686573028565</v>
+        <v>0.7747163772583008</v>
       </c>
       <c r="C26" s="1">
         <v>478</v>
@@ -3741,7 +3741,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>0.7216528058052063</v>
+        <v>0.7212317585945129</v>
       </c>
       <c r="C27" s="1">
         <v>445</v>
@@ -3767,7 +3767,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7200311422348023</v>
+        <v>0.7196110486984253</v>
       </c>
       <c r="C28" s="1">
         <v>444</v>
@@ -3793,7 +3793,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="2">
-        <v>0.6973274350166321</v>
+        <v>0.6969205737113953</v>
       </c>
       <c r="C29" s="1">
         <v>430</v>
@@ -3819,7 +3819,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="2">
-        <v>0.6940840482711792</v>
+        <v>0.6936790943145752</v>
       </c>
       <c r="C30" s="1">
         <v>428</v>
@@ -3845,7 +3845,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6778671741485596</v>
+        <v>0.6774716377258301</v>
       </c>
       <c r="C31" s="1">
         <v>418</v>
@@ -3871,7 +3871,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6632719039916992</v>
+        <v>0.6628849506378174</v>
       </c>
       <c r="C32" s="1">
         <v>409</v>
@@ -3897,7 +3897,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6421899199485779</v>
+        <v>0.6418152451515198</v>
       </c>
       <c r="C33" s="1">
         <v>396</v>
@@ -3923,7 +3923,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6292163729667664</v>
+        <v>0.6288492679595947</v>
       </c>
       <c r="C34" s="1">
         <v>388</v>
@@ -3949,7 +3949,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6097561120986939</v>
+        <v>0.6094003319740295</v>
       </c>
       <c r="C35" s="1">
         <v>376</v>
@@ -3975,7 +3975,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5805656313896179</v>
+        <v>0.5802268981933594</v>
       </c>
       <c r="C36" s="1">
         <v>358</v>
@@ -4001,7 +4001,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5513752102851868</v>
+        <v>0.5510534644126892</v>
       </c>
       <c r="C37" s="1">
         <v>340</v>
@@ -4027,7 +4027,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5384016633033752</v>
+        <v>0.5380875468254089</v>
       </c>
       <c r="C38" s="1">
         <v>332</v>
@@ -4053,7 +4053,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5124545693397522</v>
+        <v>0.5121555924415588</v>
       </c>
       <c r="C39" s="1">
         <v>316</v>
@@ -4079,7 +4079,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5059677958488464</v>
+        <v>0.5056726336479187</v>
       </c>
       <c r="C40" s="1">
         <v>312</v>
@@ -4105,7 +4105,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4865075349807739</v>
+        <v>0.4862236678600311</v>
       </c>
       <c r="C41" s="1">
         <v>300</v>
@@ -4131,7 +4131,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4540736973285675</v>
+        <v>0.4538087546825409</v>
       </c>
       <c r="C42" s="1">
         <v>280</v>
@@ -4157,7 +4157,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4183964729309082</v>
+        <v>0.4181523621082306</v>
       </c>
       <c r="C43" s="1">
         <v>258</v>
@@ -4183,7 +4183,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3859626352787018</v>
+        <v>0.3857374489307404</v>
       </c>
       <c r="C44" s="1">
         <v>238</v>
@@ -4209,7 +4209,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="2">
-        <v>0.363258957862854</v>
+        <v>0.3630470037460327</v>
       </c>
       <c r="C45" s="1">
         <v>224</v>
@@ -4235,7 +4235,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3600155711174011</v>
+        <v>0.3598055243492127</v>
       </c>
       <c r="C46" s="1">
         <v>222</v>
@@ -4261,7 +4261,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3178515732288361</v>
+        <v>0.3176661133766174</v>
       </c>
       <c r="C47" s="1">
         <v>196</v>
@@ -4287,7 +4287,7 @@
         <v>55</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3146081864833832</v>
+        <v>0.3144246339797974</v>
       </c>
       <c r="C48" s="1">
         <v>194</v>
@@ -4313,7 +4313,7 @@
         <v>56</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3113648295402527</v>
+        <v>0.3111831545829773</v>
       </c>
       <c r="C49" s="1">
         <v>192</v>
@@ -4339,7 +4339,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3048780560493469</v>
+        <v>0.3047001659870148</v>
       </c>
       <c r="C50" s="1">
         <v>188</v>
@@ -4365,7 +4365,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2886611223220825</v>
+        <v>0.2884927093982697</v>
       </c>
       <c r="C51" s="1">
         <v>178</v>
@@ -4391,7 +4391,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2529838979244232</v>
+        <v>0.2528363168239594</v>
       </c>
       <c r="C52" s="1">
         <v>156</v>
@@ -4417,7 +4417,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2270368486642838</v>
+        <v>0.2269043773412705</v>
       </c>
       <c r="C53" s="1">
         <v>140</v>
@@ -4443,7 +4443,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2270368486642838</v>
+        <v>0.2269043773412705</v>
       </c>
       <c r="C54" s="1">
         <v>140</v>
@@ -4469,7 +4469,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2237934619188309</v>
+        <v>0.2236628830432892</v>
       </c>
       <c r="C55" s="1">
         <v>138</v>
@@ -4495,7 +4495,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2237934619188309</v>
+        <v>0.2236628830432892</v>
       </c>
       <c r="C56" s="1">
         <v>138</v>
@@ -4521,7 +4521,7 @@
         <v>63</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2237934619188309</v>
+        <v>0.2236628830432892</v>
       </c>
       <c r="C57" s="1">
         <v>138</v>
@@ -4547,7 +4547,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2075765430927277</v>
+        <v>0.2074554264545441</v>
       </c>
       <c r="C58" s="1">
         <v>128</v>
@@ -4573,7 +4573,7 @@
         <v>65</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2075765430927277</v>
+        <v>0.2074554264545441</v>
       </c>
       <c r="C59" s="1">
         <v>128</v>
@@ -4599,7 +4599,7 @@
         <v>66</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2010897696018219</v>
+        <v>0.2009724527597427</v>
       </c>
       <c r="C60" s="1">
         <v>124</v>
@@ -4625,7 +4625,7 @@
         <v>67</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1946030110120773</v>
+        <v>0.1944894641637802</v>
       </c>
       <c r="C61" s="1">
         <v>120</v>
@@ -4651,7 +4651,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="2">
-        <v>0.181629478931427</v>
+        <v>0.1815235018730164</v>
       </c>
       <c r="C62" s="1">
         <v>112</v>
@@ -4677,7 +4677,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="2">
-        <v>0.181629478931427</v>
+        <v>0.1815235018730164</v>
       </c>
       <c r="C63" s="1">
         <v>112</v>
@@ -4703,7 +4703,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1718993186950684</v>
+        <v>0.1717990338802338</v>
       </c>
       <c r="C64" s="1">
         <v>106</v>
@@ -4729,7 +4729,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1686559468507767</v>
+        <v>0.1685575395822525</v>
       </c>
       <c r="C65" s="1">
         <v>104</v>
@@ -4755,7 +4755,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1686559468507767</v>
+        <v>0.1685575395822525</v>
       </c>
       <c r="C66" s="1">
         <v>104</v>
@@ -4781,7 +4781,7 @@
         <v>72</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1621691733598709</v>
+        <v>0.16207455098629</v>
       </c>
       <c r="C67" s="1">
         <v>100</v>
@@ -4807,7 +4807,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1621691733598709</v>
+        <v>0.16207455098629</v>
       </c>
       <c r="C68" s="1">
         <v>100</v>
@@ -4833,7 +4833,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="2">
-        <v>0.158925786614418</v>
+        <v>0.1588330566883087</v>
       </c>
       <c r="C69" s="1">
         <v>98</v>
@@ -4859,7 +4859,7 @@
         <v>75</v>
       </c>
       <c r="B70" s="2">
-        <v>0.158925786614418</v>
+        <v>0.1588330566883087</v>
       </c>
       <c r="C70" s="1">
         <v>98</v>
@@ -4885,7 +4885,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1459522545337677</v>
+        <v>0.1458670943975449</v>
       </c>
       <c r="C71" s="1">
         <v>90</v>
@@ -4911,7 +4911,7 @@
         <v>77</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1427088677883148</v>
+        <v>0.1426256150007248</v>
       </c>
       <c r="C72" s="1">
         <v>88</v>
@@ -4937,7 +4937,7 @@
         <v>78</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1394654959440231</v>
+        <v>0.1393841207027435</v>
       </c>
       <c r="C73" s="1">
         <v>86</v>
@@ -4963,7 +4963,7 @@
         <v>79</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1394654959440231</v>
+        <v>0.1393841207027435</v>
       </c>
       <c r="C74" s="1">
         <v>86</v>
@@ -4989,7 +4989,7 @@
         <v>80</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1394654959440231</v>
+        <v>0.1393841207027435</v>
       </c>
       <c r="C75" s="1">
         <v>86</v>
@@ -5015,7 +5015,7 @@
         <v>16</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1362221091985703</v>
+        <v>0.1361426264047623</v>
       </c>
       <c r="C76" s="1">
         <v>84</v>
@@ -5041,7 +5041,7 @@
         <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1329787224531174</v>
+        <v>0.132901132106781</v>
       </c>
       <c r="C77" s="1">
         <v>82</v>
@@ -5067,7 +5067,7 @@
         <v>18</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1297353357076645</v>
+        <v>0.1296596378087997</v>
       </c>
       <c r="C78" s="1">
         <v>80</v>
@@ -5093,7 +5093,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1264919489622116</v>
+        <v>0.1264181584119797</v>
       </c>
       <c r="C79" s="1">
         <v>78</v>
@@ -5119,7 +5119,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="2">
-        <v>0.1264919489622116</v>
+        <v>0.1264181584119797</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
@@ -5145,7 +5145,7 @@
         <v>84</v>
       </c>
       <c r="B81" s="2">
-        <v>0.1232485696673393</v>
+        <v>0.1231766641139984</v>
       </c>
       <c r="C81" s="1">
         <v>76</v>
@@ -5171,7 +5171,7 @@
         <v>19</v>
       </c>
       <c r="B82" s="2">
-        <v>0.1232485696673393</v>
+        <v>0.1231766641139984</v>
       </c>
       <c r="C82" s="1">
         <v>76</v>
@@ -5197,7 +5197,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>0.1232485696673393</v>
+        <v>0.1231766641139984</v>
       </c>
       <c r="C83" s="1">
         <v>76</v>
@@ -5223,7 +5223,7 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>0.120005190372467</v>
+        <v>0.1199351698160172</v>
       </c>
       <c r="C84" s="1">
         <v>74</v>
@@ -5249,7 +5249,7 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>0.1167618036270142</v>
+        <v>0.1166936755180359</v>
       </c>
       <c r="C85" s="1">
         <v>72</v>
@@ -5275,7 +5275,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>0.1167618036270142</v>
+        <v>0.1166936755180359</v>
       </c>
       <c r="C86" s="1">
         <v>72</v>
@@ -5301,7 +5301,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>0.1167618036270142</v>
+        <v>0.1166936755180359</v>
       </c>
       <c r="C87" s="1">
         <v>72</v>
@@ -5327,7 +5327,7 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>0.110275037586689</v>
+        <v>0.110210694372654</v>
       </c>
       <c r="C88" s="1">
         <v>68</v>
@@ -5353,7 +5353,7 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>0.1037882715463638</v>
+        <v>0.103727713227272</v>
       </c>
       <c r="C89" s="1">
         <v>64</v>
@@ -5379,7 +5379,7 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>0.1037882715463638</v>
+        <v>0.103727713227272</v>
       </c>
       <c r="C90" s="1">
         <v>64</v>
@@ -5405,7 +5405,7 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>0.100544884800911</v>
+        <v>0.1004862263798714</v>
       </c>
       <c r="C91" s="1">
         <v>62</v>
@@ -5431,7 +5431,7 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>0.09730150550603867</v>
+        <v>0.09724473208189011</v>
       </c>
       <c r="C92" s="1">
         <v>60</v>
@@ -5457,7 +5457,7 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>0.0908147394657135</v>
+        <v>0.09076175093650818</v>
       </c>
       <c r="C93" s="1">
         <v>56</v>
@@ -5483,7 +5483,7 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>0.0908147394657135</v>
+        <v>0.09076175093650818</v>
       </c>
       <c r="C94" s="1">
         <v>56</v>
@@ -5509,7 +5509,7 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>0.08757135272026062</v>
+        <v>0.08752025663852692</v>
       </c>
       <c r="C95" s="1">
         <v>54</v>
@@ -5535,7 +5535,7 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>0.08432797342538834</v>
+        <v>0.08427876979112625</v>
       </c>
       <c r="C96" s="1">
         <v>52</v>
@@ -5561,7 +5561,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>0.08432797342538834</v>
+        <v>0.08427876979112625</v>
       </c>
       <c r="C97" s="1">
         <v>52</v>
@@ -5587,7 +5587,7 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>0.07784120738506317</v>
+        <v>0.07779578864574432</v>
       </c>
       <c r="C98" s="1">
         <v>48</v>
@@ -5613,7 +5613,7 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>0.07784120738506317</v>
+        <v>0.07779578864574432</v>
       </c>
       <c r="C99" s="1">
         <v>48</v>
@@ -5639,7 +5639,7 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>0.07135443389415741</v>
+        <v>0.0713128075003624</v>
       </c>
       <c r="C100" s="1">
         <v>44</v>
@@ -5665,7 +5665,7 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>0.07135443389415741</v>
+        <v>0.0713128075003624</v>
       </c>
       <c r="C101" s="1">
         <v>44</v>
@@ -5691,7 +5691,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>0.07135443389415741</v>
+        <v>0.0713128075003624</v>
       </c>
       <c r="C102" s="1">
         <v>44</v>
@@ -5717,7 +5717,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>0.07135443389415741</v>
+        <v>0.0713128075003624</v>
       </c>
       <c r="C103" s="1">
         <v>44</v>
@@ -5743,7 +5743,7 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>0.07135443389415741</v>
+        <v>0.0713128075003624</v>
       </c>
       <c r="C104" s="1">
         <v>44</v>
@@ -5769,7 +5769,7 @@
         <v>21</v>
       </c>
       <c r="B105" s="2">
-        <v>0.07135443389415741</v>
+        <v>0.0713128075003624</v>
       </c>
       <c r="C105" s="1">
         <v>44</v>
@@ -5795,7 +5795,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="2">
-        <v>0.06486766785383225</v>
+        <v>0.06482981890439987</v>
       </c>
       <c r="C106" s="1">
         <v>40</v>
@@ -5821,7 +5821,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="2">
-        <v>0.06486766785383225</v>
+        <v>0.06482981890439987</v>
       </c>
       <c r="C107" s="1">
         <v>40</v>
@@ -5847,7 +5847,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="2">
-        <v>0.06486766785383225</v>
+        <v>0.06482981890439987</v>
       </c>
       <c r="C108" s="1">
         <v>40</v>
@@ -5873,7 +5873,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="2">
-        <v>0.06162428483366966</v>
+        <v>0.06158833205699921</v>
       </c>
       <c r="C109" s="1">
         <v>38</v>
@@ -5899,7 +5899,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="2">
-        <v>0.05838090181350708</v>
+        <v>0.05834683775901794</v>
       </c>
       <c r="C110" s="1">
         <v>36</v>
@@ -5925,7 +5925,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="2">
-        <v>0.05838090181350708</v>
+        <v>0.05834683775901794</v>
       </c>
       <c r="C111" s="1">
         <v>36</v>
@@ -5951,7 +5951,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>0.05838090181350708</v>
+        <v>0.05834683775901794</v>
       </c>
       <c r="C112" s="1">
         <v>36</v>
@@ -5977,7 +5977,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>0.0551375187933445</v>
+        <v>0.05510534718632698</v>
       </c>
       <c r="C113" s="1">
         <v>34</v>
@@ -6003,7 +6003,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="2">
-        <v>0.05189413577318192</v>
+        <v>0.05186385661363602</v>
       </c>
       <c r="C114" s="1">
         <v>32</v>
@@ -6029,7 +6029,7 @@
         <v>23</v>
       </c>
       <c r="B115" s="2">
-        <v>0.04865075275301933</v>
+        <v>0.04862236604094505</v>
       </c>
       <c r="C115" s="1">
         <v>30</v>
@@ -6055,7 +6055,7 @@
         <v>24</v>
       </c>
       <c r="B116" s="2">
-        <v>0.04865075275301933</v>
+        <v>0.04862236604094505</v>
       </c>
       <c r="C116" s="1">
         <v>30</v>
@@ -6081,7 +6081,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>0.04540736973285675</v>
+        <v>0.04538087546825409</v>
       </c>
       <c r="C117" s="1">
         <v>28</v>
@@ -6107,7 +6107,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0.04540736973285675</v>
+        <v>0.04538087546825409</v>
       </c>
       <c r="C118" s="1">
         <v>28</v>
@@ -6133,7 +6133,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.03892060369253159</v>
+        <v>0.03889789432287216</v>
       </c>
       <c r="C119" s="1">
         <v>24</v>
@@ -6159,7 +6159,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.03892060369253159</v>
+        <v>0.03889789432287216</v>
       </c>
       <c r="C120" s="1">
         <v>24</v>
@@ -6185,7 +6185,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.02919045090675354</v>
+        <v>0.02917341887950897</v>
       </c>
       <c r="C121" s="1">
         <v>18</v>
@@ -6211,7 +6211,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.02919045090675354</v>
+        <v>0.02917341887950897</v>
       </c>
       <c r="C122" s="1">
         <v>18</v>
@@ -6237,7 +6237,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.02594706788659096</v>
+        <v>0.02593192830681801</v>
       </c>
       <c r="C123" s="1">
         <v>16</v>
@@ -6263,7 +6263,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.02594706788659096</v>
+        <v>0.02593192830681801</v>
       </c>
       <c r="C124" s="1">
         <v>16</v>
@@ -6289,7 +6289,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>0.02594706788659096</v>
+        <v>0.02593192830681801</v>
       </c>
       <c r="C125" s="1">
         <v>16</v>
@@ -6315,7 +6315,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>0.02270368486642838</v>
+        <v>0.02269043773412705</v>
       </c>
       <c r="C126" s="1">
         <v>14</v>
@@ -6341,7 +6341,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01946030184626579</v>
+        <v>0.01944894716143608</v>
       </c>
       <c r="C127" s="1">
         <v>12</v>
@@ -6367,7 +6367,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01946030184626579</v>
+        <v>0.01944894716143608</v>
       </c>
       <c r="C128" s="1">
         <v>12</v>
@@ -6393,7 +6393,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01946030184626579</v>
+        <v>0.01944894716143608</v>
       </c>
       <c r="C129" s="1">
         <v>12</v>
@@ -6419,7 +6419,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01946030184626579</v>
+        <v>0.01944894716143608</v>
       </c>
       <c r="C130" s="1">
         <v>12</v>
@@ -6445,7 +6445,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01946030184626579</v>
+        <v>0.01944894716143608</v>
       </c>
       <c r="C131" s="1">
         <v>12</v>
@@ -6471,7 +6471,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01621691696345806</v>
+        <v>0.01620745472609997</v>
       </c>
       <c r="C132" s="1">
         <v>10</v>
@@ -6497,7 +6497,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01621691696345806</v>
+        <v>0.01620745472609997</v>
       </c>
       <c r="C133" s="1">
         <v>10</v>
@@ -6523,7 +6523,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01621691696345806</v>
+        <v>0.01620745472609997</v>
       </c>
       <c r="C134" s="1">
         <v>10</v>
@@ -6549,7 +6549,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01621691696345806</v>
+        <v>0.01620745472609997</v>
       </c>
       <c r="C135" s="1">
         <v>10</v>
@@ -6575,7 +6575,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01621691696345806</v>
+        <v>0.01620745472609997</v>
       </c>
       <c r="C136" s="1">
         <v>10</v>
@@ -6601,7 +6601,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>0.01297353394329548</v>
+        <v>0.012965964153409</v>
       </c>
       <c r="C137" s="1">
         <v>8</v>
@@ -6627,7 +6627,7 @@
         <v>11</v>
       </c>
       <c r="B138" s="2">
-        <v>0.01297353394329548</v>
+        <v>0.012965964153409</v>
       </c>
       <c r="C138" s="1">
         <v>8</v>
@@ -6653,7 +6653,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>0.01297353394329548</v>
+        <v>0.012965964153409</v>
       </c>
       <c r="C139" s="1">
         <v>8</v>
@@ -6679,7 +6679,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>0.01297353394329548</v>
+        <v>0.012965964153409</v>
       </c>
       <c r="C140" s="1">
         <v>8</v>
@@ -6705,7 +6705,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C141" s="1">
         <v>6</v>
@@ -6731,7 +6731,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C142" s="1">
         <v>6</v>
@@ -6757,7 +6757,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C143" s="1">
         <v>6</v>
@@ -6783,7 +6783,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C144" s="1">
         <v>6</v>
@@ -6809,7 +6809,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C145" s="1">
         <v>6</v>
@@ -6835,7 +6835,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C146" s="1">
         <v>6</v>
@@ -6861,7 +6861,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C147" s="1">
         <v>6</v>
@@ -6887,7 +6887,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C148" s="1">
         <v>6</v>
@@ -6913,7 +6913,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C149" s="1">
         <v>6</v>
@@ -6939,7 +6939,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C150" s="1">
         <v>6</v>
@@ -6965,7 +6965,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C151" s="1">
         <v>6</v>
@@ -6991,7 +6991,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C152" s="1">
         <v>6</v>
@@ -7017,7 +7017,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C153" s="1">
         <v>6</v>
@@ -7043,7 +7043,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C154" s="1">
         <v>6</v>
@@ -7069,7 +7069,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C155" s="1">
         <v>6</v>
@@ -7095,7 +7095,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C156" s="1">
         <v>6</v>
@@ -7121,7 +7121,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C157" s="1">
         <v>6</v>
@@ -7147,7 +7147,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C158" s="1">
         <v>6</v>
@@ -7173,7 +7173,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C159" s="1">
         <v>6</v>
@@ -7199,7 +7199,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C160" s="1">
         <v>6</v>
@@ -7225,7 +7225,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C161" s="1">
         <v>6</v>
@@ -7251,7 +7251,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>0.009730150923132896</v>
+        <v>0.009724473580718041</v>
       </c>
       <c r="C162" s="1">
         <v>6</v>
@@ -7277,7 +7277,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>0.006486766971647739</v>
+        <v>0.006482982076704502</v>
       </c>
       <c r="C163" s="1">
         <v>4</v>
@@ -7303,7 +7303,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>0.006486766971647739</v>
+        <v>0.006482982076704502</v>
       </c>
       <c r="C164" s="1">
         <v>4</v>
@@ -7329,7 +7329,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>0.006486766971647739</v>
+        <v>0.006482982076704502</v>
       </c>
       <c r="C165" s="1">
         <v>4</v>
@@ -7355,7 +7355,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>0.006486766971647739</v>
+        <v>0.006482982076704502</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
@@ -7381,7 +7381,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>0.00324338348582387</v>
+        <v>0.003241491038352251</v>
       </c>
       <c r="C167" s="1">
         <v>2</v>
@@ -7407,7 +7407,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>0.00324338348582387</v>
+        <v>0.003241491038352251</v>
       </c>
       <c r="C168" s="1">
         <v>2</v>
@@ -7433,7 +7433,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>0.00324338348582387</v>
+        <v>0.003241491038352251</v>
       </c>
       <c r="C169" s="1">
         <v>2</v>
@@ -7459,7 +7459,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>0.00324338348582387</v>
+        <v>0.003241491038352251</v>
       </c>
       <c r="C170" s="1">
         <v>2</v>
@@ -7485,7 +7485,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>0.00324338348582387</v>
+        <v>0.003241491038352251</v>
       </c>
       <c r="C171" s="1">
         <v>2</v>
@@ -7511,7 +7511,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>0.00324338348582387</v>
+        <v>0.003241491038352251</v>
       </c>
       <c r="C172" s="1">
         <v>2</v>

--- a/MDK-ARM/Flow_oil_v5_analysis.xlsx
+++ b/MDK-ARM/Flow_oil_v5_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="182">
   <si>
     <t>Flow_oil_v5</t>
   </si>
@@ -170,6 +170,9 @@
     <t>fmul.o</t>
   </si>
   <si>
+    <t>stm32f1xx_it.o</t>
+  </si>
+  <si>
     <t>lludivv7m.o</t>
   </si>
   <si>
@@ -302,7 +305,7 @@
     <t>__0sscanf.o</t>
   </si>
   <si>
-    <t>stm32f1xx_it.o</t>
+    <t>__2snprintf.o</t>
   </si>
   <si>
     <t>delay.o</t>
@@ -647,9 +650,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$173</c:f>
+              <c:f>ram_percent!$A$3:$A$174</c:f>
               <c:strCache>
-                <c:ptCount val="171"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
@@ -725,7 +728,7 @@
                 <c:pt idx="24">
                   <c:v>task.o</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="171">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -733,10 +736,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$173</c:f>
+              <c:f>ram_percent!$B$3:$B$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
                   <c:v>51.63307571411133</c:v>
                 </c:pt>
@@ -812,7 +815,7 @@
                 <c:pt idx="24">
                   <c:v>0.005583161022514105</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="171">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -880,9 +883,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$173</c:f>
+              <c:f>flash_percent!$A$3:$A$174</c:f>
               <c:strCache>
-                <c:ptCount val="171"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
                   <c:v>c_w.l</c:v>
                 </c:pt>
@@ -1007,393 +1010,396 @@
                   <c:v>fmul.o</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>stm32f1xx_it.o</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>lludivv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>_scanf_str.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>stm32f1xx_hal_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>_printf_wctomb.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>stm32f1xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>_printf_hex_int_ll_ptr.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>_printf_intcommon.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>dnaninf.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>fnaninf.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>stm32f1xx_hal_timebase_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>rt_memcpy_v6.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>lludiv10.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>list.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>strcmpv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>_printf_fp_infnan.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>_printf_longlong_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>_printf_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>rand.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>_printf_oct_int_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>stm32f1xx_hal_iwdg.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>fleqf.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>feqf.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>retnan.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>rt_memcpy_w.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>frleqf.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>fflt_clz.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>f2d.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>strncpy.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>rtc.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>_printf_str.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>capture_traffic.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>_printf_pad.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>scalbnf.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>stm32f1xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>cmsis_os.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>llsdiv.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>lc_numeric_c.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>stm32f1xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>_wcrtomb.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>_sgetc.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>__0sscanf.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
-                  <c:v>stm32f1xx_it.o</c:v>
-                </c:pt>
                 <c:pt idx="91">
+                  <c:v>__2snprintf.o</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>delay.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>ffix.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>vsnprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>trapv.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>_printf_char_common.o</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>scanf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>_printf_wchar.o</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>_printf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>__2sprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>led.o</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>iwdg.o</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>m_ws.l</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>fpclassify.o</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>_printf_charcount.o</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>dflt_clz.o</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>strstr.o</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>_printf_truncate.o</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>_printf_char_file.o</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>stm32f1xx_hal_rtc_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>system_stm32f1xx.o</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>printf.o</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>fcmpi.o</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>__2printf.o</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>isspace.o</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>aeabi_memset.o</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>_snputc.o</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>__printf_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>fcheck1.o</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>dretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>_monlen.o</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>stm32f1xx_hal_pwr.o</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>fretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>_sputc.o</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>_printf_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>_printf_l.o</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>ferror.o</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>_printf_x.o</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>_printf_u.o</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>_printf_s.o</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>_printf_p.o</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>_printf_o.o</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>_printf_n.o</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>_printf_ls.o</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>_printf_llx.o</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>_printf_llu.o</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>_printf_llo.o</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>_printf_lli.o</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>_printf_lld.o</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>_printf_lc.o</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>_printf_i.o</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>_printf_g.o</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>_printf_f.o</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>_printf_e.o</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>_printf_d.o</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>_printf_c.o</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>_printf_a.o</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>printf2.o</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>printf1.o</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="163">
                   <c:v>_printf_percent_end.o</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="164">
                   <c:v>stm32f1xx_hal_tim_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="165">
                   <c:v>use_no_semi_2.o</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="166">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="169">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="170">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="171">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1401,521 +1407,524 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$173</c:f>
+              <c:f>flash_percent!$B$3:$B$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>17.23014640808106</c:v>
+                  <c:v>17.18692207336426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.153970718383789</c:v>
+                  <c:v>8.361075401306152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.68395471572876</c:v>
+                  <c:v>5.639986515045166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.846029281616211</c:v>
+                  <c:v>4.808542728424072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.327390670776367</c:v>
+                  <c:v>4.29391622543335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.784440755844116</c:v>
+                  <c:v>3.755166292190552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.722852468490601</c:v>
+                  <c:v>3.694054365158081</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.439222097396851</c:v>
+                  <c:v>3.412617921829224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.137763261795044</c:v>
+                  <c:v>3.113491296768189</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.816855669021606</c:v>
+                  <c:v>2.795066118240356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.713128089904785</c:v>
+                  <c:v>2.692140579223633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.518638610839844</c:v>
+                  <c:v>2.499155759811401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.142625570297241</c:v>
+                  <c:v>2.126051425933838</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.889789342880249</c:v>
+                  <c:v>1.875170826911926</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.711507320404053</c:v>
+                  <c:v>1.698267936706543</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.708265781402588</c:v>
+                  <c:v>1.695051550865173</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.432739019393921</c:v>
+                  <c:v>1.421656131744385</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.299837946891785</c:v>
+                  <c:v>1.289783000946045</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.239870309829712</c:v>
+                  <c:v>1.230279326438904</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.092382550239563</c:v>
+                  <c:v>1.083932399749756</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9918962717056274</c:v>
+                  <c:v>0.984223484992981</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.8752025961875916</c:v>
+                  <c:v>0.8684324622154236</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8363047242164612</c:v>
+                  <c:v>0.8298354744911194</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7747163772583008</c:v>
+                  <c:v>0.7687235474586487</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7212317585945129</c:v>
+                  <c:v>0.7156527042388916</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7196110486984253</c:v>
+                  <c:v>0.7140445113182068</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.6969205737113953</c:v>
+                  <c:v>0.6915295720100403</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6936790943145752</c:v>
+                  <c:v>0.6883131265640259</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6774716377258301</c:v>
+                  <c:v>0.6722310781478882</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6628849506378174</c:v>
+                  <c:v>0.6577571630477905</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6418152451515198</c:v>
+                  <c:v>0.6368504762649536</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6288492679595947</c:v>
+                  <c:v>0.6239848136901856</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6094003319740295</c:v>
+                  <c:v>0.6046863198280335</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5802268981933594</c:v>
+                  <c:v>0.5757385492324829</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5510534644126892</c:v>
+                  <c:v>0.5467908382415772</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5380875468254089</c:v>
+                  <c:v>0.5339251756668091</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5121555924415588</c:v>
+                  <c:v>0.508193850517273</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5056726336479187</c:v>
+                  <c:v>0.5017609596252441</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4862236678600311</c:v>
+                  <c:v>0.4824624955654144</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4538087546825409</c:v>
+                  <c:v>0.4502983093261719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4181523621082306</c:v>
+                  <c:v>0.4149177372455597</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3857374489307404</c:v>
+                  <c:v>0.4133095443248749</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3630470037460327</c:v>
+                  <c:v>0.3827535808086395</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3598055243492127</c:v>
+                  <c:v>0.3602386713027954</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3176661133766174</c:v>
+                  <c:v>0.3570222556591034</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3144246339797974</c:v>
+                  <c:v>0.3152088224887848</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3111831545829773</c:v>
+                  <c:v>0.3119924068450928</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3047001659870148</c:v>
+                  <c:v>0.3087759912014008</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2884927093982697</c:v>
+                  <c:v>0.3023431599140167</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2528363168239594</c:v>
+                  <c:v>0.2862610816955566</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2269043773412705</c:v>
+                  <c:v>0.2508804798126221</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2269043773412705</c:v>
+                  <c:v>0.2251491546630859</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2236628830432892</c:v>
+                  <c:v>0.2251491546630859</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2236628830432892</c:v>
+                  <c:v>0.2219327390193939</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2236628830432892</c:v>
+                  <c:v>0.2219327390193939</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2074554264545441</c:v>
+                  <c:v>0.2219327390193939</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2074554264545441</c:v>
+                  <c:v>0.2058506608009338</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2009724527597427</c:v>
+                  <c:v>0.2058506608009338</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1944894641637802</c:v>
+                  <c:v>0.1994178295135498</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1815235018730164</c:v>
+                  <c:v>0.1929849982261658</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1815235018730164</c:v>
+                  <c:v>0.1801193356513977</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1717990338802338</c:v>
+                  <c:v>0.1801193356513977</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1685575395822525</c:v>
+                  <c:v>0.1704700738191605</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1685575395822525</c:v>
+                  <c:v>0.1672536581754684</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.16207455098629</c:v>
+                  <c:v>0.1672536581754684</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.16207455098629</c:v>
+                  <c:v>0.1608208268880844</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1588330566883087</c:v>
+                  <c:v>0.1608208268880844</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1588330566883087</c:v>
+                  <c:v>0.1576044112443924</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1458670943975449</c:v>
+                  <c:v>0.1576044112443924</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1426256150007248</c:v>
+                  <c:v>0.1447387486696243</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1393841207027435</c:v>
+                  <c:v>0.1415223330259323</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1393841207027435</c:v>
+                  <c:v>0.1383059173822403</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1393841207027435</c:v>
+                  <c:v>0.1383059173822403</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1361426264047623</c:v>
+                  <c:v>0.1383059173822403</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.132901132106781</c:v>
+                  <c:v>0.1350895017385483</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1296596378087997</c:v>
+                  <c:v>0.1318730860948563</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1264181584119797</c:v>
+                  <c:v>0.1286566704511643</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1264181584119797</c:v>
+                  <c:v>0.125440239906311</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1231766641139984</c:v>
+                  <c:v>0.125440239906311</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1231766641139984</c:v>
+                  <c:v>0.1222238317131996</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1231766641139984</c:v>
+                  <c:v>0.1222238317131996</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1199351698160172</c:v>
+                  <c:v>0.1222238317131996</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1166936755180359</c:v>
+                  <c:v>0.1190074160695076</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1166936755180359</c:v>
+                  <c:v>0.1157910004258156</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1166936755180359</c:v>
+                  <c:v>0.1157910004258156</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.110210694372654</c:v>
+                  <c:v>0.1157910004258156</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.103727713227272</c:v>
+                  <c:v>0.109358161687851</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.103727713227272</c:v>
+                  <c:v>0.1029253304004669</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.1004862263798714</c:v>
+                  <c:v>0.1029253304004669</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.09724473208189011</c:v>
+                  <c:v>0.0997089147567749</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.09076175093650818</c:v>
+                  <c:v>0.09649249911308289</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.09076175093650818</c:v>
+                  <c:v>0.09005966782569885</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.08752025663852692</c:v>
+                  <c:v>0.09005966782569885</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.08427876979112625</c:v>
+                  <c:v>0.08684324473142624</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.08427876979112625</c:v>
+                  <c:v>0.08362682908773422</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.07779578864574432</c:v>
+                  <c:v>0.08362682908773422</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.07779578864574432</c:v>
+                  <c:v>0.07719399780035019</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0713128075003624</c:v>
+                  <c:v>0.07719399780035019</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0713128075003624</c:v>
+                  <c:v>0.07076116651296616</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0713128075003624</c:v>
+                  <c:v>0.07076116651296616</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0713128075003624</c:v>
+                  <c:v>0.07076116651296616</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.0713128075003624</c:v>
+                  <c:v>0.07076116651296616</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.0713128075003624</c:v>
+                  <c:v>0.07076116651296616</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.06482981890439987</c:v>
+                  <c:v>0.07076116651296616</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.06482981890439987</c:v>
+                  <c:v>0.06432833522558212</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.06482981890439987</c:v>
+                  <c:v>0.06432833522558212</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.06158833205699921</c:v>
+                  <c:v>0.06432833522558212</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.05834683775901794</c:v>
+                  <c:v>0.06111191585659981</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.05834683775901794</c:v>
+                  <c:v>0.05789550021290779</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.05834683775901794</c:v>
+                  <c:v>0.05789550021290779</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.05510534718632698</c:v>
+                  <c:v>0.05789550021290779</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.05186385661363602</c:v>
+                  <c:v>0.05467908084392548</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.04862236604094505</c:v>
+                  <c:v>0.05146266520023346</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.04862236604094505</c:v>
+                  <c:v>0.04824624955654144</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.04538087546825409</c:v>
+                  <c:v>0.04824624955654144</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.04538087546825409</c:v>
+                  <c:v>0.04502983391284943</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.03889789432287216</c:v>
+                  <c:v>0.04502983391284943</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.03889789432287216</c:v>
+                  <c:v>0.0385969989001751</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.02917341887950897</c:v>
+                  <c:v>0.0385969989001751</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.02917341887950897</c:v>
+                  <c:v>0.0289477501064539</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.02593192830681801</c:v>
+                  <c:v>0.0289477501064539</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.02593192830681801</c:v>
+                  <c:v>0.02573133260011673</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.02593192830681801</c:v>
+                  <c:v>0.02573133260011673</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.02269043773412705</c:v>
+                  <c:v>0.02573133260011673</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01944894716143608</c:v>
+                  <c:v>0.02251491695642471</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01944894716143608</c:v>
+                  <c:v>0.01929849945008755</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01944894716143608</c:v>
+                  <c:v>0.01929849945008755</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01944894716143608</c:v>
+                  <c:v>0.01929849945008755</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01944894716143608</c:v>
+                  <c:v>0.01929849945008755</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01620745472609997</c:v>
+                  <c:v>0.01929849945008755</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01620745472609997</c:v>
+                  <c:v>0.01608208380639553</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01620745472609997</c:v>
+                  <c:v>0.01608208380639553</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01620745472609997</c:v>
+                  <c:v>0.01608208380639553</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01620745472609997</c:v>
+                  <c:v>0.01608208380639553</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.012965964153409</c:v>
+                  <c:v>0.01608208380639553</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.012965964153409</c:v>
+                  <c:v>0.01286566630005837</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.012965964153409</c:v>
+                  <c:v>0.01286566630005837</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.012965964153409</c:v>
+                  <c:v>0.01286566630005837</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.01286566630005837</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.009724473580718041</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.006482982076704502</c:v>
+                  <c:v>0.009649249725043774</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.006482982076704502</c:v>
+                  <c:v>0.006432833150029182</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.006482982076704502</c:v>
+                  <c:v>0.006432833150029182</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.006482982076704502</c:v>
+                  <c:v>0.006432833150029182</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.003241491038352251</c:v>
+                  <c:v>0.006432833150029182</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.003241491038352251</c:v>
+                  <c:v>0.003216416575014591</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.003241491038352251</c:v>
+                  <c:v>0.003216416575014591</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.003241491038352251</c:v>
+                  <c:v>0.003216416575014591</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.003241491038352251</c:v>
+                  <c:v>0.003216416575014591</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.003241491038352251</c:v>
+                  <c:v>0.003216416575014591</c:v>
                 </c:pt>
                 <c:pt idx="170">
+                  <c:v>0.003216416575014591</c:v>
+                </c:pt>
+                <c:pt idx="171">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2020,8 +2029,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H173" totalsRowCount="1">
-  <autoFilter ref="A2:H172"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H174" totalsRowCount="1">
+  <autoFilter ref="A2:H173"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -2037,8 +2046,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H173" totalsRowCount="1">
-  <autoFilter ref="A2:H172"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H174" totalsRowCount="1">
+  <autoFilter ref="A2:H173"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -2338,7 +2347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2354,28 +2363,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2467,13 +2476,13 @@
         <v>600</v>
       </c>
       <c r="D6" s="1">
-        <v>5031</v>
+        <v>5199</v>
       </c>
       <c r="E6" s="1">
-        <v>4736</v>
+        <v>4864</v>
       </c>
       <c r="F6" s="1">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="G6" s="1">
         <v>172</v>
@@ -2493,10 +2502,10 @@
         <v>324</v>
       </c>
       <c r="D7" s="1">
-        <v>10631</v>
+        <v>10687</v>
       </c>
       <c r="E7" s="1">
-        <v>10068</v>
+        <v>10124</v>
       </c>
       <c r="F7" s="1">
         <v>563</v>
@@ -3028,35 +3037,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173">
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C173">
+      <c r="C174">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D173">
+      <c r="D174">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E173">
+      <c r="E174">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F173">
+      <c r="F174">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G173">
+      <c r="G174">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H173">
+      <c r="H174">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -3072,7 +3081,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3088,28 +3097,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>180</v>
-      </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3117,16 +3126,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>17.23014640808106</v>
+        <v>17.18692207336426</v>
       </c>
       <c r="C3" s="1">
-        <v>10631</v>
+        <v>10687</v>
       </c>
       <c r="D3" s="1">
         <v>324</v>
       </c>
       <c r="E3" s="1">
-        <v>10068</v>
+        <v>10124</v>
       </c>
       <c r="F3" s="1">
         <v>563</v>
@@ -3143,19 +3152,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>8.153970718383789</v>
+        <v>8.361075401306152</v>
       </c>
       <c r="C4" s="1">
-        <v>5031</v>
+        <v>5199</v>
       </c>
       <c r="D4" s="1">
         <v>600</v>
       </c>
       <c r="E4" s="1">
-        <v>4736</v>
+        <v>4864</v>
       </c>
       <c r="F4" s="1">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="G4" s="1">
         <v>172</v>
@@ -3169,7 +3178,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>5.68395471572876</v>
+        <v>5.639986515045166</v>
       </c>
       <c r="C5" s="1">
         <v>3507</v>
@@ -3195,7 +3204,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>4.846029281616211</v>
+        <v>4.808542728424072</v>
       </c>
       <c r="C6" s="1">
         <v>2990</v>
@@ -3221,7 +3230,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>4.327390670776367</v>
+        <v>4.29391622543335</v>
       </c>
       <c r="C7" s="1">
         <v>2670</v>
@@ -3247,7 +3256,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="2">
-        <v>3.784440755844116</v>
+        <v>3.755166292190552</v>
       </c>
       <c r="C8" s="1">
         <v>2335</v>
@@ -3273,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>3.722852468490601</v>
+        <v>3.694054365158081</v>
       </c>
       <c r="C9" s="1">
         <v>2297</v>
@@ -3299,7 +3308,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>3.439222097396851</v>
+        <v>3.412617921829224</v>
       </c>
       <c r="C10" s="1">
         <v>2122</v>
@@ -3325,7 +3334,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="2">
-        <v>3.137763261795044</v>
+        <v>3.113491296768189</v>
       </c>
       <c r="C11" s="1">
         <v>1936</v>
@@ -3351,7 +3360,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2.816855669021606</v>
+        <v>2.795066118240356</v>
       </c>
       <c r="C12" s="1">
         <v>1738</v>
@@ -3377,7 +3386,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>2.713128089904785</v>
+        <v>2.692140579223633</v>
       </c>
       <c r="C13" s="1">
         <v>1674</v>
@@ -3403,7 +3412,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="2">
-        <v>2.518638610839844</v>
+        <v>2.499155759811401</v>
       </c>
       <c r="C14" s="1">
         <v>1554</v>
@@ -3429,7 +3438,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>2.142625570297241</v>
+        <v>2.126051425933838</v>
       </c>
       <c r="C15" s="1">
         <v>1322</v>
@@ -3455,7 +3464,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="2">
-        <v>1.889789342880249</v>
+        <v>1.875170826911926</v>
       </c>
       <c r="C16" s="1">
         <v>1166</v>
@@ -3481,7 +3490,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1.711507320404053</v>
+        <v>1.698267936706543</v>
       </c>
       <c r="C17" s="1">
         <v>1056</v>
@@ -3507,7 +3516,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="2">
-        <v>1.708265781402588</v>
+        <v>1.695051550865173</v>
       </c>
       <c r="C18" s="1">
         <v>1054</v>
@@ -3533,7 +3542,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="2">
-        <v>1.432739019393921</v>
+        <v>1.421656131744385</v>
       </c>
       <c r="C19" s="1">
         <v>884</v>
@@ -3559,7 +3568,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="2">
-        <v>1.299837946891785</v>
+        <v>1.289783000946045</v>
       </c>
       <c r="C20" s="1">
         <v>802</v>
@@ -3585,7 +3594,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1.239870309829712</v>
+        <v>1.230279326438904</v>
       </c>
       <c r="C21" s="1">
         <v>765</v>
@@ -3611,7 +3620,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>1.092382550239563</v>
+        <v>1.083932399749756</v>
       </c>
       <c r="C22" s="1">
         <v>674</v>
@@ -3637,7 +3646,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>0.9918962717056274</v>
+        <v>0.984223484992981</v>
       </c>
       <c r="C23" s="1">
         <v>612</v>
@@ -3663,7 +3672,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>0.8752025961875916</v>
+        <v>0.8684324622154236</v>
       </c>
       <c r="C24" s="1">
         <v>540</v>
@@ -3689,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8363047242164612</v>
+        <v>0.8298354744911194</v>
       </c>
       <c r="C25" s="1">
         <v>516</v>
@@ -3715,7 +3724,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>0.7747163772583008</v>
+        <v>0.7687235474586487</v>
       </c>
       <c r="C26" s="1">
         <v>478</v>
@@ -3741,7 +3750,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>0.7212317585945129</v>
+        <v>0.7156527042388916</v>
       </c>
       <c r="C27" s="1">
         <v>445</v>
@@ -3767,7 +3776,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7196110486984253</v>
+        <v>0.7140445113182068</v>
       </c>
       <c r="C28" s="1">
         <v>444</v>
@@ -3793,7 +3802,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="2">
-        <v>0.6969205737113953</v>
+        <v>0.6915295720100403</v>
       </c>
       <c r="C29" s="1">
         <v>430</v>
@@ -3819,7 +3828,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="2">
-        <v>0.6936790943145752</v>
+        <v>0.6883131265640259</v>
       </c>
       <c r="C30" s="1">
         <v>428</v>
@@ -3845,7 +3854,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6774716377258301</v>
+        <v>0.6722310781478882</v>
       </c>
       <c r="C31" s="1">
         <v>418</v>
@@ -3871,7 +3880,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6628849506378174</v>
+        <v>0.6577571630477905</v>
       </c>
       <c r="C32" s="1">
         <v>409</v>
@@ -3897,7 +3906,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6418152451515198</v>
+        <v>0.6368504762649536</v>
       </c>
       <c r="C33" s="1">
         <v>396</v>
@@ -3923,7 +3932,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6288492679595947</v>
+        <v>0.6239848136901856</v>
       </c>
       <c r="C34" s="1">
         <v>388</v>
@@ -3949,7 +3958,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6094003319740295</v>
+        <v>0.6046863198280335</v>
       </c>
       <c r="C35" s="1">
         <v>376</v>
@@ -3975,7 +3984,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5802268981933594</v>
+        <v>0.5757385492324829</v>
       </c>
       <c r="C36" s="1">
         <v>358</v>
@@ -4001,7 +4010,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5510534644126892</v>
+        <v>0.5467908382415772</v>
       </c>
       <c r="C37" s="1">
         <v>340</v>
@@ -4027,7 +4036,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5380875468254089</v>
+        <v>0.5339251756668091</v>
       </c>
       <c r="C38" s="1">
         <v>332</v>
@@ -4053,7 +4062,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5121555924415588</v>
+        <v>0.508193850517273</v>
       </c>
       <c r="C39" s="1">
         <v>316</v>
@@ -4079,7 +4088,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5056726336479187</v>
+        <v>0.5017609596252441</v>
       </c>
       <c r="C40" s="1">
         <v>312</v>
@@ -4105,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4862236678600311</v>
+        <v>0.4824624955654144</v>
       </c>
       <c r="C41" s="1">
         <v>300</v>
@@ -4131,7 +4140,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4538087546825409</v>
+        <v>0.4502983093261719</v>
       </c>
       <c r="C42" s="1">
         <v>280</v>
@@ -4157,7 +4166,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4181523621082306</v>
+        <v>0.4149177372455597</v>
       </c>
       <c r="C43" s="1">
         <v>258</v>
@@ -4183,19 +4192,19 @@
         <v>51</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3857374489307404</v>
+        <v>0.4133095443248749</v>
       </c>
       <c r="C44" s="1">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -4209,16 +4218,16 @@
         <v>52</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3630470037460327</v>
+        <v>0.3827535808086395</v>
       </c>
       <c r="C45" s="1">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -4235,16 +4244,16 @@
         <v>53</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3598055243492127</v>
+        <v>0.3602386713027954</v>
       </c>
       <c r="C46" s="1">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -4261,19 +4270,19 @@
         <v>54</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3176661133766174</v>
+        <v>0.3570222556591034</v>
       </c>
       <c r="C47" s="1">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="F47" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -4287,19 +4296,19 @@
         <v>55</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3144246339797974</v>
+        <v>0.3152088224887848</v>
       </c>
       <c r="C48" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -4313,16 +4322,16 @@
         <v>56</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3111831545829773</v>
+        <v>0.3119924068450928</v>
       </c>
       <c r="C49" s="1">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -4339,19 +4348,19 @@
         <v>57</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3047001659870148</v>
+        <v>0.3087759912014008</v>
       </c>
       <c r="C50" s="1">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="F50" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -4365,19 +4374,19 @@
         <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2884927093982697</v>
+        <v>0.3023431599140167</v>
       </c>
       <c r="C51" s="1">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -4391,16 +4400,16 @@
         <v>59</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2528363168239594</v>
+        <v>0.2862610816955566</v>
       </c>
       <c r="C52" s="1">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -4417,16 +4426,16 @@
         <v>60</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2269043773412705</v>
+        <v>0.2508804798126221</v>
       </c>
       <c r="C53" s="1">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -4440,16 +4449,16 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2269043773412705</v>
+        <v>0.2251491546630859</v>
       </c>
       <c r="C54" s="1">
         <v>140</v>
       </c>
       <c r="D54" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
         <v>140</v>
@@ -4461,24 +4470,24 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2236628830432892</v>
+        <v>0.2251491546630859</v>
       </c>
       <c r="C55" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E55" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -4487,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4495,7 +4504,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2236628830432892</v>
+        <v>0.2219327390193939</v>
       </c>
       <c r="C56" s="1">
         <v>138</v>
@@ -4521,7 +4530,7 @@
         <v>63</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2236628830432892</v>
+        <v>0.2219327390193939</v>
       </c>
       <c r="C57" s="1">
         <v>138</v>
@@ -4547,16 +4556,16 @@
         <v>64</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2074554264545441</v>
+        <v>0.2219327390193939</v>
       </c>
       <c r="C58" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -4573,7 +4582,7 @@
         <v>65</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2074554264545441</v>
+        <v>0.2058506608009338</v>
       </c>
       <c r="C59" s="1">
         <v>128</v>
@@ -4599,16 +4608,16 @@
         <v>66</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2009724527597427</v>
+        <v>0.2058506608009338</v>
       </c>
       <c r="C60" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -4625,16 +4634,16 @@
         <v>67</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1944894641637802</v>
+        <v>0.1994178295135498</v>
       </c>
       <c r="C61" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4648,19 +4657,19 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1815235018730164</v>
+        <v>0.1929849982261658</v>
       </c>
       <c r="C62" s="1">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D62" s="1">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4669,21 +4678,21 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1815235018730164</v>
+        <v>0.1801193356513977</v>
       </c>
       <c r="C63" s="1">
         <v>112</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="E63" s="1">
         <v>112</v>
@@ -4695,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4703,16 +4712,16 @@
         <v>69</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1717990338802338</v>
+        <v>0.1801193356513977</v>
       </c>
       <c r="C64" s="1">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4729,16 +4738,16 @@
         <v>70</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1685575395822525</v>
+        <v>0.1704700738191605</v>
       </c>
       <c r="C65" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4755,7 +4764,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1685575395822525</v>
+        <v>0.1672536581754684</v>
       </c>
       <c r="C66" s="1">
         <v>104</v>
@@ -4781,16 +4790,16 @@
         <v>72</v>
       </c>
       <c r="B67" s="2">
-        <v>0.16207455098629</v>
+        <v>0.1672536581754684</v>
       </c>
       <c r="C67" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4807,7 +4816,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="2">
-        <v>0.16207455098629</v>
+        <v>0.1608208268880844</v>
       </c>
       <c r="C68" s="1">
         <v>100</v>
@@ -4833,16 +4842,16 @@
         <v>74</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1588330566883087</v>
+        <v>0.1608208268880844</v>
       </c>
       <c r="C69" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4859,7 +4868,7 @@
         <v>75</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1588330566883087</v>
+        <v>0.1576044112443924</v>
       </c>
       <c r="C70" s="1">
         <v>98</v>
@@ -4885,16 +4894,16 @@
         <v>76</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1458670943975449</v>
+        <v>0.1576044112443924</v>
       </c>
       <c r="C71" s="1">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4911,16 +4920,16 @@
         <v>77</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1426256150007248</v>
+        <v>0.1447387486696243</v>
       </c>
       <c r="C72" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4937,16 +4946,16 @@
         <v>78</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1393841207027435</v>
+        <v>0.1415223330259323</v>
       </c>
       <c r="C73" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4963,7 +4972,7 @@
         <v>79</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1393841207027435</v>
+        <v>0.1383059173822403</v>
       </c>
       <c r="C74" s="1">
         <v>86</v>
@@ -4989,7 +4998,7 @@
         <v>80</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1393841207027435</v>
+        <v>0.1383059173822403</v>
       </c>
       <c r="C75" s="1">
         <v>86</v>
@@ -5012,19 +5021,19 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1361426264047623</v>
+        <v>0.1383059173822403</v>
       </c>
       <c r="C76" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D76" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -5033,24 +5042,24 @@
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B77" s="2">
-        <v>0.132901132106781</v>
+        <v>0.1350895017385483</v>
       </c>
       <c r="C77" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E77" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -5059,30 +5068,30 @@
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1296596378087997</v>
+        <v>0.1318730860948563</v>
       </c>
       <c r="C78" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D78" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H78" s="1">
         <v>0</v>
@@ -5090,25 +5099,25 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1264181584119797</v>
+        <v>0.1286566704511643</v>
       </c>
       <c r="C79" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E79" s="1">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H79" s="1">
         <v>0</v>
@@ -5119,7 +5128,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="2">
-        <v>0.1264181584119797</v>
+        <v>0.125440239906311</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
@@ -5145,16 +5154,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="2">
-        <v>0.1231766641139984</v>
+        <v>0.125440239906311</v>
       </c>
       <c r="C81" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -5168,25 +5177,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2">
-        <v>0.1231766641139984</v>
+        <v>0.1222238317131996</v>
       </c>
       <c r="C82" s="1">
         <v>76</v>
       </c>
       <c r="D82" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H82" s="1">
         <v>0</v>
@@ -5194,25 +5203,25 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="B83" s="2">
-        <v>0.1231766641139984</v>
+        <v>0.1222238317131996</v>
       </c>
       <c r="C83" s="1">
         <v>76</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E83" s="1">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
@@ -5223,16 +5232,16 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>0.1199351698160172</v>
+        <v>0.1222238317131996</v>
       </c>
       <c r="C84" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -5249,16 +5258,16 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>0.1166936755180359</v>
+        <v>0.1190074160695076</v>
       </c>
       <c r="C85" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -5275,7 +5284,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>0.1166936755180359</v>
+        <v>0.1157910004258156</v>
       </c>
       <c r="C86" s="1">
         <v>72</v>
@@ -5284,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F86" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
@@ -5301,7 +5310,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>0.1166936755180359</v>
+        <v>0.1157910004258156</v>
       </c>
       <c r="C87" s="1">
         <v>72</v>
@@ -5310,10 +5319,10 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F87" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G87" s="1">
         <v>0</v>
@@ -5327,16 +5336,16 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>0.110210694372654</v>
+        <v>0.1157910004258156</v>
       </c>
       <c r="C88" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -5353,16 +5362,16 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>0.103727713227272</v>
+        <v>0.109358161687851</v>
       </c>
       <c r="C89" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -5379,7 +5388,7 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>0.103727713227272</v>
+        <v>0.1029253304004669</v>
       </c>
       <c r="C90" s="1">
         <v>64</v>
@@ -5405,16 +5414,16 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>0.1004862263798714</v>
+        <v>0.1029253304004669</v>
       </c>
       <c r="C91" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -5431,16 +5440,16 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>0.09724473208189011</v>
+        <v>0.0997089147567749</v>
       </c>
       <c r="C92" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -5457,16 +5466,16 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>0.09076175093650818</v>
+        <v>0.09649249911308289</v>
       </c>
       <c r="C93" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -5483,7 +5492,7 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>0.09076175093650818</v>
+        <v>0.09005966782569885</v>
       </c>
       <c r="C94" s="1">
         <v>56</v>
@@ -5509,16 +5518,16 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>0.08752025663852692</v>
+        <v>0.09005966782569885</v>
       </c>
       <c r="C95" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -5535,16 +5544,16 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>0.08427876979112625</v>
+        <v>0.08684324473142624</v>
       </c>
       <c r="C96" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -5561,7 +5570,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>0.08427876979112625</v>
+        <v>0.08362682908773422</v>
       </c>
       <c r="C97" s="1">
         <v>52</v>
@@ -5587,16 +5596,16 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>0.07779578864574432</v>
+        <v>0.08362682908773422</v>
       </c>
       <c r="C98" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -5613,7 +5622,7 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>0.07779578864574432</v>
+        <v>0.07719399780035019</v>
       </c>
       <c r="C99" s="1">
         <v>48</v>
@@ -5639,16 +5648,16 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>0.0713128075003624</v>
+        <v>0.07719399780035019</v>
       </c>
       <c r="C100" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -5665,7 +5674,7 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>0.0713128075003624</v>
+        <v>0.07076116651296616</v>
       </c>
       <c r="C101" s="1">
         <v>44</v>
@@ -5691,7 +5700,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>0.0713128075003624</v>
+        <v>0.07076116651296616</v>
       </c>
       <c r="C102" s="1">
         <v>44</v>
@@ -5717,7 +5726,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>0.0713128075003624</v>
+        <v>0.07076116651296616</v>
       </c>
       <c r="C103" s="1">
         <v>44</v>
@@ -5743,7 +5752,7 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>0.0713128075003624</v>
+        <v>0.07076116651296616</v>
       </c>
       <c r="C104" s="1">
         <v>44</v>
@@ -5766,16 +5775,16 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>0.0713128075003624</v>
+        <v>0.07076116651296616</v>
       </c>
       <c r="C105" s="1">
         <v>44</v>
       </c>
       <c r="D105" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E105" s="1">
         <v>44</v>
@@ -5787,24 +5796,24 @@
         <v>0</v>
       </c>
       <c r="H105" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B106" s="2">
-        <v>0.06482981890439987</v>
+        <v>0.07076116651296616</v>
       </c>
       <c r="C106" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D106" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E106" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -5813,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5821,7 +5830,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="2">
-        <v>0.06482981890439987</v>
+        <v>0.06432833522558212</v>
       </c>
       <c r="C107" s="1">
         <v>40</v>
@@ -5847,7 +5856,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="2">
-        <v>0.06482981890439987</v>
+        <v>0.06432833522558212</v>
       </c>
       <c r="C108" s="1">
         <v>40</v>
@@ -5873,16 +5882,16 @@
         <v>110</v>
       </c>
       <c r="B109" s="2">
-        <v>0.06158833205699921</v>
+        <v>0.06432833522558212</v>
       </c>
       <c r="C109" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
       </c>
       <c r="E109" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -5899,16 +5908,16 @@
         <v>111</v>
       </c>
       <c r="B110" s="2">
-        <v>0.05834683775901794</v>
+        <v>0.06111191585659981</v>
       </c>
       <c r="C110" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
       <c r="E110" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -5925,7 +5934,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="2">
-        <v>0.05834683775901794</v>
+        <v>0.05789550021290779</v>
       </c>
       <c r="C111" s="1">
         <v>36</v>
@@ -5951,7 +5960,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>0.05834683775901794</v>
+        <v>0.05789550021290779</v>
       </c>
       <c r="C112" s="1">
         <v>36</v>
@@ -5977,16 +5986,16 @@
         <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>0.05510534718632698</v>
+        <v>0.05789550021290779</v>
       </c>
       <c r="C113" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
       </c>
       <c r="E113" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -6003,16 +6012,16 @@
         <v>115</v>
       </c>
       <c r="B114" s="2">
-        <v>0.05186385661363602</v>
+        <v>0.05467908084392548</v>
       </c>
       <c r="C114" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -6026,25 +6035,25 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2">
-        <v>0.04862236604094505</v>
+        <v>0.05146266520023346</v>
       </c>
       <c r="C115" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D115" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E115" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F115" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G115" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H115" s="1">
         <v>0</v>
@@ -6052,10 +6061,10 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" s="2">
-        <v>0.04862236604094505</v>
+        <v>0.04824624955654144</v>
       </c>
       <c r="C116" s="1">
         <v>30</v>
@@ -6064,10 +6073,10 @@
         <v>4</v>
       </c>
       <c r="E116" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F116" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G116" s="1">
         <v>4</v>
@@ -6078,25 +6087,25 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="B117" s="2">
-        <v>0.04538087546825409</v>
+        <v>0.04824624955654144</v>
       </c>
       <c r="C117" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D117" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E117" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H117" s="1">
         <v>0</v>
@@ -6107,7 +6116,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0.04538087546825409</v>
+        <v>0.04502983391284943</v>
       </c>
       <c r="C118" s="1">
         <v>28</v>
@@ -6133,16 +6142,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.03889789432287216</v>
+        <v>0.04502983391284943</v>
       </c>
       <c r="C119" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
       </c>
       <c r="E119" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -6159,7 +6168,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.03889789432287216</v>
+        <v>0.0385969989001751</v>
       </c>
       <c r="C120" s="1">
         <v>24</v>
@@ -6185,16 +6194,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.02917341887950897</v>
+        <v>0.0385969989001751</v>
       </c>
       <c r="C121" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
       </c>
       <c r="E121" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
@@ -6211,7 +6220,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.02917341887950897</v>
+        <v>0.0289477501064539</v>
       </c>
       <c r="C122" s="1">
         <v>18</v>
@@ -6237,16 +6246,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.02593192830681801</v>
+        <v>0.0289477501064539</v>
       </c>
       <c r="C123" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
       </c>
       <c r="E123" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
@@ -6263,7 +6272,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.02593192830681801</v>
+        <v>0.02573133260011673</v>
       </c>
       <c r="C124" s="1">
         <v>16</v>
@@ -6289,7 +6298,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>0.02593192830681801</v>
+        <v>0.02573133260011673</v>
       </c>
       <c r="C125" s="1">
         <v>16</v>
@@ -6315,16 +6324,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>0.02269043773412705</v>
+        <v>0.02573133260011673</v>
       </c>
       <c r="C126" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
       </c>
       <c r="E126" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -6341,16 +6350,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01944894716143608</v>
+        <v>0.02251491695642471</v>
       </c>
       <c r="C127" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
       </c>
       <c r="E127" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
@@ -6367,7 +6376,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01944894716143608</v>
+        <v>0.01929849945008755</v>
       </c>
       <c r="C128" s="1">
         <v>12</v>
@@ -6393,7 +6402,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01944894716143608</v>
+        <v>0.01929849945008755</v>
       </c>
       <c r="C129" s="1">
         <v>12</v>
@@ -6402,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E129" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F129" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G129" s="1">
         <v>0</v>
@@ -6419,7 +6428,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01944894716143608</v>
+        <v>0.01929849945008755</v>
       </c>
       <c r="C130" s="1">
         <v>12</v>
@@ -6428,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
         <v>12</v>
-      </c>
-      <c r="F130" s="1">
-        <v>0</v>
       </c>
       <c r="G130" s="1">
         <v>0</v>
@@ -6445,7 +6454,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01944894716143608</v>
+        <v>0.01929849945008755</v>
       </c>
       <c r="C131" s="1">
         <v>12</v>
@@ -6471,16 +6480,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01620745472609997</v>
+        <v>0.01929849945008755</v>
       </c>
       <c r="C132" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
       </c>
       <c r="E132" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -6497,7 +6506,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01620745472609997</v>
+        <v>0.01608208380639553</v>
       </c>
       <c r="C133" s="1">
         <v>10</v>
@@ -6523,7 +6532,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01620745472609997</v>
+        <v>0.01608208380639553</v>
       </c>
       <c r="C134" s="1">
         <v>10</v>
@@ -6549,7 +6558,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01620745472609997</v>
+        <v>0.01608208380639553</v>
       </c>
       <c r="C135" s="1">
         <v>10</v>
@@ -6575,7 +6584,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01620745472609997</v>
+        <v>0.01608208380639553</v>
       </c>
       <c r="C136" s="1">
         <v>10</v>
@@ -6601,16 +6610,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>0.012965964153409</v>
+        <v>0.01608208380639553</v>
       </c>
       <c r="C137" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1">
         <v>0</v>
       </c>
       <c r="E137" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -6624,16 +6633,16 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>0.012965964153409</v>
+        <v>0.01286566630005837</v>
       </c>
       <c r="C138" s="1">
         <v>8</v>
       </c>
       <c r="D138" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E138" s="1">
         <v>8</v>
@@ -6645,21 +6654,21 @@
         <v>0</v>
       </c>
       <c r="H138" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="B139" s="2">
-        <v>0.012965964153409</v>
+        <v>0.01286566630005837</v>
       </c>
       <c r="C139" s="1">
         <v>8</v>
       </c>
       <c r="D139" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E139" s="1">
         <v>8</v>
@@ -6671,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="H139" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6679,7 +6688,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>0.012965964153409</v>
+        <v>0.01286566630005837</v>
       </c>
       <c r="C140" s="1">
         <v>8</v>
@@ -6705,16 +6714,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.01286566630005837</v>
       </c>
       <c r="C141" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
       </c>
       <c r="E141" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F141" s="1">
         <v>0</v>
@@ -6731,7 +6740,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C142" s="1">
         <v>6</v>
@@ -6757,7 +6766,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C143" s="1">
         <v>6</v>
@@ -6783,7 +6792,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C144" s="1">
         <v>6</v>
@@ -6809,7 +6818,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C145" s="1">
         <v>6</v>
@@ -6835,7 +6844,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C146" s="1">
         <v>6</v>
@@ -6861,7 +6870,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C147" s="1">
         <v>6</v>
@@ -6887,7 +6896,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C148" s="1">
         <v>6</v>
@@ -6913,7 +6922,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C149" s="1">
         <v>6</v>
@@ -6939,7 +6948,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C150" s="1">
         <v>6</v>
@@ -6965,7 +6974,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C151" s="1">
         <v>6</v>
@@ -6991,7 +7000,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C152" s="1">
         <v>6</v>
@@ -7017,7 +7026,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C153" s="1">
         <v>6</v>
@@ -7043,7 +7052,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C154" s="1">
         <v>6</v>
@@ -7069,7 +7078,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C155" s="1">
         <v>6</v>
@@ -7095,7 +7104,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C156" s="1">
         <v>6</v>
@@ -7121,7 +7130,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C157" s="1">
         <v>6</v>
@@ -7147,7 +7156,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C158" s="1">
         <v>6</v>
@@ -7173,7 +7182,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C159" s="1">
         <v>6</v>
@@ -7199,7 +7208,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C160" s="1">
         <v>6</v>
@@ -7225,7 +7234,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C161" s="1">
         <v>6</v>
@@ -7251,7 +7260,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>0.009724473580718041</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C162" s="1">
         <v>6</v>
@@ -7277,16 +7286,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>0.006482982076704502</v>
+        <v>0.009649249725043774</v>
       </c>
       <c r="C163" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D163" s="1">
         <v>0</v>
       </c>
       <c r="E163" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F163" s="1">
         <v>0</v>
@@ -7303,7 +7312,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>0.006482982076704502</v>
+        <v>0.006432833150029182</v>
       </c>
       <c r="C164" s="1">
         <v>4</v>
@@ -7329,7 +7338,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>0.006482982076704502</v>
+        <v>0.006432833150029182</v>
       </c>
       <c r="C165" s="1">
         <v>4</v>
@@ -7355,7 +7364,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>0.006482982076704502</v>
+        <v>0.006432833150029182</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
@@ -7381,16 +7390,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>0.003241491038352251</v>
+        <v>0.006432833150029182</v>
       </c>
       <c r="C167" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D167" s="1">
         <v>0</v>
       </c>
       <c r="E167" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F167" s="1">
         <v>0</v>
@@ -7407,7 +7416,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>0.003241491038352251</v>
+        <v>0.003216416575014591</v>
       </c>
       <c r="C168" s="1">
         <v>2</v>
@@ -7433,7 +7442,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>0.003241491038352251</v>
+        <v>0.003216416575014591</v>
       </c>
       <c r="C169" s="1">
         <v>2</v>
@@ -7459,7 +7468,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>0.003241491038352251</v>
+        <v>0.003216416575014591</v>
       </c>
       <c r="C170" s="1">
         <v>2</v>
@@ -7485,7 +7494,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>0.003241491038352251</v>
+        <v>0.003216416575014591</v>
       </c>
       <c r="C171" s="1">
         <v>2</v>
@@ -7511,7 +7520,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>0.003241491038352251</v>
+        <v>0.003216416575014591</v>
       </c>
       <c r="C172" s="1">
         <v>2</v>
@@ -7533,34 +7542,60 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173">
+      <c r="A173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>0.003216416575014591</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1">
+        <v>2</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C173">
+      <c r="C174">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D173">
+      <c r="D174">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E173">
+      <c r="E174">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F173">
+      <c r="F174">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G173">
+      <c r="G174">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H173">
+      <c r="H174">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/MDK-ARM/Flow_oil_v5_analysis.xlsx
+++ b/MDK-ARM/Flow_oil_v5_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="182">
   <si>
     <t>Flow_oil_v5</t>
   </si>
@@ -53,6 +53,9 @@
     <t>libspace.o</t>
   </si>
   <si>
+    <t>tim.o</t>
+  </si>
+  <si>
     <t>stm32f1xx_hal_timebase_tim.o</t>
   </si>
   <si>
@@ -71,21 +74,21 @@
     <t>outlog.o</t>
   </si>
   <si>
+    <t>stm32f1xx_hal.o</t>
+  </si>
+  <si>
+    <t>port.o</t>
+  </si>
+  <si>
+    <t>iwdg.o</t>
+  </si>
+  <si>
+    <t>key.o</t>
+  </si>
+  <si>
     <t>capture_traffic.o</t>
   </si>
   <si>
-    <t>stm32f1xx_hal.o</t>
-  </si>
-  <si>
-    <t>port.o</t>
-  </si>
-  <si>
-    <t>iwdg.o</t>
-  </si>
-  <si>
-    <t>key.o</t>
-  </si>
-  <si>
     <t>system_stm32f1xx.o</t>
   </si>
   <si>
@@ -116,15 +119,15 @@
     <t>_printf_fp_dec.o</t>
   </si>
   <si>
+    <t>stm32f1xx_hal_tim.o</t>
+  </si>
+  <si>
     <t>_scanf.o</t>
   </si>
   <si>
     <t>_printf_fp_hex.o</t>
   </si>
   <si>
-    <t>stm32f1xx_hal_tim.o</t>
-  </si>
-  <si>
     <t>stm32f1xx_hal_gpio.o</t>
   </si>
   <si>
@@ -152,9 +155,6 @@
     <t>at24c64.o</t>
   </si>
   <si>
-    <t>dmul.o</t>
-  </si>
-  <si>
     <t>_scanf_int.o</t>
   </si>
   <si>
@@ -164,18 +164,18 @@
     <t>stm32f1xx_hal_rtc.o</t>
   </si>
   <si>
+    <t>fmul.o</t>
+  </si>
+  <si>
+    <t>stm32f1xx_it.o</t>
+  </si>
+  <si>
+    <t>lludivv7m.o</t>
+  </si>
+  <si>
     <t>gpio.o</t>
   </si>
   <si>
-    <t>fmul.o</t>
-  </si>
-  <si>
-    <t>stm32f1xx_it.o</t>
-  </si>
-  <si>
-    <t>lludivv7m.o</t>
-  </si>
-  <si>
     <t>_scanf_str.o</t>
   </si>
   <si>
@@ -185,12 +185,12 @@
     <t>_printf_wctomb.o</t>
   </si>
   <si>
+    <t>main.o</t>
+  </si>
+  <si>
     <t>stm32f1xx_hal_cortex.o</t>
   </si>
   <si>
-    <t>main.o</t>
-  </si>
-  <si>
     <t>_printf_hex_int_ll_ptr.o</t>
   </si>
   <si>
@@ -203,6 +203,9 @@
     <t>fnaninf.o</t>
   </si>
   <si>
+    <t>dfltll_clz.o</t>
+  </si>
+  <si>
     <t>rt_memcpy_v6.o</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
     <t>_printf_oct_int_ll.o</t>
   </si>
   <si>
+    <t>stm32f1xx_hal_tim_ex.o</t>
+  </si>
+  <si>
     <t>stm32f1xx_hal_iwdg.o</t>
   </si>
   <si>
@@ -350,9 +356,6 @@
     <t>_printf_charcount.o</t>
   </si>
   <si>
-    <t>dflt_clz.o</t>
-  </si>
-  <si>
     <t>strstr.o</t>
   </si>
   <si>
@@ -510,9 +513,6 @@
   </si>
   <si>
     <t>_printf_percent_end.o</t>
-  </si>
-  <si>
-    <t>stm32f1xx_hal_tim_ex.o</t>
   </si>
   <si>
     <t>use_no_semi_2.o</t>
@@ -687,25 +687,25 @@
                   <c:v>libspace.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>tim.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>stm32f1xx_hal_timebase_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>queue.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>freertos.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>free_menu.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>rtc.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>outlog.o</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>capture_traffic.o</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>stm32f1xx_hal.o</c:v>
@@ -720,12 +720,15 @@
                   <c:v>key.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>capture_traffic.o</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>system_stm32f1xx.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>printf.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>task.o</c:v>
                 </c:pt>
                 <c:pt idx="171">
@@ -741,79 +744,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>51.63307571411133</c:v>
+                  <c:v>51.44923400878906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.58578491210938</c:v>
+                  <c:v>28.48400497436523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.717156887054443</c:v>
+                  <c:v>5.69680118560791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.349896669387817</c:v>
+                  <c:v>3.337969303131104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.808944225311279</c:v>
+                  <c:v>1.80250346660614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.674948334693909</c:v>
+                  <c:v>1.668984651565552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.462788224220276</c:v>
+                  <c:v>1.457579970359802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.451621890068054</c:v>
+                  <c:v>1.446453452110291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.272960782051086</c:v>
+                  <c:v>1.268428325653076</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8039752244949341</c:v>
+                  <c:v>0.8011126518249512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5359835028648377</c:v>
+                  <c:v>0.5340750813484192</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.401987612247467</c:v>
+                  <c:v>0.4005563259124756</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3573223054409027</c:v>
+                  <c:v>0.4005563259124756</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2009938061237335</c:v>
+                  <c:v>0.3560500741004944</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1563285142183304</c:v>
+                  <c:v>0.2002781629562378</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1116632223129273</c:v>
+                  <c:v>0.1557719111442566</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.08933057636022568</c:v>
+                  <c:v>0.1112656444311142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.08933057636022568</c:v>
+                  <c:v>0.0890125185251236</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.06699793785810471</c:v>
+                  <c:v>0.0667593851685524</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.06699793785810471</c:v>
+                  <c:v>0.0667593851685524</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.06699793785810471</c:v>
+                  <c:v>0.0667593851685524</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.04466528818011284</c:v>
+                  <c:v>0.0445062592625618</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.02233264409005642</c:v>
+                  <c:v>0.0445062592625618</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.02233264409005642</c:v>
+                  <c:v>0.0222531296312809</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.005583161022514105</c:v>
+                  <c:v>0.0222531296312809</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.005563282407820225</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>0</c:v>
@@ -935,19 +941,19 @@
                   <c:v>_printf_fp_dec.o</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>stm32f1xx_hal_tim.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>_scanf.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>_printf_fp_hex.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>outlog.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>port.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>stm32f1xx_hal_tim.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>stm32f1xx_hal_gpio.o</c:v>
@@ -989,46 +995,46 @@
                   <c:v>at24c64.o</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>dmul.o</c:v>
+                  <c:v>_scanf_int.o</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>_scanf_int.o</c:v>
+                  <c:v>lc_ctype_c.o</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>lc_ctype_c.o</c:v>
+                  <c:v>stm32f1xx_hal_rtc.o</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>stm32f1xx_hal_rtc.o</c:v>
+                  <c:v>startup_stm32f103xb.o</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>startup_stm32f103xb.o</c:v>
+                  <c:v>fmul.o</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>stm32f1xx_it.o</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>lludivv7m.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>fmul.o</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>stm32f1xx_it.o</c:v>
-                </c:pt>
                 <c:pt idx="42">
-                  <c:v>lludivv7m.o</c:v>
+                  <c:v>_scanf_str.o</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>_scanf_str.o</c:v>
+                  <c:v>stm32f1xx_hal_dma.o</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>stm32f1xx_hal_dma.o</c:v>
+                  <c:v>_printf_wctomb.o</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>_printf_wctomb.o</c:v>
+                  <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>stm32f1xx_hal_cortex.o</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>main.o</c:v>
+                  <c:v>tim.o</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>_printf_hex_int_ll_ptr.o</c:v>
@@ -1046,340 +1052,340 @@
                   <c:v>stm32f1xx_hal_timebase_tim.o</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>dfltll_clz.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>rt_memcpy_v6.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>lludiv10.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>list.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
+                  <c:v>capture_traffic.o</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>strcmpv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>_printf_fp_infnan.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>_printf_longlong_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>_printf_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>rand.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>_printf_oct_int_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
+                  <c:v>stm32f1xx_hal_tim_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>stm32f1xx_hal_iwdg.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="66">
                   <c:v>fleqf.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="67">
                   <c:v>feqf.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="68">
                   <c:v>retnan.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="69">
                   <c:v>rt_memcpy_w.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="70">
                   <c:v>frleqf.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="71">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="72">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="73">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="74">
                   <c:v>fflt_clz.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="75">
                   <c:v>f2d.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="76">
                   <c:v>strncpy.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="77">
                   <c:v>rtc.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="78">
                   <c:v>_printf_str.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>capture_traffic.o</c:v>
-                </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>_printf_pad.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>scalbnf.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>stm32f1xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>cmsis_os.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>llsdiv.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>lc_numeric_c.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>stm32f1xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>_wcrtomb.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>_sgetc.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="92">
                   <c:v>__0sscanf.o</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="93">
                   <c:v>__2snprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="94">
                   <c:v>delay.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="95">
                   <c:v>ffix.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>vsnprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="97">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="98">
                   <c:v>trapv.o</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="99">
                   <c:v>_printf_char_common.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="100">
                   <c:v>scanf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="101">
                   <c:v>_printf_wchar.o</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="102">
                   <c:v>_printf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="103">
                   <c:v>__2sprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="104">
                   <c:v>led.o</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="105">
                   <c:v>iwdg.o</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="106">
                   <c:v>m_ws.l</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="107">
                   <c:v>fpclassify.o</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="108">
                   <c:v>_printf_charcount.o</c:v>
                 </c:pt>
-                <c:pt idx="107">
-                  <c:v>dflt_clz.o</c:v>
-                </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>strstr.o</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>_printf_truncate.o</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>_printf_char_file.o</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>stm32f1xx_hal_rtc_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>system_stm32f1xx.o</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>printf.o</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>fcmpi.o</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>__2printf.o</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>isspace.o</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>aeabi_memset.o</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>_snputc.o</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>__printf_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>fcheck1.o</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>dretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>_monlen.o</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>stm32f1xx_hal_pwr.o</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>fretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>_sputc.o</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>_printf_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>_printf_l.o</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>ferror.o</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>_printf_x.o</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>_printf_u.o</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>_printf_s.o</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>_printf_p.o</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>_printf_o.o</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>_printf_n.o</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>_printf_ls.o</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>_printf_llx.o</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>_printf_llu.o</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>_printf_llo.o</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>_printf_lli.o</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>_printf_lld.o</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>_printf_lc.o</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>_printf_i.o</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>_printf_g.o</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>_printf_f.o</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>_printf_e.o</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>_printf_d.o</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>_printf_c.o</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>_printf_a.o</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>printf2.o</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="163">
                   <c:v>printf1.o</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="164">
                   <c:v>_printf_percent_end.o</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>stm32f1xx_hal_tim_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>use_no_semi_2.o</c:v>
@@ -1412,517 +1418,517 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>17.18692207336426</c:v>
+                  <c:v>17.14886283874512</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.361075401306152</c:v>
+                  <c:v>8.342559814453125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.639986515045166</c:v>
+                  <c:v>5.62749719619751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.808542728424072</c:v>
+                  <c:v>4.797894477844238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.29391622543335</c:v>
+                  <c:v>3.899292469024658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.755166292190552</c:v>
+                  <c:v>3.746850967407227</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.694054365158081</c:v>
+                  <c:v>3.685874223709106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.412617921829224</c:v>
+                  <c:v>3.411479711532593</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.113491296768189</c:v>
+                  <c:v>3.10659670829773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.795066118240356</c:v>
+                  <c:v>2.788876533508301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.692140579223633</c:v>
+                  <c:v>2.686179161071777</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.499155759811401</c:v>
+                  <c:v>2.493621587753296</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.126051425933838</c:v>
+                  <c:v>2.121343374252319</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.875170826911926</c:v>
+                  <c:v>1.871018528938294</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.698267936706543</c:v>
+                  <c:v>1.694507241249085</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.695051550865173</c:v>
+                  <c:v>1.691298007965088</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.421656131744385</c:v>
+                  <c:v>1.514786839485169</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.289783000946045</c:v>
+                  <c:v>1.418508052825928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.230279326438904</c:v>
+                  <c:v>1.286926984786987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.083932399749756</c:v>
+                  <c:v>1.2275550365448</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.984223484992981</c:v>
+                  <c:v>1.081532120704651</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.8684324622154236</c:v>
+                  <c:v>0.8279978632926941</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8298354744911194</c:v>
+                  <c:v>0.8279978632926941</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7687235474586487</c:v>
+                  <c:v>0.7670212984085083</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7156527042388916</c:v>
+                  <c:v>0.7397422790527344</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7140445113182068</c:v>
+                  <c:v>0.7124633193016052</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.6915295720100403</c:v>
+                  <c:v>0.689998209476471</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6883131265640259</c:v>
+                  <c:v>0.6867889165878296</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6722310781478882</c:v>
+                  <c:v>0.6707424521446228</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6577571630477905</c:v>
+                  <c:v>0.6563006639480591</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6368504762649536</c:v>
+                  <c:v>0.6354402303695679</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6239848136901856</c:v>
+                  <c:v>0.6226030588150024</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6046863198280335</c:v>
+                  <c:v>0.6033473014831543</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5757385492324829</c:v>
+                  <c:v>0.5744636654853821</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5467908382415772</c:v>
+                  <c:v>0.5327427983283997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5339251756668091</c:v>
+                  <c:v>0.5070684552192688</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.508193850517273</c:v>
+                  <c:v>0.5006498694419861</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5017609596252441</c:v>
+                  <c:v>0.4813941121101379</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4824624955654144</c:v>
+                  <c:v>0.4139989316463471</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4502983093261719</c:v>
+                  <c:v>0.3931385278701782</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4149177372455597</c:v>
+                  <c:v>0.3819060027599335</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4133095443248749</c:v>
+                  <c:v>0.3658595383167267</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3827535808086395</c:v>
+                  <c:v>0.359440952539444</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3602386713027954</c:v>
+                  <c:v>0.3562316596508026</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3570222556591034</c:v>
+                  <c:v>0.3145108222961426</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3152088224887848</c:v>
+                  <c:v>0.3145108222961426</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3119924068450928</c:v>
+                  <c:v>0.3113015294075012</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3087759912014008</c:v>
+                  <c:v>0.3080922365188599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3023431599140167</c:v>
+                  <c:v>0.3016736507415772</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2862610816955566</c:v>
+                  <c:v>0.2856271862983704</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2508804798126221</c:v>
+                  <c:v>0.250324934720993</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2251491546630859</c:v>
+                  <c:v>0.2246505916118622</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2251491546630859</c:v>
+                  <c:v>0.2246505916118622</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2219327390193939</c:v>
+                  <c:v>0.2214412987232208</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2219327390193939</c:v>
+                  <c:v>0.2214412987232208</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2219327390193939</c:v>
+                  <c:v>0.2214412987232208</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2058506608009338</c:v>
+                  <c:v>0.2214412987232208</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2058506608009338</c:v>
+                  <c:v>0.2150227129459381</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1994178295135498</c:v>
+                  <c:v>0.2053948193788528</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1929849982261658</c:v>
+                  <c:v>0.2053948193788528</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1801193356513977</c:v>
+                  <c:v>0.1989762336015701</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1801193356513977</c:v>
+                  <c:v>0.1925576478242874</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1704700738191605</c:v>
+                  <c:v>0.179720476269722</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1672536581754684</c:v>
+                  <c:v>0.179720476269722</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1672536581754684</c:v>
+                  <c:v>0.1733018755912781</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1608208268880844</c:v>
+                  <c:v>0.1700925827026367</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1608208268880844</c:v>
+                  <c:v>0.1668832898139954</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1576044112443924</c:v>
+                  <c:v>0.1668832898139954</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1576044112443924</c:v>
+                  <c:v>0.1604647040367127</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1447387486696243</c:v>
+                  <c:v>0.1604647040367127</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1415223330259323</c:v>
+                  <c:v>0.1572554111480713</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1383059173822403</c:v>
+                  <c:v>0.1572554111480713</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1383059173822403</c:v>
+                  <c:v>0.1444182395935059</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1383059173822403</c:v>
+                  <c:v>0.1412089467048645</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1350895017385483</c:v>
+                  <c:v>0.1379996538162231</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1318730860948563</c:v>
+                  <c:v>0.1379996538162231</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1286566704511643</c:v>
+                  <c:v>0.1379996538162231</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.125440239906311</c:v>
+                  <c:v>0.1347903460264206</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.125440239906311</c:v>
+                  <c:v>0.1315810531377792</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1222238317131996</c:v>
+                  <c:v>0.1251624673604965</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1222238317131996</c:v>
+                  <c:v>0.1251624673604965</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1222238317131996</c:v>
+                  <c:v>0.1219531744718552</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1190074160695076</c:v>
+                  <c:v>0.1219531744718552</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1157910004258156</c:v>
+                  <c:v>0.1219531744718552</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1157910004258156</c:v>
+                  <c:v>0.1187438815832138</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.1157910004258156</c:v>
+                  <c:v>0.1155345886945725</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.109358161687851</c:v>
+                  <c:v>0.1155345886945725</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.1029253304004669</c:v>
+                  <c:v>0.1155345886945725</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.1029253304004669</c:v>
+                  <c:v>0.1091160029172897</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0997089147567749</c:v>
+                  <c:v>0.1026974096894264</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.09649249911308289</c:v>
+                  <c:v>0.1026974096894264</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.09005966782569885</c:v>
+                  <c:v>0.09948811680078507</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.09005966782569885</c:v>
+                  <c:v>0.09627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.08684324473142624</c:v>
+                  <c:v>0.08986023813486099</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.08362682908773422</c:v>
+                  <c:v>0.08986023813486099</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.08362682908773422</c:v>
+                  <c:v>0.08665093779563904</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.07719399780035019</c:v>
+                  <c:v>0.08344164490699768</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.07719399780035019</c:v>
+                  <c:v>0.08344164490699768</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.07076116651296616</c:v>
+                  <c:v>0.07702305912971497</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.07076116651296616</c:v>
+                  <c:v>0.07702305912971497</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.07076116651296616</c:v>
+                  <c:v>0.07060447335243225</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.07076116651296616</c:v>
+                  <c:v>0.07060447335243225</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.07076116651296616</c:v>
+                  <c:v>0.07060447335243225</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.07076116651296616</c:v>
+                  <c:v>0.07060447335243225</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.06432833522558212</c:v>
+                  <c:v>0.07060447335243225</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.06432833522558212</c:v>
+                  <c:v>0.07060447335243225</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.06432833522558212</c:v>
+                  <c:v>0.06418588012456894</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.06111191585659981</c:v>
+                  <c:v>0.06418588012456894</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.05789550021290779</c:v>
+                  <c:v>0.06418588012456894</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.05789550021290779</c:v>
+                  <c:v>0.05776729434728622</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.05789550021290779</c:v>
+                  <c:v>0.05776729434728622</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.05467908084392548</c:v>
+                  <c:v>0.05776729434728622</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.05146266520023346</c:v>
+                  <c:v>0.05455800145864487</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.04824624955654144</c:v>
+                  <c:v>0.05134870484471321</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.04824624955654144</c:v>
+                  <c:v>0.04813941195607185</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.04502983391284943</c:v>
+                  <c:v>0.04813941195607185</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.04502983391284943</c:v>
+                  <c:v>0.0449301190674305</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.0385969989001751</c:v>
+                  <c:v>0.0449301190674305</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.0385969989001751</c:v>
+                  <c:v>0.03851152956485748</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.0289477501064539</c:v>
+                  <c:v>0.03851152956485748</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.0289477501064539</c:v>
+                  <c:v>0.02888364717364311</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.02573133260011673</c:v>
+                  <c:v>0.02888364717364311</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.02573133260011673</c:v>
+                  <c:v>0.02567435242235661</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.02573133260011673</c:v>
+                  <c:v>0.02567435242235661</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.02251491695642471</c:v>
+                  <c:v>0.02567435242235661</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01929849945008755</c:v>
+                  <c:v>0.02246505953371525</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01929849945008755</c:v>
+                  <c:v>0.01925576478242874</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01929849945008755</c:v>
+                  <c:v>0.01925576478242874</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01929849945008755</c:v>
+                  <c:v>0.01925576478242874</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01929849945008755</c:v>
+                  <c:v>0.01925576478242874</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01608208380639553</c:v>
+                  <c:v>0.01925576478242874</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01608208380639553</c:v>
+                  <c:v>0.01604647003114224</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01608208380639553</c:v>
+                  <c:v>0.01604647003114224</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01608208380639553</c:v>
+                  <c:v>0.01604647003114224</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.01608208380639553</c:v>
+                  <c:v>0.01604647003114224</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.01286566630005837</c:v>
+                  <c:v>0.01604647003114224</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.01286566630005837</c:v>
+                  <c:v>0.0128371762111783</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.01286566630005837</c:v>
+                  <c:v>0.0128371762111783</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.01286566630005837</c:v>
+                  <c:v>0.0128371762111783</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.0128371762111783</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.009649249725043774</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.006432833150029182</c:v>
+                  <c:v>0.009627882391214371</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.006432833150029182</c:v>
+                  <c:v>0.006418588105589151</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.006432833150029182</c:v>
+                  <c:v>0.006418588105589151</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.006432833150029182</c:v>
+                  <c:v>0.006418588105589151</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.003216416575014591</c:v>
+                  <c:v>0.003209294052794576</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.003216416575014591</c:v>
+                  <c:v>0.003209294052794576</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.003216416575014591</c:v>
+                  <c:v>0.003209294052794576</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.003216416575014591</c:v>
+                  <c:v>0.003209294052794576</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.003216416575014591</c:v>
+                  <c:v>0.003209294052794576</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.003216416575014591</c:v>
+                  <c:v>0.003209294052794576</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>0</c:v>
@@ -2392,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>51.63307571411133</v>
+        <v>51.44923400878906</v>
       </c>
       <c r="C3" s="1">
         <v>9248</v>
@@ -2418,7 +2424,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>28.58578491210938</v>
+        <v>28.48400497436523</v>
       </c>
       <c r="C4" s="1">
         <v>5120</v>
@@ -2444,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>5.717156887054443</v>
+        <v>5.69680118560791</v>
       </c>
       <c r="C5" s="1">
         <v>1024</v>
@@ -2470,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>3.349896669387817</v>
+        <v>3.337969303131104</v>
       </c>
       <c r="C6" s="1">
         <v>600</v>
@@ -2496,7 +2502,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.808944225311279</v>
+        <v>1.80250346660614</v>
       </c>
       <c r="C7" s="1">
         <v>324</v>
@@ -2522,7 +2528,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.674948334693909</v>
+        <v>1.668984651565552</v>
       </c>
       <c r="C8" s="1">
         <v>300</v>
@@ -2548,7 +2554,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.462788224220276</v>
+        <v>1.457579970359802</v>
       </c>
       <c r="C9" s="1">
         <v>262</v>
@@ -2574,7 +2580,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.451621890068054</v>
+        <v>1.446453452110291</v>
       </c>
       <c r="C10" s="1">
         <v>260</v>
@@ -2600,7 +2606,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.272960782051086</v>
+        <v>1.268428325653076</v>
       </c>
       <c r="C11" s="1">
         <v>228</v>
@@ -2626,16 +2632,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.8039752244949341</v>
+        <v>0.8011126518249512</v>
       </c>
       <c r="C12" s="1">
         <v>144</v>
       </c>
       <c r="D12" s="1">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="E12" s="1">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="F12" s="1">
         <v>17</v>
@@ -2652,7 +2658,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.5359835028648377</v>
+        <v>0.5340750813484192</v>
       </c>
       <c r="C13" s="1">
         <v>96</v>
@@ -2678,16 +2684,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.401987612247467</v>
+        <v>0.4005563259124756</v>
       </c>
       <c r="C14" s="1">
         <v>72</v>
       </c>
       <c r="D14" s="1">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="E14" s="1">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2704,16 +2710,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.3573223054409027</v>
+        <v>0.4005563259124756</v>
       </c>
       <c r="C15" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1">
-        <v>1674</v>
+        <v>140</v>
       </c>
       <c r="E15" s="1">
-        <v>1674</v>
+        <v>140</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2722,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2730,25 +2736,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.2009938061237335</v>
+        <v>0.3560500741004944</v>
       </c>
       <c r="C16" s="1">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1">
-        <v>444</v>
+        <v>1674</v>
       </c>
       <c r="E16" s="1">
-        <v>204</v>
+        <v>1674</v>
       </c>
       <c r="F16" s="1">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2756,22 +2762,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.1563285142183304</v>
+        <v>0.2002781629562378</v>
       </c>
       <c r="C17" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1">
-        <v>1056</v>
+        <v>444</v>
       </c>
       <c r="E17" s="1">
-        <v>1028</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="G17" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -2782,25 +2788,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.1116632223129273</v>
+        <v>0.1557719111442566</v>
       </c>
       <c r="C18" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1">
-        <v>84</v>
+        <v>1056</v>
       </c>
       <c r="E18" s="1">
-        <v>84</v>
+        <v>1028</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2808,25 +2814,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.08933057636022568</v>
+        <v>0.1112656444311142</v>
       </c>
       <c r="C19" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>765</v>
+        <v>84</v>
       </c>
       <c r="E19" s="1">
-        <v>656</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2834,19 +2840,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.08933057636022568</v>
+        <v>0.0890125185251236</v>
       </c>
       <c r="C20" s="1">
         <v>16</v>
       </c>
       <c r="D20" s="1">
-        <v>80</v>
+        <v>765</v>
       </c>
       <c r="E20" s="1">
-        <v>64</v>
+        <v>656</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G20" s="1">
         <v>16</v>
@@ -2860,7 +2866,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.06699793785810471</v>
+        <v>0.0667593851685524</v>
       </c>
       <c r="C21" s="1">
         <v>12</v>
@@ -2886,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.06699793785810471</v>
+        <v>0.0667593851685524</v>
       </c>
       <c r="C22" s="1">
         <v>12</v>
@@ -2912,7 +2918,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.06699793785810471</v>
+        <v>0.0667593851685524</v>
       </c>
       <c r="C23" s="1">
         <v>12</v>
@@ -2938,7 +2944,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.04466528818011284</v>
+        <v>0.0445062592625618</v>
       </c>
       <c r="C24" s="1">
         <v>8</v>
@@ -2964,22 +2970,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.02233264409005642</v>
+        <v>0.0445062592625618</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F25" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -2990,7 +2996,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.02233264409005642</v>
+        <v>0.0222531296312809</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
@@ -2999,10 +3005,10 @@
         <v>30</v>
       </c>
       <c r="E26" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G26" s="1">
         <v>4</v>
@@ -3016,24 +3022,50 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.005583161022514105</v>
+        <v>0.0222531296312809</v>
       </c>
       <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.005563282407820225</v>
+      </c>
+      <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="1">
-        <v>2122</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2072</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="D28" s="1">
+        <v>2126</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2076</v>
+      </c>
+      <c r="F28" s="1">
         <v>49</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3126,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>17.18692207336426</v>
+        <v>17.14886283874512</v>
       </c>
       <c r="C3" s="1">
         <v>10687</v>
@@ -3152,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>8.361075401306152</v>
+        <v>8.342559814453125</v>
       </c>
       <c r="C4" s="1">
         <v>5199</v>
@@ -3178,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>5.639986515045166</v>
+        <v>5.62749719619751</v>
       </c>
       <c r="C5" s="1">
         <v>3507</v>
@@ -3204,7 +3236,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>4.808542728424072</v>
+        <v>4.797894477844238</v>
       </c>
       <c r="C6" s="1">
         <v>2990</v>
@@ -3227,19 +3259,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
-        <v>4.29391622543335</v>
+        <v>3.899292469024658</v>
       </c>
       <c r="C7" s="1">
-        <v>2670</v>
+        <v>2430</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>2670</v>
+        <v>2430</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3253,10 +3285,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2">
-        <v>3.755166292190552</v>
+        <v>3.746850967407227</v>
       </c>
       <c r="C8" s="1">
         <v>2335</v>
@@ -3282,7 +3314,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>3.694054365158081</v>
+        <v>3.685874223709106</v>
       </c>
       <c r="C9" s="1">
         <v>2297</v>
@@ -3305,19 +3337,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>3.412617921829224</v>
+        <v>3.411479711532593</v>
       </c>
       <c r="C10" s="1">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="F10" s="1">
         <v>49</v>
@@ -3331,10 +3363,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2">
-        <v>3.113491296768189</v>
+        <v>3.10659670829773</v>
       </c>
       <c r="C11" s="1">
         <v>1936</v>
@@ -3360,7 +3392,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2.795066118240356</v>
+        <v>2.788876533508301</v>
       </c>
       <c r="C12" s="1">
         <v>1738</v>
@@ -3383,10 +3415,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>2.692140579223633</v>
+        <v>2.686179161071777</v>
       </c>
       <c r="C13" s="1">
         <v>1674</v>
@@ -3409,10 +3441,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>2.499155759811401</v>
+        <v>2.493621587753296</v>
       </c>
       <c r="C14" s="1">
         <v>1554</v>
@@ -3435,10 +3467,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>2.126051425933838</v>
+        <v>2.121343374252319</v>
       </c>
       <c r="C15" s="1">
         <v>1322</v>
@@ -3461,10 +3493,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>1.875170826911926</v>
+        <v>1.871018528938294</v>
       </c>
       <c r="C16" s="1">
         <v>1166</v>
@@ -3487,10 +3519,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>1.698267936706543</v>
+        <v>1.694507241249085</v>
       </c>
       <c r="C17" s="1">
         <v>1056</v>
@@ -3513,10 +3545,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
-        <v>1.695051550865173</v>
+        <v>1.691298007965088</v>
       </c>
       <c r="C18" s="1">
         <v>1054</v>
@@ -3539,19 +3571,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
-        <v>1.421656131744385</v>
+        <v>1.514786839485169</v>
       </c>
       <c r="C19" s="1">
-        <v>884</v>
+        <v>944</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>884</v>
+        <v>944</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3565,22 +3597,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
-        <v>1.289783000946045</v>
+        <v>1.418508052825928</v>
       </c>
       <c r="C20" s="1">
-        <v>802</v>
+        <v>884</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>764</v>
+        <v>884</v>
       </c>
       <c r="F20" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -3591,25 +3623,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2">
-        <v>1.230279326438904</v>
+        <v>1.286926984786987</v>
       </c>
       <c r="C21" s="1">
-        <v>765</v>
+        <v>802</v>
       </c>
       <c r="D21" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>656</v>
+        <v>764</v>
       </c>
       <c r="F21" s="1">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -3617,25 +3649,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1.083932399749756</v>
+        <v>1.2275550365448</v>
       </c>
       <c r="C22" s="1">
-        <v>674</v>
+        <v>765</v>
       </c>
       <c r="D22" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -3643,25 +3675,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>0.984223484992981</v>
+        <v>1.081532120704651</v>
       </c>
       <c r="C23" s="1">
-        <v>612</v>
+        <v>674</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1">
-        <v>612</v>
+        <v>662</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -3669,19 +3701,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2">
-        <v>0.8684324622154236</v>
+        <v>0.8279978632926941</v>
       </c>
       <c r="C24" s="1">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3698,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8298354744911194</v>
+        <v>0.8279978632926941</v>
       </c>
       <c r="C25" s="1">
         <v>516</v>
@@ -3721,10 +3753,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
-        <v>0.7687235474586487</v>
+        <v>0.7670212984085083</v>
       </c>
       <c r="C26" s="1">
         <v>478</v>
@@ -3750,16 +3782,16 @@
         <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>0.7156527042388916</v>
+        <v>0.7397422790527344</v>
       </c>
       <c r="C27" s="1">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="D27" s="1">
         <v>144</v>
       </c>
       <c r="E27" s="1">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="F27" s="1">
         <v>17</v>
@@ -3773,10 +3805,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7140445113182068</v>
+        <v>0.7124633193016052</v>
       </c>
       <c r="C28" s="1">
         <v>444</v>
@@ -3799,10 +3831,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>0.6915295720100403</v>
+        <v>0.689998209476471</v>
       </c>
       <c r="C29" s="1">
         <v>430</v>
@@ -3825,10 +3857,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>0.6883131265640259</v>
+        <v>0.6867889165878296</v>
       </c>
       <c r="C30" s="1">
         <v>428</v>
@@ -3851,10 +3883,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6722310781478882</v>
+        <v>0.6707424521446228</v>
       </c>
       <c r="C31" s="1">
         <v>418</v>
@@ -3877,10 +3909,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6577571630477905</v>
+        <v>0.6563006639480591</v>
       </c>
       <c r="C32" s="1">
         <v>409</v>
@@ -3906,7 +3938,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6368504762649536</v>
+        <v>0.6354402303695679</v>
       </c>
       <c r="C33" s="1">
         <v>396</v>
@@ -3929,10 +3961,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6239848136901856</v>
+        <v>0.6226030588150024</v>
       </c>
       <c r="C34" s="1">
         <v>388</v>
@@ -3955,10 +3987,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6046863198280335</v>
+        <v>0.6033473014831543</v>
       </c>
       <c r="C35" s="1">
         <v>376</v>
@@ -3981,10 +4013,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5757385492324829</v>
+        <v>0.5744636654853821</v>
       </c>
       <c r="C36" s="1">
         <v>358</v>
@@ -4007,19 +4039,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5467908382415772</v>
+        <v>0.5327427983283997</v>
       </c>
       <c r="C37" s="1">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -4033,22 +4065,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5339251756668091</v>
+        <v>0.5070684552192688</v>
       </c>
       <c r="C38" s="1">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -4059,22 +4091,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2">
-        <v>0.508193850517273</v>
+        <v>0.5006498694419861</v>
       </c>
       <c r="C39" s="1">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="F39" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -4085,74 +4117,74 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5017609596252441</v>
+        <v>0.4813941121101379</v>
       </c>
       <c r="C40" s="1">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>5120</v>
       </c>
       <c r="E40" s="1">
-        <v>312</v>
+        <v>64</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4824624955654144</v>
+        <v>0.4139989316463471</v>
       </c>
       <c r="C41" s="1">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="D41" s="1">
-        <v>5120</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="F41" s="1">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>5120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4502983093261719</v>
+        <v>0.3931385278701782</v>
       </c>
       <c r="C42" s="1">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -4163,19 +4195,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4149177372455597</v>
+        <v>0.3819060027599335</v>
       </c>
       <c r="C43" s="1">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -4189,22 +4221,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4133095443248749</v>
+        <v>0.3658595383167267</v>
       </c>
       <c r="C44" s="1">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="F44" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -4215,19 +4247,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3827535808086395</v>
+        <v>0.359440952539444</v>
       </c>
       <c r="C45" s="1">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -4241,19 +4273,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3602386713027954</v>
+        <v>0.3562316596508026</v>
       </c>
       <c r="C46" s="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -4267,22 +4299,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3570222556591034</v>
+        <v>0.3145108222961426</v>
       </c>
       <c r="C47" s="1">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -4293,10 +4325,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3152088224887848</v>
+        <v>0.3145108222961426</v>
       </c>
       <c r="C48" s="1">
         <v>196</v>
@@ -4305,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F48" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -4319,10 +4351,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3119924068450928</v>
+        <v>0.3113015294075012</v>
       </c>
       <c r="C49" s="1">
         <v>194</v>
@@ -4345,16 +4377,16 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3087759912014008</v>
+        <v>0.3080922365188599</v>
       </c>
       <c r="C50" s="1">
         <v>192</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E50" s="1">
         <v>192</v>
@@ -4366,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4374,7 +4406,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3023431599140167</v>
+        <v>0.3016736507415772</v>
       </c>
       <c r="C51" s="1">
         <v>188</v>
@@ -4400,7 +4432,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2862610816955566</v>
+        <v>0.2856271862983704</v>
       </c>
       <c r="C52" s="1">
         <v>178</v>
@@ -4426,7 +4458,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2508804798126221</v>
+        <v>0.250324934720993</v>
       </c>
       <c r="C53" s="1">
         <v>156</v>
@@ -4452,7 +4484,7 @@
         <v>61</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2251491546630859</v>
+        <v>0.2246505916118622</v>
       </c>
       <c r="C54" s="1">
         <v>140</v>
@@ -4475,10 +4507,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2251491546630859</v>
+        <v>0.2246505916118622</v>
       </c>
       <c r="C55" s="1">
         <v>140</v>
@@ -4504,7 +4536,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2219327390193939</v>
+        <v>0.2214412987232208</v>
       </c>
       <c r="C56" s="1">
         <v>138</v>
@@ -4530,7 +4562,7 @@
         <v>63</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2219327390193939</v>
+        <v>0.2214412987232208</v>
       </c>
       <c r="C57" s="1">
         <v>138</v>
@@ -4556,7 +4588,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2219327390193939</v>
+        <v>0.2214412987232208</v>
       </c>
       <c r="C58" s="1">
         <v>138</v>
@@ -4582,16 +4614,16 @@
         <v>65</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2058506608009338</v>
+        <v>0.2214412987232208</v>
       </c>
       <c r="C59" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -4605,25 +4637,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2058506608009338</v>
+        <v>0.2150227129459381</v>
       </c>
       <c r="C60" s="1">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E60" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -4631,19 +4663,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1994178295135498</v>
+        <v>0.2053948193788528</v>
       </c>
       <c r="C61" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4657,19 +4689,19 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1929849982261658</v>
+        <v>0.2053948193788528</v>
       </c>
       <c r="C62" s="1">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4683,19 +4715,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1801193356513977</v>
+        <v>0.1989762336015701</v>
       </c>
       <c r="C63" s="1">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D63" s="1">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4704,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4712,16 +4744,16 @@
         <v>69</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1801193356513977</v>
+        <v>0.1925576478242874</v>
       </c>
       <c r="C64" s="1">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4735,19 +4767,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1704700738191605</v>
+        <v>0.179720476269722</v>
       </c>
       <c r="C65" s="1">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="E65" s="1">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4756,24 +4788,24 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1672536581754684</v>
+        <v>0.179720476269722</v>
       </c>
       <c r="C66" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4787,19 +4819,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1672536581754684</v>
+        <v>0.1733018755912781</v>
       </c>
       <c r="C67" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4813,19 +4845,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1608208268880844</v>
+        <v>0.1700925827026367</v>
       </c>
       <c r="C68" s="1">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4839,19 +4871,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1608208268880844</v>
+        <v>0.1668832898139954</v>
       </c>
       <c r="C69" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4865,19 +4897,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1576044112443924</v>
+        <v>0.1668832898139954</v>
       </c>
       <c r="C70" s="1">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4891,19 +4923,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1576044112443924</v>
+        <v>0.1604647040367127</v>
       </c>
       <c r="C71" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4917,19 +4949,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1447387486696243</v>
+        <v>0.1604647040367127</v>
       </c>
       <c r="C72" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4943,19 +4975,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1415223330259323</v>
+        <v>0.1572554111480713</v>
       </c>
       <c r="C73" s="1">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4969,19 +5001,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1383059173822403</v>
+        <v>0.1572554111480713</v>
       </c>
       <c r="C74" s="1">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4995,19 +5027,19 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1383059173822403</v>
+        <v>0.1444182395935059</v>
       </c>
       <c r="C75" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -5021,19 +5053,19 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1383059173822403</v>
+        <v>0.1412089467048645</v>
       </c>
       <c r="C76" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -5047,19 +5079,19 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1350895017385483</v>
+        <v>0.1379996538162231</v>
       </c>
       <c r="C77" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D77" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -5068,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5076,16 +5108,16 @@
         <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1318730860948563</v>
+        <v>0.1379996538162231</v>
       </c>
       <c r="C78" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -5099,25 +5131,25 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1286566704511643</v>
+        <v>0.1379996538162231</v>
       </c>
       <c r="C79" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D79" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H79" s="1">
         <v>0</v>
@@ -5125,19 +5157,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B80" s="2">
-        <v>0.125440239906311</v>
+        <v>0.1347903460264206</v>
       </c>
       <c r="C80" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E80" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -5146,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5154,16 +5186,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="2">
-        <v>0.125440239906311</v>
+        <v>0.1315810531377792</v>
       </c>
       <c r="C81" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -5180,16 +5212,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="2">
-        <v>0.1222238317131996</v>
+        <v>0.1251624673604965</v>
       </c>
       <c r="C82" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -5203,25 +5235,25 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2">
-        <v>0.1222238317131996</v>
+        <v>0.1251624673604965</v>
       </c>
       <c r="C83" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D83" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
@@ -5229,10 +5261,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2">
-        <v>0.1222238317131996</v>
+        <v>0.1219531744718552</v>
       </c>
       <c r="C84" s="1">
         <v>76</v>
@@ -5255,25 +5287,25 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="B85" s="2">
-        <v>0.1190074160695076</v>
+        <v>0.1219531744718552</v>
       </c>
       <c r="C85" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E85" s="1">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H85" s="1">
         <v>0</v>
@@ -5284,16 +5316,16 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>0.1157910004258156</v>
+        <v>0.1219531744718552</v>
       </c>
       <c r="C86" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -5310,19 +5342,19 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>0.1157910004258156</v>
+        <v>0.1187438815832138</v>
       </c>
       <c r="C87" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F87" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G87" s="1">
         <v>0</v>
@@ -5336,7 +5368,7 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>0.1157910004258156</v>
+        <v>0.1155345886945725</v>
       </c>
       <c r="C88" s="1">
         <v>72</v>
@@ -5362,19 +5394,19 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>0.109358161687851</v>
+        <v>0.1155345886945725</v>
       </c>
       <c r="C89" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F89" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G89" s="1">
         <v>0</v>
@@ -5388,16 +5420,16 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>0.1029253304004669</v>
+        <v>0.1155345886945725</v>
       </c>
       <c r="C90" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -5414,16 +5446,16 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>0.1029253304004669</v>
+        <v>0.1091160029172897</v>
       </c>
       <c r="C91" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -5440,16 +5472,16 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>0.0997089147567749</v>
+        <v>0.1026974096894264</v>
       </c>
       <c r="C92" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -5466,16 +5498,16 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>0.09649249911308289</v>
+        <v>0.1026974096894264</v>
       </c>
       <c r="C93" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -5492,16 +5524,16 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>0.09005966782569885</v>
+        <v>0.09948811680078507</v>
       </c>
       <c r="C94" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -5518,16 +5550,16 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>0.09005966782569885</v>
+        <v>0.09627882391214371</v>
       </c>
       <c r="C95" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -5544,16 +5576,16 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>0.08684324473142624</v>
+        <v>0.08986023813486099</v>
       </c>
       <c r="C96" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -5570,16 +5602,16 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>0.08362682908773422</v>
+        <v>0.08986023813486099</v>
       </c>
       <c r="C97" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -5596,16 +5628,16 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>0.08362682908773422</v>
+        <v>0.08665093779563904</v>
       </c>
       <c r="C98" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -5622,16 +5654,16 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>0.07719399780035019</v>
+        <v>0.08344164490699768</v>
       </c>
       <c r="C99" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -5648,16 +5680,16 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>0.07719399780035019</v>
+        <v>0.08344164490699768</v>
       </c>
       <c r="C100" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -5674,16 +5706,16 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>0.07076116651296616</v>
+        <v>0.07702305912971497</v>
       </c>
       <c r="C101" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -5700,16 +5732,16 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>0.07076116651296616</v>
+        <v>0.07702305912971497</v>
       </c>
       <c r="C102" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -5726,7 +5758,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>0.07076116651296616</v>
+        <v>0.07060447335243225</v>
       </c>
       <c r="C103" s="1">
         <v>44</v>
@@ -5752,7 +5784,7 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>0.07076116651296616</v>
+        <v>0.07060447335243225</v>
       </c>
       <c r="C104" s="1">
         <v>44</v>
@@ -5778,7 +5810,7 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>0.07076116651296616</v>
+        <v>0.07060447335243225</v>
       </c>
       <c r="C105" s="1">
         <v>44</v>
@@ -5801,16 +5833,16 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>0.07076116651296616</v>
+        <v>0.07060447335243225</v>
       </c>
       <c r="C106" s="1">
         <v>44</v>
       </c>
       <c r="D106" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E106" s="1">
         <v>44</v>
@@ -5822,24 +5854,24 @@
         <v>0</v>
       </c>
       <c r="H106" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>0.06432833522558212</v>
+        <v>0.07060447335243225</v>
       </c>
       <c r="C107" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -5853,19 +5885,19 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B108" s="2">
-        <v>0.06432833522558212</v>
+        <v>0.07060447335243225</v>
       </c>
       <c r="C108" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D108" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E108" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -5874,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5882,7 +5914,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="2">
-        <v>0.06432833522558212</v>
+        <v>0.06418588012456894</v>
       </c>
       <c r="C109" s="1">
         <v>40</v>
@@ -5908,16 +5940,16 @@
         <v>111</v>
       </c>
       <c r="B110" s="2">
-        <v>0.06111191585659981</v>
+        <v>0.06418588012456894</v>
       </c>
       <c r="C110" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
       <c r="E110" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -5934,16 +5966,16 @@
         <v>112</v>
       </c>
       <c r="B111" s="2">
-        <v>0.05789550021290779</v>
+        <v>0.06418588012456894</v>
       </c>
       <c r="C111" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
       </c>
       <c r="E111" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -5960,7 +5992,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>0.05789550021290779</v>
+        <v>0.05776729434728622</v>
       </c>
       <c r="C112" s="1">
         <v>36</v>
@@ -5986,7 +6018,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>0.05789550021290779</v>
+        <v>0.05776729434728622</v>
       </c>
       <c r="C113" s="1">
         <v>36</v>
@@ -6012,16 +6044,16 @@
         <v>115</v>
       </c>
       <c r="B114" s="2">
-        <v>0.05467908084392548</v>
+        <v>0.05776729434728622</v>
       </c>
       <c r="C114" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -6038,16 +6070,16 @@
         <v>116</v>
       </c>
       <c r="B115" s="2">
-        <v>0.05146266520023346</v>
+        <v>0.05455800145864487</v>
       </c>
       <c r="C115" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
       </c>
       <c r="E115" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -6061,25 +6093,25 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2">
-        <v>0.04824624955654144</v>
+        <v>0.05134870484471321</v>
       </c>
       <c r="C116" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D116" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E116" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F116" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G116" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H116" s="1">
         <v>0</v>
@@ -6090,7 +6122,7 @@
         <v>24</v>
       </c>
       <c r="B117" s="2">
-        <v>0.04824624955654144</v>
+        <v>0.04813941195607185</v>
       </c>
       <c r="C117" s="1">
         <v>30</v>
@@ -6099,10 +6131,10 @@
         <v>4</v>
       </c>
       <c r="E117" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F117" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G117" s="1">
         <v>4</v>
@@ -6113,25 +6145,25 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="B118" s="2">
-        <v>0.04502983391284943</v>
+        <v>0.04813941195607185</v>
       </c>
       <c r="C118" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D118" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E118" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H118" s="1">
         <v>0</v>
@@ -6142,7 +6174,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.04502983391284943</v>
+        <v>0.0449301190674305</v>
       </c>
       <c r="C119" s="1">
         <v>28</v>
@@ -6168,16 +6200,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.0385969989001751</v>
+        <v>0.0449301190674305</v>
       </c>
       <c r="C120" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
       </c>
       <c r="E120" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -6194,7 +6226,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.0385969989001751</v>
+        <v>0.03851152956485748</v>
       </c>
       <c r="C121" s="1">
         <v>24</v>
@@ -6220,16 +6252,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.0289477501064539</v>
+        <v>0.03851152956485748</v>
       </c>
       <c r="C122" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
       </c>
       <c r="E122" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -6246,7 +6278,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.0289477501064539</v>
+        <v>0.02888364717364311</v>
       </c>
       <c r="C123" s="1">
         <v>18</v>
@@ -6272,16 +6304,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.02573133260011673</v>
+        <v>0.02888364717364311</v>
       </c>
       <c r="C124" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -6298,7 +6330,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>0.02573133260011673</v>
+        <v>0.02567435242235661</v>
       </c>
       <c r="C125" s="1">
         <v>16</v>
@@ -6324,7 +6356,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>0.02573133260011673</v>
+        <v>0.02567435242235661</v>
       </c>
       <c r="C126" s="1">
         <v>16</v>
@@ -6350,16 +6382,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>0.02251491695642471</v>
+        <v>0.02567435242235661</v>
       </c>
       <c r="C127" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
       </c>
       <c r="E127" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
@@ -6376,16 +6408,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01929849945008755</v>
+        <v>0.02246505953371525</v>
       </c>
       <c r="C128" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
       </c>
       <c r="E128" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -6402,7 +6434,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01929849945008755</v>
+        <v>0.01925576478242874</v>
       </c>
       <c r="C129" s="1">
         <v>12</v>
@@ -6428,7 +6460,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01929849945008755</v>
+        <v>0.01925576478242874</v>
       </c>
       <c r="C130" s="1">
         <v>12</v>
@@ -6437,10 +6469,10 @@
         <v>0</v>
       </c>
       <c r="E130" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F130" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G130" s="1">
         <v>0</v>
@@ -6454,7 +6486,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01929849945008755</v>
+        <v>0.01925576478242874</v>
       </c>
       <c r="C131" s="1">
         <v>12</v>
@@ -6463,10 +6495,10 @@
         <v>0</v>
       </c>
       <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
         <v>12</v>
-      </c>
-      <c r="F131" s="1">
-        <v>0</v>
       </c>
       <c r="G131" s="1">
         <v>0</v>
@@ -6480,7 +6512,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01929849945008755</v>
+        <v>0.01925576478242874</v>
       </c>
       <c r="C132" s="1">
         <v>12</v>
@@ -6506,16 +6538,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01608208380639553</v>
+        <v>0.01925576478242874</v>
       </c>
       <c r="C133" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
       </c>
       <c r="E133" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -6532,7 +6564,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01608208380639553</v>
+        <v>0.01604647003114224</v>
       </c>
       <c r="C134" s="1">
         <v>10</v>
@@ -6558,7 +6590,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01608208380639553</v>
+        <v>0.01604647003114224</v>
       </c>
       <c r="C135" s="1">
         <v>10</v>
@@ -6584,7 +6616,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01608208380639553</v>
+        <v>0.01604647003114224</v>
       </c>
       <c r="C136" s="1">
         <v>10</v>
@@ -6610,7 +6642,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>0.01608208380639553</v>
+        <v>0.01604647003114224</v>
       </c>
       <c r="C137" s="1">
         <v>10</v>
@@ -6636,16 +6668,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>0.01286566630005837</v>
+        <v>0.01604647003114224</v>
       </c>
       <c r="C138" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D138" s="1">
         <v>0</v>
       </c>
       <c r="E138" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
@@ -6659,16 +6691,16 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2">
-        <v>0.01286566630005837</v>
+        <v>0.0128371762111783</v>
       </c>
       <c r="C139" s="1">
         <v>8</v>
       </c>
       <c r="D139" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E139" s="1">
         <v>8</v>
@@ -6680,21 +6712,21 @@
         <v>0</v>
       </c>
       <c r="H139" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="B140" s="2">
-        <v>0.01286566630005837</v>
+        <v>0.0128371762111783</v>
       </c>
       <c r="C140" s="1">
         <v>8</v>
       </c>
       <c r="D140" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E140" s="1">
         <v>8</v>
@@ -6706,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="H140" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6714,7 +6746,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.01286566630005837</v>
+        <v>0.0128371762111783</v>
       </c>
       <c r="C141" s="1">
         <v>8</v>
@@ -6740,16 +6772,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.0128371762111783</v>
       </c>
       <c r="C142" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D142" s="1">
         <v>0</v>
       </c>
       <c r="E142" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F142" s="1">
         <v>0</v>
@@ -6766,7 +6798,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C143" s="1">
         <v>6</v>
@@ -6792,7 +6824,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C144" s="1">
         <v>6</v>
@@ -6818,7 +6850,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C145" s="1">
         <v>6</v>
@@ -6844,7 +6876,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C146" s="1">
         <v>6</v>
@@ -6870,7 +6902,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C147" s="1">
         <v>6</v>
@@ -6896,7 +6928,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C148" s="1">
         <v>6</v>
@@ -6922,7 +6954,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C149" s="1">
         <v>6</v>
@@ -6948,7 +6980,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C150" s="1">
         <v>6</v>
@@ -6974,7 +7006,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C151" s="1">
         <v>6</v>
@@ -7000,7 +7032,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C152" s="1">
         <v>6</v>
@@ -7026,7 +7058,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C153" s="1">
         <v>6</v>
@@ -7052,7 +7084,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C154" s="1">
         <v>6</v>
@@ -7078,7 +7110,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C155" s="1">
         <v>6</v>
@@ -7104,7 +7136,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C156" s="1">
         <v>6</v>
@@ -7130,7 +7162,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C157" s="1">
         <v>6</v>
@@ -7156,7 +7188,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C158" s="1">
         <v>6</v>
@@ -7182,7 +7214,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C159" s="1">
         <v>6</v>
@@ -7208,7 +7240,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C160" s="1">
         <v>6</v>
@@ -7234,7 +7266,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C161" s="1">
         <v>6</v>
@@ -7260,7 +7292,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C162" s="1">
         <v>6</v>
@@ -7286,7 +7318,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>0.009649249725043774</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C163" s="1">
         <v>6</v>
@@ -7312,16 +7344,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>0.006432833150029182</v>
+        <v>0.009627882391214371</v>
       </c>
       <c r="C164" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
       </c>
       <c r="E164" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F164" s="1">
         <v>0</v>
@@ -7338,7 +7370,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>0.006432833150029182</v>
+        <v>0.006418588105589151</v>
       </c>
       <c r="C165" s="1">
         <v>4</v>
@@ -7364,7 +7396,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>0.006432833150029182</v>
+        <v>0.006418588105589151</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
@@ -7390,7 +7422,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>0.006432833150029182</v>
+        <v>0.006418588105589151</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
@@ -7416,7 +7448,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>0.003216416575014591</v>
+        <v>0.003209294052794576</v>
       </c>
       <c r="C168" s="1">
         <v>2</v>
@@ -7442,7 +7474,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>0.003216416575014591</v>
+        <v>0.003209294052794576</v>
       </c>
       <c r="C169" s="1">
         <v>2</v>
@@ -7468,7 +7500,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>0.003216416575014591</v>
+        <v>0.003209294052794576</v>
       </c>
       <c r="C170" s="1">
         <v>2</v>
@@ -7494,7 +7526,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>0.003216416575014591</v>
+        <v>0.003209294052794576</v>
       </c>
       <c r="C171" s="1">
         <v>2</v>
@@ -7520,7 +7552,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>0.003216416575014591</v>
+        <v>0.003209294052794576</v>
       </c>
       <c r="C172" s="1">
         <v>2</v>
@@ -7546,7 +7578,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>0.003216416575014591</v>
+        <v>0.003209294052794576</v>
       </c>
       <c r="C173" s="1">
         <v>2</v>
